--- a/data/nzd0383/nzd0383.xlsx
+++ b/data/nzd0383/nzd0383.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K567"/>
+  <dimension ref="A1:K576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20302,6 +20302,357 @@
         <v>351.2378787878788</v>
       </c>
       <c r="K567" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:13:34+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>317.8128571428572</v>
+      </c>
+      <c r="C568" t="n">
+        <v>335.5723076923077</v>
+      </c>
+      <c r="D568" t="n">
+        <v>344.9023076923077</v>
+      </c>
+      <c r="E568" t="n">
+        <v>353.3466666666667</v>
+      </c>
+      <c r="F568" t="n">
+        <v>352.5566666666667</v>
+      </c>
+      <c r="G568" t="n">
+        <v>350.9866666666667</v>
+      </c>
+      <c r="H568" t="n">
+        <v>343.62</v>
+      </c>
+      <c r="I568" t="n">
+        <v>332.98</v>
+      </c>
+      <c r="J568" t="n">
+        <v>335.4415151515151</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:19:45+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>326.6442857142857</v>
+      </c>
+      <c r="C569" t="n">
+        <v>331.3315384615385</v>
+      </c>
+      <c r="D569" t="n">
+        <v>345.1515384615385</v>
+      </c>
+      <c r="E569" t="n">
+        <v>345.1666666666667</v>
+      </c>
+      <c r="F569" t="n">
+        <v>352.2366666666667</v>
+      </c>
+      <c r="G569" t="n">
+        <v>350.7666666666667</v>
+      </c>
+      <c r="H569" t="n">
+        <v>348.7</v>
+      </c>
+      <c r="I569" t="n">
+        <v>339.57</v>
+      </c>
+      <c r="J569" t="n">
+        <v>352.4033333333333</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:19:38+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>326.6985714285714</v>
+      </c>
+      <c r="C570" t="n">
+        <v>336.1230769230769</v>
+      </c>
+      <c r="D570" t="n">
+        <v>341.9630769230769</v>
+      </c>
+      <c r="E570" t="n">
+        <v>346.64</v>
+      </c>
+      <c r="F570" t="n">
+        <v>346.72</v>
+      </c>
+      <c r="G570" t="n">
+        <v>342.41</v>
+      </c>
+      <c r="H570" t="n">
+        <v>330.9</v>
+      </c>
+      <c r="I570" t="n">
+        <v>322.52</v>
+      </c>
+      <c r="J570" t="n">
+        <v>332.6363636363636</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:13:30+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>330.1142857142857</v>
+      </c>
+      <c r="C571" t="n">
+        <v>346.1823076923077</v>
+      </c>
+      <c r="D571" t="n">
+        <v>345.1423076923077</v>
+      </c>
+      <c r="E571" t="n">
+        <v>351.3033333333333</v>
+      </c>
+      <c r="F571" t="n">
+        <v>350.7133333333333</v>
+      </c>
+      <c r="G571" t="n">
+        <v>342.1233333333333</v>
+      </c>
+      <c r="H571" t="n">
+        <v>335.35</v>
+      </c>
+      <c r="I571" t="n">
+        <v>326.34</v>
+      </c>
+      <c r="J571" t="n">
+        <v>340.4657575757576</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:19:45+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>331.2985714285714</v>
+      </c>
+      <c r="C572" t="n">
+        <v>330.52</v>
+      </c>
+      <c r="D572" t="n">
+        <v>344.69</v>
+      </c>
+      <c r="E572" t="n">
+        <v>360.7</v>
+      </c>
+      <c r="F572" t="n">
+        <v>355.92</v>
+      </c>
+      <c r="G572" t="n">
+        <v>360.04</v>
+      </c>
+      <c r="H572" t="n">
+        <v>359.78</v>
+      </c>
+      <c r="I572" t="n">
+        <v>348.82</v>
+      </c>
+      <c r="J572" t="n">
+        <v>377.0409090909091</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:19:37+00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>329.8757142857143</v>
+      </c>
+      <c r="C573" t="n">
+        <v>346.1676923076923</v>
+      </c>
+      <c r="D573" t="n">
+        <v>350.0276923076923</v>
+      </c>
+      <c r="E573" t="n">
+        <v>354.8733333333333</v>
+      </c>
+      <c r="F573" t="n">
+        <v>351.4733333333333</v>
+      </c>
+      <c r="G573" t="n">
+        <v>351.4633333333333</v>
+      </c>
+      <c r="H573" t="n">
+        <v>346.68</v>
+      </c>
+      <c r="I573" t="n">
+        <v>326.64</v>
+      </c>
+      <c r="J573" t="n">
+        <v>364.5739393939394</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>330.3757142857143</v>
+      </c>
+      <c r="C574" t="n">
+        <v>346.9146153846153</v>
+      </c>
+      <c r="D574" t="n">
+        <v>355.4246153846154</v>
+      </c>
+      <c r="E574" t="n">
+        <v>359.94</v>
+      </c>
+      <c r="F574" t="n">
+        <v>356.06</v>
+      </c>
+      <c r="G574" t="n">
+        <v>350.42</v>
+      </c>
+      <c r="H574" t="n">
+        <v>346.35</v>
+      </c>
+      <c r="I574" t="n">
+        <v>332.13</v>
+      </c>
+      <c r="J574" t="n">
+        <v>365.0081818181818</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:19:46+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>338.0614285714286</v>
+      </c>
+      <c r="C575" t="n">
+        <v>342.0807692307692</v>
+      </c>
+      <c r="D575" t="n">
+        <v>342.9907692307692</v>
+      </c>
+      <c r="E575" t="n">
+        <v>353.2633333333333</v>
+      </c>
+      <c r="F575" t="n">
+        <v>353.0433333333333</v>
+      </c>
+      <c r="G575" t="n">
+        <v>363.7933333333333</v>
+      </c>
+      <c r="H575" t="n">
+        <v>358.44</v>
+      </c>
+      <c r="I575" t="n">
+        <v>337.02</v>
+      </c>
+      <c r="J575" t="n">
+        <v>347.5921212121212</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:13:24+00:00</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>338.77</v>
+      </c>
+      <c r="C576" t="n">
+        <v>347.6115384615384</v>
+      </c>
+      <c r="D576" t="n">
+        <v>353.5515384615384</v>
+      </c>
+      <c r="E576" t="n">
+        <v>352.94</v>
+      </c>
+      <c r="F576" t="n">
+        <v>354.15</v>
+      </c>
+      <c r="G576" t="n">
+        <v>365.72</v>
+      </c>
+      <c r="H576" t="n">
+        <v>365.05</v>
+      </c>
+      <c r="I576" t="n">
+        <v>342.53</v>
+      </c>
+      <c r="J576" t="n">
+        <v>374.3554545454546</v>
+      </c>
+      <c r="K576" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -20318,7 +20669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B578"/>
+  <dimension ref="A1:B587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26106,6 +26457,96 @@
       </c>
       <c r="B578" t="n">
         <v>0.79</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>-1.06</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
@@ -26274,28 +26715,28 @@
         <v>0.0378</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1991970331754281</v>
+        <v>-0.2310603482514162</v>
       </c>
       <c r="J2" t="n">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="K2" t="n">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003178364324039951</v>
+        <v>0.004447843610697388</v>
       </c>
       <c r="M2" t="n">
-        <v>21.16806894679767</v>
+        <v>20.88879614973803</v>
       </c>
       <c r="N2" t="n">
-        <v>668.1605681027892</v>
+        <v>656.4119551759251</v>
       </c>
       <c r="O2" t="n">
-        <v>25.84880206320574</v>
+        <v>25.62053776125562</v>
       </c>
       <c r="P2" t="n">
-        <v>343.1114031003564</v>
+        <v>343.4183657542621</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -26351,28 +26792,28 @@
         <v>0.0707</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4310534191873373</v>
+        <v>-0.3780503415923522</v>
       </c>
       <c r="J3" t="n">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="K3" t="n">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06155771139441701</v>
+        <v>0.04846400668396067</v>
       </c>
       <c r="M3" t="n">
-        <v>9.422662755497045</v>
+        <v>9.48011544469197</v>
       </c>
       <c r="N3" t="n">
-        <v>157.0803973322516</v>
+        <v>158.8549103496127</v>
       </c>
       <c r="O3" t="n">
-        <v>12.53317187834953</v>
+        <v>12.6037657209904</v>
       </c>
       <c r="P3" t="n">
-        <v>336.3692817178804</v>
+        <v>335.8695758569187</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -26428,28 +26869,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1762440787152676</v>
+        <v>-0.1397853506702726</v>
       </c>
       <c r="J4" t="n">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="K4" t="n">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01366481116272578</v>
+        <v>0.008833834200535295</v>
       </c>
       <c r="M4" t="n">
-        <v>8.607803802467313</v>
+        <v>8.616112598152514</v>
       </c>
       <c r="N4" t="n">
-        <v>125.2545689596474</v>
+        <v>125.0850463297819</v>
       </c>
       <c r="O4" t="n">
-        <v>11.19171876700123</v>
+        <v>11.18414262828322</v>
       </c>
       <c r="P4" t="n">
-        <v>341.4659682988951</v>
+        <v>341.124801388477</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -26505,28 +26946,28 @@
         <v>0.0655</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.240238446995775</v>
+        <v>-0.2031934887917544</v>
       </c>
       <c r="J5" t="n">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="K5" t="n">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02564739202997635</v>
+        <v>0.0188611351822936</v>
       </c>
       <c r="M5" t="n">
-        <v>8.696516087470131</v>
+        <v>8.717862340587828</v>
       </c>
       <c r="N5" t="n">
-        <v>122.4466875415444</v>
+        <v>122.4633751247802</v>
       </c>
       <c r="O5" t="n">
-        <v>11.06556313711798</v>
+        <v>11.0663171436924</v>
       </c>
       <c r="P5" t="n">
-        <v>348.9691436740522</v>
+        <v>348.6215125291508</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -26582,28 +27023,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3185462020173127</v>
+        <v>-0.2818097951912663</v>
       </c>
       <c r="J6" t="n">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="K6" t="n">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04418453141854162</v>
+        <v>0.0358190114563316</v>
       </c>
       <c r="M6" t="n">
-        <v>8.521777171111689</v>
+        <v>8.509261585673448</v>
       </c>
       <c r="N6" t="n">
-        <v>117.1146399467889</v>
+        <v>116.4303621950776</v>
       </c>
       <c r="O6" t="n">
-        <v>10.82195176235733</v>
+        <v>10.79029018122671</v>
       </c>
       <c r="P6" t="n">
-        <v>351.5038882398982</v>
+        <v>351.1395827983722</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -26659,28 +27100,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2300980487354074</v>
+        <v>-0.2034670801808248</v>
       </c>
       <c r="J7" t="n">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="K7" t="n">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02821548171273525</v>
+        <v>0.02261146624502486</v>
       </c>
       <c r="M7" t="n">
-        <v>7.643559844354298</v>
+        <v>7.646374432878296</v>
       </c>
       <c r="N7" t="n">
-        <v>96.97150056422173</v>
+        <v>97.17990284177088</v>
       </c>
       <c r="O7" t="n">
-        <v>9.847410855865705</v>
+        <v>9.857986753986378</v>
       </c>
       <c r="P7" t="n">
-        <v>352.1735451930753</v>
+        <v>351.9102490367936</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -26736,28 +27177,28 @@
         <v>0.0535</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1181106351718901</v>
+        <v>-0.08769274381027507</v>
       </c>
       <c r="J8" t="n">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="K8" t="n">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006755542148935256</v>
+        <v>0.003780375064823649</v>
       </c>
       <c r="M8" t="n">
-        <v>8.406620708471301</v>
+        <v>8.453384233135427</v>
       </c>
       <c r="N8" t="n">
-        <v>114.403222610585</v>
+        <v>115.5882568020547</v>
       </c>
       <c r="O8" t="n">
-        <v>10.69594421313916</v>
+        <v>10.75119792404803</v>
       </c>
       <c r="P8" t="n">
-        <v>343.1844573800076</v>
+        <v>342.9007338230955</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -26813,28 +27254,28 @@
         <v>0.0565</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1841754203105004</v>
+        <v>-0.1599706348851176</v>
       </c>
       <c r="J9" t="n">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="K9" t="n">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01184117318358757</v>
+        <v>0.009222797396126636</v>
       </c>
       <c r="M9" t="n">
-        <v>9.976889538327717</v>
+        <v>9.946588224534633</v>
       </c>
       <c r="N9" t="n">
-        <v>155.406044130083</v>
+        <v>154.4189368015384</v>
       </c>
       <c r="O9" t="n">
-        <v>12.46619605694067</v>
+        <v>12.42654162675756</v>
       </c>
       <c r="P9" t="n">
-        <v>332.4836287553475</v>
+        <v>332.2567006810635</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -26890,28 +27331,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.125619128949271</v>
+        <v>0.02471843163786757</v>
       </c>
       <c r="J10" t="n">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="K10" t="n">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0006816781795124793</v>
+        <v>2.690088058976414e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>25.39849677484239</v>
+        <v>25.42911037872178</v>
       </c>
       <c r="N10" t="n">
-        <v>1182.494819048742</v>
+        <v>1187.719751681207</v>
       </c>
       <c r="O10" t="n">
-        <v>34.38742239611369</v>
+        <v>34.46331022524109</v>
       </c>
       <c r="P10" t="n">
-        <v>322.1120268387381</v>
+        <v>320.589510716013</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -26948,7 +27389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K567"/>
+  <dimension ref="A1:K576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54755,6 +55196,519 @@
         </is>
       </c>
     </row>
+    <row r="568">
+      <c r="A568" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:13:34+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>-42.123039495320704,171.328255688722</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>-42.12235159212543,171.32829436064588</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>-42.121679843902676,171.32839140320255</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>-42.12101241266439,171.32847514355996</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>-42.1203559421535,171.3286182764533</t>
+        </is>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>-42.11970081074023,171.3287705192389</t>
+        </is>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>-42.119038554364884,171.32887959296207</t>
+        </is>
+      </c>
+      <c r="I568" t="inlineStr">
+        <is>
+          <t>-42.118366727086865,171.3290096361621</t>
+        </is>
+      </c>
+      <c r="J568" t="inlineStr">
+        <is>
+          <t>-42.11769906142198,171.32889395370077</t>
+        </is>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:19:45+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>-42.12301690004467,171.32815327348155</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>-42.122361628945235,171.32834384958076</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>-42.12167932901206,171.32838846918042</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>-42.12102639161291,171.32857228114364</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>-42.1203564091642,171.328622095586</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>-42.11970100743669,171.32877316689778</t>
+        </is>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>-42.11903738216416,171.32881817330116</t>
+        </is>
+      </c>
+      <c r="I569" t="inlineStr">
+        <is>
+          <t>-42.11836870086928,171.32892997863658</t>
+        </is>
+      </c>
+      <c r="J569" t="inlineStr">
+        <is>
+          <t>-42.11771153324418,171.3286894991352</t>
+        </is>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:19:38+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>-42.123016761153984,171.3281526439478</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>-42.1223502885935,171.32828793327954</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>-42.12168591611021,171.32842600474467</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>-42.121023873813215,171.3285547852919</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>-42.12036446021446,171.32868793585172</t>
+        </is>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>-42.119708478877556,171.3288737378324</t>
+        </is>
+      </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>-42.119041489337576,171.32903338393868</t>
+        </is>
+      </c>
+      <c r="I570" t="inlineStr">
+        <is>
+          <t>-42.118363594080186,171.32913607283507</t>
+        </is>
+      </c>
+      <c r="J570" t="inlineStr">
+        <is>
+          <t>-42.11769699879232,171.3289277664628</t>
+        </is>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:13:30+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>-42.123008021999006,171.3281130330268</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>-42.12232648086749,171.32817054412394</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>-42.12167934808208,171.32838857784793</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>-42.12101590456098,171.32849940815996</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>-42.12035863232804,171.32864027624976</t>
+        </is>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>-42.11970873517593,171.32887718781308</t>
+        </is>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>-42.119040462582035,171.32897958127546</t>
+        </is>
+      </c>
+      <c r="I571" t="inlineStr">
+        <is>
+          <t>-42.11836473827282,171.32908989806631</t>
+        </is>
+      </c>
+      <c r="J571" t="inlineStr">
+        <is>
+          <t>-42.11770275572553,171.3288333924349</t>
+        </is>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:19:45+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>-42.12300499198354,171.32809929925548</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>-42.1223635496475,171.3283533200753</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>-42.12168028251314,171.32839390255472</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>-42.120999846351765,171.32838782269005</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>-42.12035103366868,171.32857813578107</t>
+        </is>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>-42.119692716329375,171.32866156408068</t>
+        </is>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>-42.119034825360394,171.32868421074514</t>
+        </is>
+      </c>
+      <c r="I572" t="inlineStr">
+        <is>
+          <t>-42.11837147125948,171.32881816799215</t>
+        </is>
+      </c>
+      <c r="J572" t="inlineStr">
+        <is>
+          <t>-42.117729648307424,171.3283925223097</t>
+        </is>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:19:37+00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>-42.12300863238794,171.32811579966122</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>-42.1223265154586,171.32817071468241</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>-42.1216692552575,171.32833106559144</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>-42.12100980370736,171.3284570143827</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>-42.12035752317884,171.32863120580902</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>-42.11970038456432,171.32876478264475</t>
+        </is>
+      </c>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>-42.1190378482794,171.3288425960793</t>
+        </is>
+      </c>
+      <c r="I573" t="inlineStr">
+        <is>
+          <t>-42.11836482813007,171.32908627177554</t>
+        </is>
+      </c>
+      <c r="J573" t="inlineStr">
+        <is>
+          <t>-42.11772048191989,171.32854279689704</t>
+        </is>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>-42.123007353129644,171.32811000132565</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>-42.12232474767061,171.32816199824725</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>-42.12165810560108,171.3282675313685</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>-42.12100114513963,171.32839684769215</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>-42.12035082935088,171.3285764649108</t>
+        </is>
+      </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>-42.11970131738255,171.32877733896635</t>
+        </is>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>-42.11903792442644,171.32884658593915</t>
+        </is>
+      </c>
+      <c r="I574" t="inlineStr">
+        <is>
+          <t>-42.11836647249785,171.32901991065305</t>
+        </is>
+      </c>
+      <c r="J574" t="inlineStr">
+        <is>
+          <t>-42.117720801201635,171.32853756261838</t>
+        </is>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:19:46+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>-42.12298768906554,171.32802087265495</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>-42.12233618821494,171.32821840822373</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>-42.12168379298412,171.3284139064292</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>-42.12101255507462,171.32847613314394</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>-42.120355231907794,171.32861246818914</t>
+        </is>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>-42.11968936051618,171.3286163934314</t>
+        </is>
+      </c>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>-42.11903513458505,171.32870041199206</t>
+        </is>
+      </c>
+      <c r="I575" t="inlineStr">
+        <is>
+          <t>-42.1183679371209,171.3289608021104</t>
+        </is>
+      </c>
+      <c r="J575" t="inlineStr">
+        <is>
+          <t>-42.117707995654584,171.32874749258804</t>
+        </is>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:13:24+00:00</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>-42.12298587616697,171.3280126555908</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>-42.12232309822004,171.32815386530203</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>-42.12166197524777,171.32828958179815</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>-42.12101310762628,171.32847997272972</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>-42.12035361682745,171.32859926035601</t>
+        </is>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>-42.119687637898274,171.32859320636837</t>
+        </is>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>-42.11903360920845,171.3286204939032</t>
+        </is>
+      </c>
+      <c r="I576" t="inlineStr">
+        <is>
+          <t>-42.11836958740603,171.32889419923103</t>
+        </is>
+      </c>
+      <c r="J576" t="inlineStr">
+        <is>
+          <t>-42.117727673833336,171.32842489229395</t>
+        </is>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0383/nzd0383.xlsx
+++ b/data/nzd0383/nzd0383.xlsx
@@ -26560,7 +26560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26651,35 +26651,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -26738,27 +26743,28 @@
       <c r="P2" t="n">
         <v>343.4183657542621</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (171.33194131258813 -42.12385256183744, 171.32153968066473 -42.12155755537217)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>171.3319413125881</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-42.12385256183744</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>171.3215396806647</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-42.12155755537217</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>171.3267404966264</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-42.12270505860481</v>
       </c>
     </row>
@@ -26815,27 +26821,28 @@
       <c r="P3" t="n">
         <v>335.8695758569187</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (171.33221047312156 -42.12314574104005, 171.3217430558935 -42.12102271079105)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>171.3322104731216</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-42.12314574104005</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>171.3217430558935</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-42.12102271079105</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>171.3269767645075</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-42.12208422591555</v>
       </c>
     </row>
@@ -26892,27 +26899,28 @@
       <c r="P4" t="n">
         <v>341.124801388477</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (171.3324517481256 -42.12239231303292, 171.3218921204234 -42.120539083270394)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>171.3324517481256</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-42.12239231303292</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>171.3218921204234</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-42.12053908327039</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>171.3271719342745</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-42.12146569815165</v>
       </c>
     </row>
@@ -26969,27 +26977,28 @@
       <c r="P5" t="n">
         <v>348.6215125291508</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (171.33267118009908 -42.1216161787987, 171.32201917070395 -42.12008314425715)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>171.3326711800991</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-42.1216161787987</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>171.322019170704</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-42.12008314425715</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>171.3273451754015</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-42.12084966152793</v>
       </c>
     </row>
@@ -27046,27 +27055,28 @@
       <c r="P6" t="n">
         <v>351.1395827983722</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (171.33282600255188 -42.12087038981283, 171.32212020037477 -42.11956115178311)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>171.3328260025519</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-42.12087038981283</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>171.3221202003748</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-42.11956115178311</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>171.3274731014633</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-42.12021577079797</v>
       </c>
     </row>
@@ -27123,27 +27133,28 @@
       <c r="P7" t="n">
         <v>351.9102490367936</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (171.33299460146915 -42.12001454173627, 171.32219881446073 -42.11921240241077)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>171.3329946014692</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-42.12001454173627</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>171.3221988144607</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-42.11921240241077</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>171.3275967079649</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-42.11961347207352</v>
       </c>
     </row>
@@ -27200,27 +27211,28 @@
       <c r="P8" t="n">
         <v>342.9007338230955</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (171.33303413293655 -42.11911776778949, 171.32218823740283 -42.11891065559935)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>171.3330341329365</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-42.11911776778949</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>171.3221882374028</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-42.11891065559935</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>171.3276111851697</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-42.11901421169442</v>
       </c>
     </row>
@@ -27277,27 +27289,28 @@
       <c r="P9" t="n">
         <v>332.2567006810635</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (171.33303457329114 -42.11826692352813, 171.32219119180544 -42.11853547600628)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>171.3330345732911</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-42.11826692352813</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>171.3221911918054</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-42.11853547600628</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>171.3276128825483</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-42.11840119976721</v>
       </c>
     </row>
@@ -27354,27 +27367,28 @@
       <c r="P10" t="n">
         <v>320.589510716013</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (171.3329372885352 -42.11745234011076, 171.32212427968014 -42.11811181789043)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>171.3329372885352</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-42.11745234011076</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>171.3221242796801</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-42.11811181789043</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>171.3275307841077</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-42.11778207900059</v>
       </c>
     </row>

--- a/data/nzd0383/nzd0383.xlsx
+++ b/data/nzd0383/nzd0383.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K576"/>
+  <dimension ref="A1:K581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20655,6 +20655,183 @@
       <c r="K576" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:19:26+00:00</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>333.16</v>
+      </c>
+      <c r="C577" t="n">
+        <v>346.5146153846153</v>
+      </c>
+      <c r="D577" t="n">
+        <v>342.1746153846154</v>
+      </c>
+      <c r="E577" t="n">
+        <v>348.7733333333333</v>
+      </c>
+      <c r="F577" t="n">
+        <v>355.2733333333333</v>
+      </c>
+      <c r="G577" t="n">
+        <v>357.9533333333333</v>
+      </c>
+      <c r="H577" t="n">
+        <v>350.39</v>
+      </c>
+      <c r="I577" t="n">
+        <v>338.26</v>
+      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>364.9457142857143</v>
+      </c>
+      <c r="C578" t="n">
+        <v>344.0953846153847</v>
+      </c>
+      <c r="D578" t="n">
+        <v>354.1253846153846</v>
+      </c>
+      <c r="E578" t="n">
+        <v>352.1866666666667</v>
+      </c>
+      <c r="F578" t="n">
+        <v>359.7766666666667</v>
+      </c>
+      <c r="G578" t="n">
+        <v>353.4466666666667</v>
+      </c>
+      <c r="H578" t="n">
+        <v>347.33</v>
+      </c>
+      <c r="I578" t="n">
+        <v>341.9</v>
+      </c>
+      <c r="J578" t="n">
+        <v>341.7060606060606</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:19:25+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr"/>
+      <c r="C579" t="inlineStr"/>
+      <c r="D579" t="inlineStr"/>
+      <c r="E579" t="inlineStr"/>
+      <c r="F579" t="inlineStr"/>
+      <c r="G579" t="n">
+        <v>355.4966666666667</v>
+      </c>
+      <c r="H579" t="inlineStr"/>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:13:08+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>302.5785714285714</v>
+      </c>
+      <c r="C580" t="n">
+        <v>318.6515384615385</v>
+      </c>
+      <c r="D580" t="n">
+        <v>335.5015384615385</v>
+      </c>
+      <c r="E580" t="n">
+        <v>337.24</v>
+      </c>
+      <c r="F580" t="n">
+        <v>331.84</v>
+      </c>
+      <c r="G580" t="n">
+        <v>331.9</v>
+      </c>
+      <c r="H580" t="n">
+        <v>319.2</v>
+      </c>
+      <c r="I580" t="n">
+        <v>319.82</v>
+      </c>
+      <c r="J580" t="n">
+        <v>292.5063636363636</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:19:17+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>326.9457142857143</v>
+      </c>
+      <c r="C581" t="n">
+        <v>337.8446153846153</v>
+      </c>
+      <c r="D581" t="n">
+        <v>348.9946153846154</v>
+      </c>
+      <c r="E581" t="n">
+        <v>349.12</v>
+      </c>
+      <c r="F581" t="n">
+        <v>347.79</v>
+      </c>
+      <c r="G581" t="n">
+        <v>345.26</v>
+      </c>
+      <c r="H581" t="n">
+        <v>336.51</v>
+      </c>
+      <c r="I581" t="n">
+        <v>329.75</v>
+      </c>
+      <c r="J581" t="n">
+        <v>293.1381818181818</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -20669,7 +20846,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B587"/>
+  <dimension ref="A1:B593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26547,6 +26724,66 @@
       </c>
       <c r="B587" t="n">
         <v>0.42</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>-0.87</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -26720,28 +26957,28 @@
         <v>0.0378</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2310603482514162</v>
+        <v>-0.2409389537664939</v>
       </c>
       <c r="J2" t="n">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="K2" t="n">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004447843610697388</v>
+        <v>0.004891253389666783</v>
       </c>
       <c r="M2" t="n">
-        <v>20.88879614973803</v>
+        <v>20.86984846613667</v>
       </c>
       <c r="N2" t="n">
-        <v>656.4119551759251</v>
+        <v>655.2174467888319</v>
       </c>
       <c r="O2" t="n">
-        <v>25.62053776125562</v>
+        <v>25.59721560617154</v>
       </c>
       <c r="P2" t="n">
-        <v>343.4183657542621</v>
+        <v>343.5154699753407</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26798,28 +27035,28 @@
         <v>0.0707</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3780503415923522</v>
+        <v>-0.3614191110278351</v>
       </c>
       <c r="J3" t="n">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="K3" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04846400668396067</v>
+        <v>0.0447094064774971</v>
       </c>
       <c r="M3" t="n">
-        <v>9.48011544469197</v>
+        <v>9.50872972886364</v>
       </c>
       <c r="N3" t="n">
-        <v>158.8549103496127</v>
+        <v>159.4345354484276</v>
       </c>
       <c r="O3" t="n">
-        <v>12.6037657209904</v>
+        <v>12.62673890790601</v>
       </c>
       <c r="P3" t="n">
-        <v>335.8695758569187</v>
+        <v>335.7114296759203</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26876,28 +27113,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1397853506702726</v>
+        <v>-0.127593033291187</v>
       </c>
       <c r="J4" t="n">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="K4" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008833834200535295</v>
+        <v>0.007447861247691367</v>
       </c>
       <c r="M4" t="n">
-        <v>8.616112598152514</v>
+        <v>8.610346074838425</v>
       </c>
       <c r="N4" t="n">
-        <v>125.0850463297819</v>
+        <v>124.9280585855636</v>
       </c>
       <c r="O4" t="n">
-        <v>11.18414262828322</v>
+        <v>11.17712210658735</v>
       </c>
       <c r="P4" t="n">
-        <v>341.124801388477</v>
+        <v>341.0094916838594</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26954,28 +27191,28 @@
         <v>0.0655</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2031934887917544</v>
+        <v>-0.1977679312194718</v>
       </c>
       <c r="J5" t="n">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="K5" t="n">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0188611351822936</v>
+        <v>0.01814260983436411</v>
       </c>
       <c r="M5" t="n">
-        <v>8.717862340587828</v>
+        <v>8.69904164523353</v>
       </c>
       <c r="N5" t="n">
-        <v>122.4633751247802</v>
+        <v>121.7976419773525</v>
       </c>
       <c r="O5" t="n">
-        <v>11.0663171436924</v>
+        <v>11.03619689826856</v>
       </c>
       <c r="P5" t="n">
-        <v>348.6215125291508</v>
+        <v>348.5701550380556</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27032,28 +27269,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2818097951912663</v>
+        <v>-0.2734429148858407</v>
       </c>
       <c r="J6" t="n">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="K6" t="n">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0358190114563316</v>
+        <v>0.03404041605018993</v>
       </c>
       <c r="M6" t="n">
-        <v>8.509261585673448</v>
+        <v>8.52528527566523</v>
       </c>
       <c r="N6" t="n">
-        <v>116.4303621950776</v>
+        <v>116.6023342832243</v>
       </c>
       <c r="O6" t="n">
-        <v>10.79029018122671</v>
+        <v>10.79825607601636</v>
       </c>
       <c r="P6" t="n">
-        <v>351.1395827983722</v>
+        <v>351.0560854359776</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27110,28 +27347,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2034670801808248</v>
+        <v>-0.1989765891354116</v>
       </c>
       <c r="J7" t="n">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="K7" t="n">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02261146624502486</v>
+        <v>0.02189656368665771</v>
       </c>
       <c r="M7" t="n">
-        <v>7.646374432878296</v>
+        <v>7.654421024550224</v>
       </c>
       <c r="N7" t="n">
-        <v>97.17990284177088</v>
+        <v>97.14205698672851</v>
       </c>
       <c r="O7" t="n">
-        <v>9.857986753986378</v>
+        <v>9.856067014115139</v>
       </c>
       <c r="P7" t="n">
-        <v>351.9102490367936</v>
+        <v>351.8658380549046</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27188,28 +27425,28 @@
         <v>0.0535</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.08769274381027507</v>
+        <v>-0.09155796879855445</v>
       </c>
       <c r="J8" t="n">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="K8" t="n">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003780375064823649</v>
+        <v>0.004147890228623163</v>
       </c>
       <c r="M8" t="n">
-        <v>8.453384233135427</v>
+        <v>8.47204395879575</v>
       </c>
       <c r="N8" t="n">
-        <v>115.5882568020547</v>
+        <v>115.918867750405</v>
       </c>
       <c r="O8" t="n">
-        <v>10.75119792404803</v>
+        <v>10.76656248532488</v>
       </c>
       <c r="P8" t="n">
-        <v>342.9007338230955</v>
+        <v>342.9376041659364</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27266,28 +27503,28 @@
         <v>0.0565</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1599706348851176</v>
+        <v>-0.1529883550981987</v>
       </c>
       <c r="J9" t="n">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="K9" t="n">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009222797396126636</v>
+        <v>0.008555712244730951</v>
       </c>
       <c r="M9" t="n">
-        <v>9.946588224534633</v>
+        <v>9.935045652338486</v>
       </c>
       <c r="N9" t="n">
-        <v>154.4189368015384</v>
+        <v>153.8742918821729</v>
       </c>
       <c r="O9" t="n">
-        <v>12.42654162675756</v>
+        <v>12.40460768755598</v>
       </c>
       <c r="P9" t="n">
-        <v>332.2567006810635</v>
+        <v>332.1908845408013</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27344,28 +27581,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02471843163786757</v>
+        <v>0.007436926771661373</v>
       </c>
       <c r="J10" t="n">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="K10" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L10" t="n">
-        <v>2.690088058976414e-05</v>
+        <v>2.461289814958967e-06</v>
       </c>
       <c r="M10" t="n">
-        <v>25.42911037872178</v>
+        <v>25.44917468250994</v>
       </c>
       <c r="N10" t="n">
-        <v>1187.719751681207</v>
+        <v>1184.009695970837</v>
       </c>
       <c r="O10" t="n">
-        <v>34.46331022524109</v>
+        <v>34.40944195959646</v>
       </c>
       <c r="P10" t="n">
-        <v>320.589510716013</v>
+        <v>320.7673736574659</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27403,7 +27640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K576"/>
+  <dimension ref="A1:K581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55723,6 +55960,255 @@
         </is>
       </c>
     </row>
+    <row r="577">
+      <c r="A577" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:19:26+00:00</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>-42.12300022948308,171.32807771288427</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>-42.12232569437488,171.32816666616304</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>-42.1216854790896,171.32842351444762</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>-42.1210202281257,171.3285294519345</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>-42.12035197742205,171.3285858536105</t>
+        </is>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>-42.11969458198696,171.3286866767175</t>
+        </is>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>-42.11903699219246,171.32879774038318</t>
+        </is>
+      </c>
+      <c r="I577" t="inlineStr">
+        <is>
+          <t>-42.118368308513304,171.32894581344084</t>
+        </is>
+      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>-42.122918904508886,171.32770910499076</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>-42.122331420111074,171.3281948980798</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>-42.12166078972196,171.32828282630686</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>-42.12101439501414,171.3284889185691</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>-42.12034540519076,171.32853210728794</t>
+        </is>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>-42.119698611311826,171.32874091360006</t>
+        </is>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>-42.119037698292395,171.32883473726451</t>
+        </is>
+      </c>
+      <c r="I578" t="inlineStr">
+        <is>
+          <t>-42.11836939871839,171.3289018144424</t>
+        </is>
+      </c>
+      <c r="J578" t="inlineStr">
+        <is>
+          <t>-42.117703667709996,171.32881844205633</t>
+        </is>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:19:25+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr"/>
+      <c r="C579" t="inlineStr"/>
+      <c r="D579" t="inlineStr"/>
+      <c r="E579" t="inlineStr"/>
+      <c r="F579" t="inlineStr"/>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>-42.119696778449025,171.3287162422361</t>
+        </is>
+      </c>
+      <c r="H579" t="inlineStr"/>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:13:08+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>-42.12307847214256,171.3284323560176</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>-42.1223916391473,171.32849182276</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>-42.12169926507766,171.32850207201685</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>-42.121039937557754,171.3286664104346</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>-42.12038617597202,171.3288655256364</t>
+        </is>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>-42.11971787542347,171.3290002237722</t>
+        </is>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>-42.11904418877683,171.3291748426384</t>
+        </is>
+      </c>
+      <c r="I580" t="inlineStr">
+        <is>
+          <t>-42.118362785346434,171.32916870945104</t>
+        </is>
+      </c>
+      <c r="J580" t="inlineStr">
+        <is>
+          <t>-42.11766749008274,171.32941148563393</t>
+        </is>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:19:17+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>-42.123016128835815,171.32814977791256</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>-42.122346214143654,171.32826784327304</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>-42.12167138951644,171.32834322729045</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>-42.121019635700954,171.32852533526423</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>-42.12036289865416,171.32867516562357</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>-42.11970593078932,171.32883943860762</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>-42.11904019492926,171.328965556312</t>
+        </is>
+      </c>
+      <c r="I581" t="inlineStr">
+        <is>
+          <t>-42.11836575964369,171.32904867922736</t>
+        </is>
+      </c>
+      <c r="J581" t="inlineStr">
+        <is>
+          <t>-42.11766795469216,171.32940386982412</t>
+        </is>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0383/nzd0383.xlsx
+++ b/data/nzd0383/nzd0383.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K581"/>
+  <dimension ref="A1:K582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20832,6 +20832,43 @@
       <c r="K581" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:12:51+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr"/>
+      <c r="C582" t="n">
+        <v>336.4638461538461</v>
+      </c>
+      <c r="D582" t="n">
+        <v>347.3938461538461</v>
+      </c>
+      <c r="E582" t="n">
+        <v>341.45</v>
+      </c>
+      <c r="F582" t="n">
+        <v>335.56</v>
+      </c>
+      <c r="G582" t="n">
+        <v>354.47</v>
+      </c>
+      <c r="H582" t="n">
+        <v>357.57</v>
+      </c>
+      <c r="I582" t="n">
+        <v>330.94</v>
+      </c>
+      <c r="J582" t="n">
+        <v>310.3890909090909</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -20846,7 +20883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B593"/>
+  <dimension ref="A1:B594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26784,6 +26821,16 @@
       </c>
       <c r="B593" t="n">
         <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>-0.51</v>
       </c>
     </row>
   </sheetData>
@@ -26960,7 +27007,7 @@
         <v>-0.2409389537664939</v>
       </c>
       <c r="J2" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K2" t="n">
         <v>442</v>
@@ -27035,28 +27082,28 @@
         <v>0.0707</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3614191110278351</v>
+        <v>-0.3574387107839947</v>
       </c>
       <c r="J3" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K3" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0447094064774971</v>
+        <v>0.0439002009667756</v>
       </c>
       <c r="M3" t="n">
-        <v>9.50872972886364</v>
+        <v>9.50739745198547</v>
       </c>
       <c r="N3" t="n">
-        <v>159.4345354484276</v>
+        <v>159.3127471220408</v>
       </c>
       <c r="O3" t="n">
-        <v>12.62673890790601</v>
+        <v>12.62191535077148</v>
       </c>
       <c r="P3" t="n">
-        <v>335.7114296759203</v>
+        <v>335.6732673320629</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27113,28 +27160,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.127593033291187</v>
+        <v>-0.1237242076743613</v>
       </c>
       <c r="J4" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K4" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007447861247691367</v>
+        <v>0.007026022905566531</v>
       </c>
       <c r="M4" t="n">
-        <v>8.610346074838425</v>
+        <v>8.610748012866145</v>
       </c>
       <c r="N4" t="n">
-        <v>124.9280585855636</v>
+        <v>124.8608243153291</v>
       </c>
       <c r="O4" t="n">
-        <v>11.17712210658735</v>
+        <v>11.17411402820506</v>
       </c>
       <c r="P4" t="n">
-        <v>341.0094916838594</v>
+        <v>340.9726647311256</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27191,28 +27238,28 @@
         <v>0.0655</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1977679312194718</v>
+        <v>-0.1985787129706308</v>
       </c>
       <c r="J5" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K5" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01814260983436411</v>
+        <v>0.01836681618771907</v>
       </c>
       <c r="M5" t="n">
-        <v>8.69904164523353</v>
+        <v>8.68494074349282</v>
       </c>
       <c r="N5" t="n">
-        <v>121.7976419773525</v>
+        <v>121.549284701608</v>
       </c>
       <c r="O5" t="n">
-        <v>11.03619689826856</v>
+        <v>11.02493921532486</v>
       </c>
       <c r="P5" t="n">
-        <v>348.5701550380556</v>
+        <v>348.5778959902868</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27269,28 +27316,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2734429148858407</v>
+        <v>-0.2772123637335341</v>
       </c>
       <c r="J6" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K6" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03404041605018993</v>
+        <v>0.03505999657460412</v>
       </c>
       <c r="M6" t="n">
-        <v>8.52528527566523</v>
+        <v>8.527400126720716</v>
       </c>
       <c r="N6" t="n">
-        <v>116.6023342832243</v>
+        <v>116.4938689461871</v>
       </c>
       <c r="O6" t="n">
-        <v>10.79825607601636</v>
+        <v>10.79323255314121</v>
       </c>
       <c r="P6" t="n">
-        <v>351.0560854359776</v>
+        <v>351.094129924218</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27347,28 +27394,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1989765891354116</v>
+        <v>-0.1956317846478643</v>
       </c>
       <c r="J7" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K7" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02189656368665771</v>
+        <v>0.02124750092322547</v>
       </c>
       <c r="M7" t="n">
-        <v>7.654421024550224</v>
+        <v>7.652722178152351</v>
       </c>
       <c r="N7" t="n">
-        <v>97.14205698672851</v>
+        <v>97.05595809791019</v>
       </c>
       <c r="O7" t="n">
-        <v>9.856067014115139</v>
+        <v>9.851698234208667</v>
       </c>
       <c r="P7" t="n">
-        <v>351.8658380549046</v>
+        <v>351.8322616773864</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27425,28 +27472,28 @@
         <v>0.0535</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.09155796879855445</v>
+        <v>-0.08454575295018024</v>
       </c>
       <c r="J8" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K8" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004147890228623163</v>
+        <v>0.003536475771759084</v>
       </c>
       <c r="M8" t="n">
-        <v>8.47204395879575</v>
+        <v>8.488256794736053</v>
       </c>
       <c r="N8" t="n">
-        <v>115.918867750405</v>
+        <v>116.2862509533166</v>
       </c>
       <c r="O8" t="n">
-        <v>10.76656248532488</v>
+        <v>10.78361029309371</v>
       </c>
       <c r="P8" t="n">
-        <v>342.9376041659364</v>
+        <v>342.8712022666726</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27503,28 +27550,28 @@
         <v>0.0565</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1529883550981987</v>
+        <v>-0.151876527677537</v>
       </c>
       <c r="J9" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K9" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008555712244730951</v>
+        <v>0.008470703774367982</v>
       </c>
       <c r="M9" t="n">
-        <v>9.935045652338486</v>
+        <v>9.919925312635309</v>
       </c>
       <c r="N9" t="n">
-        <v>153.8742918821729</v>
+        <v>153.5641737577443</v>
       </c>
       <c r="O9" t="n">
-        <v>12.40460768755598</v>
+        <v>12.3921012648277</v>
       </c>
       <c r="P9" t="n">
-        <v>332.1908845408013</v>
+        <v>332.1802925755085</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27581,28 +27628,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>0.007436926771661373</v>
+        <v>0.002444645718513849</v>
       </c>
       <c r="J10" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K10" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L10" t="n">
-        <v>2.461289814958967e-06</v>
+        <v>2.67208255966267e-07</v>
       </c>
       <c r="M10" t="n">
-        <v>25.44917468250994</v>
+        <v>25.41830825008939</v>
       </c>
       <c r="N10" t="n">
-        <v>1184.009695970837</v>
+        <v>1181.430119143921</v>
       </c>
       <c r="O10" t="n">
-        <v>34.40944195959646</v>
+        <v>34.37193796025939</v>
       </c>
       <c r="P10" t="n">
-        <v>320.7673736574659</v>
+        <v>320.8187545472852</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27640,7 +27687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K581"/>
+  <dimension ref="A1:K582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56209,6 +56256,59 @@
         </is>
       </c>
     </row>
+    <row r="582">
+      <c r="A582" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:12:51+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr"/>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>-42.122349482078455,171.32828395657117</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>-42.1216746965823,171.32836207203943</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>-42.121032743064205,171.3286164166133</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>-42.12038074705821,171.32882112817802</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>-42.11969769637122,171.3287285979759</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>-42.119035335349075,171.3287109307122</t>
+        </is>
+      </c>
+      <c r="I582" t="inlineStr">
+        <is>
+          <t>-42.11836611607166,171.32903429494027</t>
+        </is>
+      </c>
+      <c r="J582" t="inlineStr">
+        <is>
+          <t>-42.11768064000446,171.3291959307844</t>
+        </is>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0383/nzd0383.xlsx
+++ b/data/nzd0383/nzd0383.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30338,7 +30338,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-42.12299982742989,171.3280758905507</t>
+          <t>-42.122999827429894,171.3280758905507</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -34965,7 +34965,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>-42.12171624362079,171.32859882239094</t>
+          <t>-42.121716243620796,171.32859882239094</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -36301,7 +36301,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>-42.119036002247974,171.32874587220851</t>
+          <t>-42.11903600224797,171.32874587220851</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -48233,7 +48233,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>-42.11836552901285,171.3290579867072</t>
+          <t>-42.118365529012856,171.3290579867072</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -50935,7 +50935,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>-42.11836760765824,171.32897409851074</t>
+          <t>-42.11836760765825,171.32897409851074</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">

--- a/data/nzd0383/nzd0383.xlsx
+++ b/data/nzd0383/nzd0383.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K582"/>
+  <dimension ref="A1:K583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20763,9 +20763,7 @@
           <t>2025-04-27 22:13:08+00:00</t>
         </is>
       </c>
-      <c r="B580" t="n">
-        <v>302.5785714285714</v>
-      </c>
+      <c r="B580" t="inlineStr"/>
       <c r="C580" t="n">
         <v>318.6515384615385</v>
       </c>
@@ -20867,6 +20865,41 @@
         <v>310.3890909090909</v>
       </c>
       <c r="K582" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:19:12+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr"/>
+      <c r="C583" t="n">
+        <v>327.7330769230769</v>
+      </c>
+      <c r="D583" t="n">
+        <v>337.1230769230769</v>
+      </c>
+      <c r="E583" t="n">
+        <v>341.83</v>
+      </c>
+      <c r="F583" t="n">
+        <v>334.19</v>
+      </c>
+      <c r="G583" t="n">
+        <v>342.11</v>
+      </c>
+      <c r="H583" t="n">
+        <v>346.84</v>
+      </c>
+      <c r="I583" t="n">
+        <v>343.82</v>
+      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -20883,7 +20916,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B594"/>
+  <dimension ref="A1:B595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26831,6 +26864,16 @@
       </c>
       <c r="B594" t="n">
         <v>-0.51</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -27004,28 +27047,28 @@
         <v>0.0378</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2409389537664939</v>
+        <v>-0.2256024587145128</v>
       </c>
       <c r="J2" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K2" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004891253389666783</v>
+        <v>0.004288725365176327</v>
       </c>
       <c r="M2" t="n">
-        <v>20.86984846613667</v>
+        <v>20.84513792066915</v>
       </c>
       <c r="N2" t="n">
-        <v>655.2174467888319</v>
+        <v>653.9463636943088</v>
       </c>
       <c r="O2" t="n">
-        <v>25.59721560617154</v>
+        <v>25.57237501082582</v>
       </c>
       <c r="P2" t="n">
-        <v>343.5154699753407</v>
+        <v>343.3654015104576</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27082,28 +27125,28 @@
         <v>0.0707</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3574387107839947</v>
+        <v>-0.3569287525519987</v>
       </c>
       <c r="J3" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K3" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0439002009667756</v>
+        <v>0.04396242184525845</v>
       </c>
       <c r="M3" t="n">
-        <v>9.50739745198547</v>
+        <v>9.490111789620963</v>
       </c>
       <c r="N3" t="n">
-        <v>159.3127471220408</v>
+        <v>158.9870052572709</v>
       </c>
       <c r="O3" t="n">
-        <v>12.62191535077148</v>
+        <v>12.6090049273236</v>
       </c>
       <c r="P3" t="n">
-        <v>335.6732673320629</v>
+        <v>335.6683627971362</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27160,28 +27203,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1237242076743613</v>
+        <v>-0.1239858609185215</v>
       </c>
       <c r="J4" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K4" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007026022905566531</v>
+        <v>0.007086599006980721</v>
       </c>
       <c r="M4" t="n">
-        <v>8.610748012866145</v>
+        <v>8.594169542790199</v>
       </c>
       <c r="N4" t="n">
-        <v>124.8608243153291</v>
+        <v>124.5999540816686</v>
       </c>
       <c r="O4" t="n">
-        <v>11.17411402820506</v>
+        <v>11.16243495307671</v>
       </c>
       <c r="P4" t="n">
-        <v>340.9726647311256</v>
+        <v>340.9751632099984</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27238,28 +27281,28 @@
         <v>0.0655</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1985787129706308</v>
+        <v>-0.1992266177091262</v>
       </c>
       <c r="J5" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K5" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01836681618771907</v>
+        <v>0.01856402538778634</v>
       </c>
       <c r="M5" t="n">
-        <v>8.68494074349282</v>
+        <v>8.670026610651304</v>
       </c>
       <c r="N5" t="n">
-        <v>121.549284701608</v>
+        <v>121.2988800590993</v>
       </c>
       <c r="O5" t="n">
-        <v>11.02493921532486</v>
+        <v>11.01357707827477</v>
       </c>
       <c r="P5" t="n">
-        <v>348.5778959902868</v>
+        <v>348.5841014110321</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27316,28 +27359,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2772123637335341</v>
+        <v>-0.281554559766104</v>
       </c>
       <c r="J6" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K6" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03505999657460412</v>
+        <v>0.03622197709972574</v>
       </c>
       <c r="M6" t="n">
-        <v>8.527400126720716</v>
+        <v>8.532924999373076</v>
       </c>
       <c r="N6" t="n">
-        <v>116.4938689461871</v>
+        <v>116.4413044849278</v>
       </c>
       <c r="O6" t="n">
-        <v>10.79323255314121</v>
+        <v>10.7907972126682</v>
       </c>
       <c r="P6" t="n">
-        <v>351.094129924218</v>
+        <v>351.1380950326405</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27394,28 +27437,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1956317846478643</v>
+        <v>-0.1976510302996127</v>
       </c>
       <c r="J7" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K7" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02124750092322547</v>
+        <v>0.02176490377640905</v>
       </c>
       <c r="M7" t="n">
-        <v>7.652722178152351</v>
+        <v>7.646933824780635</v>
       </c>
       <c r="N7" t="n">
-        <v>97.05595809791019</v>
+        <v>96.88461251930552</v>
       </c>
       <c r="O7" t="n">
-        <v>9.851698234208667</v>
+        <v>9.842998146870979</v>
       </c>
       <c r="P7" t="n">
-        <v>351.8322616773864</v>
+        <v>351.8525952312293</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27472,28 +27515,28 @@
         <v>0.0535</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.08454575295018024</v>
+        <v>-0.08200953791595</v>
       </c>
       <c r="J8" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K8" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003536475771759084</v>
+        <v>0.00334117145081525</v>
       </c>
       <c r="M8" t="n">
-        <v>8.488256794736053</v>
+        <v>8.482441402211284</v>
       </c>
       <c r="N8" t="n">
-        <v>116.2862509533166</v>
+        <v>116.1173815270316</v>
       </c>
       <c r="O8" t="n">
-        <v>10.78361029309371</v>
+        <v>10.77577753700547</v>
       </c>
       <c r="P8" t="n">
-        <v>342.8712022666726</v>
+        <v>342.8471109950907</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27550,28 +27593,28 @@
         <v>0.0565</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.151876527677537</v>
+        <v>-0.1454519971563169</v>
       </c>
       <c r="J9" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K9" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008470703774367982</v>
+        <v>0.007784871251536263</v>
       </c>
       <c r="M9" t="n">
-        <v>9.919925312635309</v>
+        <v>9.932740127973831</v>
       </c>
       <c r="N9" t="n">
-        <v>153.5641737577443</v>
+        <v>153.7476657506702</v>
       </c>
       <c r="O9" t="n">
-        <v>12.3921012648277</v>
+        <v>12.39950264126228</v>
       </c>
       <c r="P9" t="n">
-        <v>332.1802925755085</v>
+        <v>332.1189033868126</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27631,7 +27674,7 @@
         <v>0.002444645718513849</v>
       </c>
       <c r="J10" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K10" t="n">
         <v>416</v>
@@ -27687,7 +27730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K582"/>
+  <dimension ref="A1:K583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56148,11 +56191,7 @@
           <t>2025-04-27 22:13:08+00:00</t>
         </is>
       </c>
-      <c r="B580" t="inlineStr">
-        <is>
-          <t>-42.12307847214256,171.3284323560176</t>
-        </is>
-      </c>
+      <c r="B580" t="inlineStr"/>
       <c r="C580" t="inlineStr">
         <is>
           <t>-42.1223916391473,171.32849182276</t>
@@ -56304,6 +56343,55 @@
         </is>
       </c>
       <c r="K582" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:19:12+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr"/>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>-42.1223701455699,171.32838584292514</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>-42.121695915127184,171.32848298275064</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>-42.12103209367893,171.32861190410745</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>-42.120382746418244,171.32883747885396</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>-42.11970874709678,171.3288773482773</t>
+        </is>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>-42.119037811359576,171.32884066160184</t>
+        </is>
+      </c>
+      <c r="I583" t="inlineStr">
+        <is>
+          <t>-42.11836997376482,171.32887860617907</t>
+        </is>
+      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0383/nzd0383.xlsx
+++ b/data/nzd0383/nzd0383.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K583"/>
+  <dimension ref="A1:K584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20876,7 +20876,9 @@
           <t>2025-06-13 22:19:12+00:00</t>
         </is>
       </c>
-      <c r="B583" t="inlineStr"/>
+      <c r="B583" t="n">
+        <v>381.9071428571429</v>
+      </c>
       <c r="C583" t="n">
         <v>327.7330769230769</v>
       </c>
@@ -20898,10 +20900,51 @@
       <c r="I583" t="n">
         <v>343.82</v>
       </c>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>237.0672727272727</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:19:27+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>390.9928571428571</v>
+      </c>
+      <c r="C584" t="n">
+        <v>311.62</v>
+      </c>
+      <c r="D584" t="n">
+        <v>329.34</v>
+      </c>
+      <c r="E584" t="n">
+        <v>341.4766666666667</v>
+      </c>
+      <c r="F584" t="n">
+        <v>342.0866666666667</v>
+      </c>
+      <c r="G584" t="n">
+        <v>351.0766666666667</v>
+      </c>
+      <c r="H584" t="n">
+        <v>336.93</v>
+      </c>
+      <c r="I584" t="n">
+        <v>332.76</v>
+      </c>
+      <c r="J584" t="n">
+        <v>245.7587878787879</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -20916,7 +20959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B595"/>
+  <dimension ref="A1:B596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26874,6 +26917,16 @@
       </c>
       <c r="B595" t="n">
         <v>0.45</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>
@@ -27047,28 +27100,28 @@
         <v>0.0378</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2256024587145128</v>
+        <v>-0.1822812112522279</v>
       </c>
       <c r="J2" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K2" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004288725365176327</v>
+        <v>0.002785486320004305</v>
       </c>
       <c r="M2" t="n">
-        <v>20.84513792066915</v>
+        <v>20.99083374070788</v>
       </c>
       <c r="N2" t="n">
-        <v>653.9463636943088</v>
+        <v>661.7400905466096</v>
       </c>
       <c r="O2" t="n">
-        <v>25.57237501082582</v>
+        <v>25.72430933079855</v>
       </c>
       <c r="P2" t="n">
-        <v>343.3654015104576</v>
+        <v>342.9376711190013</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27125,28 +27178,28 @@
         <v>0.0707</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3569287525519987</v>
+        <v>-0.3627961305630316</v>
       </c>
       <c r="J3" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K3" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04396242184525845</v>
+        <v>0.04542231833977484</v>
       </c>
       <c r="M3" t="n">
-        <v>9.490111789620963</v>
+        <v>9.504674382275807</v>
       </c>
       <c r="N3" t="n">
-        <v>158.9870052572709</v>
+        <v>159.1074369128255</v>
       </c>
       <c r="O3" t="n">
-        <v>12.6090049273236</v>
+        <v>12.61377964421551</v>
       </c>
       <c r="P3" t="n">
-        <v>335.6683627971362</v>
+        <v>335.7250953268128</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27203,28 +27256,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1239858609185215</v>
+        <v>-0.1273625150121271</v>
       </c>
       <c r="J4" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K4" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007086599006980721</v>
+        <v>0.007499396148328064</v>
       </c>
       <c r="M4" t="n">
-        <v>8.594169542790199</v>
+        <v>8.59514961181381</v>
       </c>
       <c r="N4" t="n">
-        <v>124.5999540816686</v>
+        <v>124.486626734923</v>
       </c>
       <c r="O4" t="n">
-        <v>11.16243495307671</v>
+        <v>11.15735751577957</v>
       </c>
       <c r="P4" t="n">
-        <v>340.9751632099984</v>
+        <v>341.0075803767066</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27281,28 +27334,28 @@
         <v>0.0655</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1992266177091262</v>
+        <v>-0.200005517577787</v>
       </c>
       <c r="J5" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K5" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01856402538778634</v>
+        <v>0.01878761455826117</v>
       </c>
       <c r="M5" t="n">
-        <v>8.670026610651304</v>
+        <v>8.655813045768033</v>
       </c>
       <c r="N5" t="n">
-        <v>121.2988800590993</v>
+        <v>121.0519128117948</v>
       </c>
       <c r="O5" t="n">
-        <v>11.01357707827477</v>
+        <v>11.00235942022414</v>
       </c>
       <c r="P5" t="n">
-        <v>348.5841014110321</v>
+        <v>348.5916019409848</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27359,28 +27412,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.281554559766104</v>
+        <v>-0.2823369139179154</v>
       </c>
       <c r="J6" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K6" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03622197709972574</v>
+        <v>0.03657934251894257</v>
       </c>
       <c r="M6" t="n">
-        <v>8.532924999373076</v>
+        <v>8.517345446686981</v>
       </c>
       <c r="N6" t="n">
-        <v>116.4413044849278</v>
+        <v>116.173217641233</v>
       </c>
       <c r="O6" t="n">
-        <v>10.7907972126682</v>
+        <v>10.77836804164865</v>
       </c>
       <c r="P6" t="n">
-        <v>351.1380950326405</v>
+        <v>351.1460598775611</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27437,28 +27490,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1976510302996127</v>
+        <v>-0.1957638275430374</v>
       </c>
       <c r="J7" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K7" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02176490377640905</v>
+        <v>0.02144747246512402</v>
       </c>
       <c r="M7" t="n">
-        <v>7.646933824780635</v>
+        <v>7.638469454619436</v>
       </c>
       <c r="N7" t="n">
-        <v>96.88461251930552</v>
+        <v>96.70752829394192</v>
       </c>
       <c r="O7" t="n">
-        <v>9.842998146870979</v>
+        <v>9.833998591312788</v>
       </c>
       <c r="P7" t="n">
-        <v>351.8525952312293</v>
+        <v>351.833488901906</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27515,28 +27568,28 @@
         <v>0.0535</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.08200953791595</v>
+        <v>-0.08357683390511426</v>
       </c>
       <c r="J8" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K8" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00334117145081525</v>
+        <v>0.003484864184148062</v>
       </c>
       <c r="M8" t="n">
-        <v>8.482441402211284</v>
+        <v>8.472829997767304</v>
       </c>
       <c r="N8" t="n">
-        <v>116.1173815270316</v>
+        <v>115.8992919145579</v>
       </c>
       <c r="O8" t="n">
-        <v>10.77577753700547</v>
+        <v>10.76565334359963</v>
       </c>
       <c r="P8" t="n">
-        <v>342.8471109950907</v>
+        <v>342.8620781627943</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27593,28 +27646,28 @@
         <v>0.0565</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1454519971563169</v>
+        <v>-0.1436246393625741</v>
       </c>
       <c r="J9" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K9" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007784871251536263</v>
+        <v>0.007625274850019292</v>
       </c>
       <c r="M9" t="n">
-        <v>9.932740127973831</v>
+        <v>9.921338516730083</v>
       </c>
       <c r="N9" t="n">
-        <v>153.7476657506702</v>
+        <v>153.4647100515324</v>
       </c>
       <c r="O9" t="n">
-        <v>12.39950264126228</v>
+        <v>12.38808742508433</v>
       </c>
       <c r="P9" t="n">
-        <v>332.1189033868126</v>
+        <v>332.101351423537</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27671,28 +27724,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002444645718513849</v>
+        <v>-0.072343993269988</v>
       </c>
       <c r="J10" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K10" t="n">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L10" t="n">
-        <v>2.67208255966267e-07</v>
+        <v>0.000230431675999121</v>
       </c>
       <c r="M10" t="n">
-        <v>25.41830825008939</v>
+        <v>25.75625678378523</v>
       </c>
       <c r="N10" t="n">
-        <v>1181.430119143921</v>
+        <v>1205.642983147925</v>
       </c>
       <c r="O10" t="n">
-        <v>34.37193796025939</v>
+        <v>34.72237006812647</v>
       </c>
       <c r="P10" t="n">
-        <v>320.8187545472852</v>
+        <v>321.5926442866585</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27730,7 +27783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K583"/>
+  <dimension ref="A1:K584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56354,7 +56407,11 @@
           <t>2025-06-13 22:19:12+00:00</t>
         </is>
       </c>
-      <c r="B583" t="inlineStr"/>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>-42.12287550756234,171.32751240959232</t>
+        </is>
+      </c>
       <c r="C583" t="inlineStr">
         <is>
           <t>-42.1223701455699,171.32838584292514</t>
@@ -56390,10 +56447,71 @@
           <t>-42.11836997376482,171.32887860617907</t>
         </is>
       </c>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="inlineStr">
+        <is>
+          <t>-42.117626720801766,171.3300797369613</t>
+        </is>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:19:27+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>-42.122852261019304,171.32740704604697</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>-42.122408280855474,171.32857387953408</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>-42.12171199422512,171.32857460762546</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>-42.12103269749332,171.3286160999462</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>-42.12037122209475,171.3287432337322</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>-42.119700730273465,171.32876943610574</t>
+        </is>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>-42.119040098020065,171.32896047830803</t>
+        </is>
+      </c>
+      <c r="I584" t="inlineStr">
+        <is>
+          <t>-42.118366661193335,171.3290122954421</t>
+        </is>
+      </c>
+      <c r="J584" t="inlineStr">
+        <is>
+          <t>-42.11763311270218,171.329974971285</t>
+        </is>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0383/nzd0383.xlsx
+++ b/data/nzd0383/nzd0383.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K584"/>
+  <dimension ref="A1:K588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20876,9 +20876,7 @@
           <t>2025-06-13 22:19:12+00:00</t>
         </is>
       </c>
-      <c r="B583" t="n">
-        <v>381.9071428571429</v>
-      </c>
+      <c r="B583" t="inlineStr"/>
       <c r="C583" t="n">
         <v>327.7330769230769</v>
       </c>
@@ -20915,9 +20913,7 @@
           <t>2025-07-23 22:19:27+00:00</t>
         </is>
       </c>
-      <c r="B584" t="n">
-        <v>390.9928571428571</v>
-      </c>
+      <c r="B584" t="inlineStr"/>
       <c r="C584" t="n">
         <v>311.62</v>
       </c>
@@ -20943,6 +20939,160 @@
         <v>245.7587878787879</v>
       </c>
       <c r="K584" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:19:36+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr"/>
+      <c r="C585" t="n">
+        <v>292.7907692307692</v>
+      </c>
+      <c r="D585" t="n">
+        <v>311.0607692307692</v>
+      </c>
+      <c r="E585" t="n">
+        <v>317.2333333333333</v>
+      </c>
+      <c r="F585" t="n">
+        <v>319.5533333333333</v>
+      </c>
+      <c r="G585" t="n">
+        <v>318.5433333333333</v>
+      </c>
+      <c r="H585" t="n">
+        <v>309.76</v>
+      </c>
+      <c r="I585" t="n">
+        <v>303.47</v>
+      </c>
+      <c r="J585" t="n">
+        <v>256.6357575757576</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:13:25+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>355.2128571428572</v>
+      </c>
+      <c r="C586" t="n">
+        <v>324.6261538461538</v>
+      </c>
+      <c r="D586" t="n">
+        <v>320.6561538461539</v>
+      </c>
+      <c r="E586" t="n">
+        <v>321.3333333333333</v>
+      </c>
+      <c r="F586" t="n">
+        <v>327.5633333333333</v>
+      </c>
+      <c r="G586" t="n">
+        <v>323.0833333333333</v>
+      </c>
+      <c r="H586" t="n">
+        <v>313.41</v>
+      </c>
+      <c r="I586" t="n">
+        <v>304.4</v>
+      </c>
+      <c r="J586" t="n">
+        <v>255.980303030303</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:19:38+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>311.7428571428572</v>
+      </c>
+      <c r="C587" t="n">
+        <v>317.2153846153847</v>
+      </c>
+      <c r="D587" t="n">
+        <v>320.8453846153847</v>
+      </c>
+      <c r="E587" t="n">
+        <v>327.57</v>
+      </c>
+      <c r="F587" t="n">
+        <v>330.08</v>
+      </c>
+      <c r="G587" t="n">
+        <v>331.18</v>
+      </c>
+      <c r="H587" t="n">
+        <v>328.68</v>
+      </c>
+      <c r="I587" t="n">
+        <v>316.84</v>
+      </c>
+      <c r="J587" t="n">
+        <v>291.8572727272727</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:19:42+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>322.3057142857143</v>
+      </c>
+      <c r="C588" t="n">
+        <v>325.5038461538461</v>
+      </c>
+      <c r="D588" t="n">
+        <v>331.6638461538461</v>
+      </c>
+      <c r="E588" t="n">
+        <v>338.6133333333333</v>
+      </c>
+      <c r="F588" t="n">
+        <v>342.9033333333333</v>
+      </c>
+      <c r="G588" t="n">
+        <v>348.9133333333333</v>
+      </c>
+      <c r="H588" t="n">
+        <v>330.83</v>
+      </c>
+      <c r="I588" t="n">
+        <v>328.65</v>
+      </c>
+      <c r="J588" t="n">
+        <v>301.4457575757576</v>
+      </c>
+      <c r="K588" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -20959,7 +21109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B596"/>
+  <dimension ref="A1:B600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26927,6 +27077,46 @@
       </c>
       <c r="B596" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>-0.87</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>
@@ -27100,28 +27290,28 @@
         <v>0.0378</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1822812112522279</v>
+        <v>-0.2359500995756166</v>
       </c>
       <c r="J2" t="n">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="K2" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002785486320004305</v>
+        <v>0.004739505569025582</v>
       </c>
       <c r="M2" t="n">
-        <v>20.99083374070788</v>
+        <v>20.83166501553444</v>
       </c>
       <c r="N2" t="n">
-        <v>661.7400905466096</v>
+        <v>652.2392313587844</v>
       </c>
       <c r="O2" t="n">
-        <v>25.72430933079855</v>
+        <v>25.53897475152016</v>
       </c>
       <c r="P2" t="n">
-        <v>342.9376711190013</v>
+        <v>343.4682498095576</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27178,28 +27368,28 @@
         <v>0.0707</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3627961305630316</v>
+        <v>-0.3802867569865563</v>
       </c>
       <c r="J3" t="n">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="K3" t="n">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04542231833977484</v>
+        <v>0.04978272628021285</v>
       </c>
       <c r="M3" t="n">
-        <v>9.504674382275807</v>
+        <v>9.52944495492312</v>
       </c>
       <c r="N3" t="n">
-        <v>159.1074369128255</v>
+        <v>160.2515553490391</v>
       </c>
       <c r="O3" t="n">
-        <v>12.61377964421551</v>
+        <v>12.65905033361662</v>
       </c>
       <c r="P3" t="n">
-        <v>335.7250953268128</v>
+        <v>335.894613706377</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27256,28 +27446,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1273625150121271</v>
+        <v>-0.153495828840286</v>
       </c>
       <c r="J4" t="n">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="K4" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007499396148328064</v>
+        <v>0.0108155921923192</v>
       </c>
       <c r="M4" t="n">
-        <v>8.59514961181381</v>
+        <v>8.670433448974872</v>
       </c>
       <c r="N4" t="n">
-        <v>124.486626734923</v>
+        <v>126.133840847744</v>
       </c>
       <c r="O4" t="n">
-        <v>11.15735751577957</v>
+        <v>11.23093232317531</v>
       </c>
       <c r="P4" t="n">
-        <v>341.0075803767066</v>
+        <v>341.2591272430658</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27334,28 +27524,28 @@
         <v>0.0655</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.200005517577787</v>
+        <v>-0.2270423929448803</v>
       </c>
       <c r="J5" t="n">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="K5" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01878761455826117</v>
+        <v>0.02392551110021068</v>
       </c>
       <c r="M5" t="n">
-        <v>8.655813045768033</v>
+        <v>8.726265381439552</v>
       </c>
       <c r="N5" t="n">
-        <v>121.0519128117948</v>
+        <v>122.9889051181127</v>
       </c>
       <c r="O5" t="n">
-        <v>11.00235942022414</v>
+        <v>11.0900362992243</v>
       </c>
       <c r="P5" t="n">
-        <v>348.5916019409848</v>
+        <v>348.852626193283</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27412,28 +27602,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2823369139179154</v>
+        <v>-0.3064196326928474</v>
       </c>
       <c r="J6" t="n">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="K6" t="n">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03657934251894257</v>
+        <v>0.04272632305788227</v>
       </c>
       <c r="M6" t="n">
-        <v>8.517345446686981</v>
+        <v>8.577234867839367</v>
       </c>
       <c r="N6" t="n">
-        <v>116.173217641233</v>
+        <v>117.4753819424687</v>
       </c>
       <c r="O6" t="n">
-        <v>10.77836804164865</v>
+        <v>10.83860608853688</v>
       </c>
       <c r="P6" t="n">
-        <v>351.1460598775611</v>
+        <v>351.3918481746633</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27490,28 +27680,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1957638275430374</v>
+        <v>-0.2234420096669865</v>
       </c>
       <c r="J7" t="n">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="K7" t="n">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02144747246512402</v>
+        <v>0.0272790562790709</v>
       </c>
       <c r="M7" t="n">
-        <v>7.638469454619436</v>
+        <v>7.741893913537508</v>
       </c>
       <c r="N7" t="n">
-        <v>96.70752829394192</v>
+        <v>99.37504229586098</v>
       </c>
       <c r="O7" t="n">
-        <v>9.833998591312788</v>
+        <v>9.968703140121136</v>
       </c>
       <c r="P7" t="n">
-        <v>351.833488901906</v>
+        <v>352.1143632343291</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27568,28 +27758,28 @@
         <v>0.0535</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.08357683390511426</v>
+        <v>-0.1159623811930288</v>
       </c>
       <c r="J8" t="n">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="K8" t="n">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003484864184148062</v>
+        <v>0.006581236139463709</v>
       </c>
       <c r="M8" t="n">
-        <v>8.472829997767304</v>
+        <v>8.576531095069006</v>
       </c>
       <c r="N8" t="n">
-        <v>115.8992919145579</v>
+        <v>118.9485453230877</v>
       </c>
       <c r="O8" t="n">
-        <v>10.76565334359963</v>
+        <v>10.90635343839029</v>
       </c>
       <c r="P8" t="n">
-        <v>342.8620781627943</v>
+        <v>343.1721423118142</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27646,28 +27836,28 @@
         <v>0.0565</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1436246393625741</v>
+        <v>-0.1679605441415203</v>
       </c>
       <c r="J9" t="n">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="K9" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007625274850019292</v>
+        <v>0.0104070496447024</v>
       </c>
       <c r="M9" t="n">
-        <v>9.921338516730083</v>
+        <v>9.961625499112882</v>
       </c>
       <c r="N9" t="n">
-        <v>153.4647100515324</v>
+        <v>154.9047369000018</v>
       </c>
       <c r="O9" t="n">
-        <v>12.38808742508433</v>
+        <v>12.44607315180181</v>
       </c>
       <c r="P9" t="n">
-        <v>332.101351423537</v>
+        <v>332.3356324333831</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27724,28 +27914,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.072343993269988</v>
+        <v>-0.1522084911644006</v>
       </c>
       <c r="J10" t="n">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="K10" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="L10" t="n">
-        <v>0.000230431675999121</v>
+        <v>0.001021416913277173</v>
       </c>
       <c r="M10" t="n">
-        <v>25.75625678378523</v>
+        <v>26.00272314560186</v>
       </c>
       <c r="N10" t="n">
-        <v>1205.642983147925</v>
+        <v>1215.387811290761</v>
       </c>
       <c r="O10" t="n">
-        <v>34.72237006812647</v>
+        <v>34.86241258563098</v>
       </c>
       <c r="P10" t="n">
-        <v>321.5926442866585</v>
+        <v>322.4233081350116</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27783,7 +27973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K584"/>
+  <dimension ref="A1:K588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56407,11 +56597,7 @@
           <t>2025-06-13 22:19:12+00:00</t>
         </is>
       </c>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>-42.12287550756234,171.32751240959232</t>
-        </is>
-      </c>
+      <c r="B583" t="inlineStr"/>
       <c r="C583" t="inlineStr">
         <is>
           <t>-42.1223701455699,171.32838584292514</t>
@@ -56464,11 +56650,7 @@
           <t>2025-07-23 22:19:27+00:00</t>
         </is>
       </c>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t>-42.122852261019304,171.32740704604697</t>
-        </is>
-      </c>
+      <c r="B584" t="inlineStr"/>
       <c r="C584" t="inlineStr">
         <is>
           <t>-42.122408280855474,171.32857387953408</t>
@@ -56510,6 +56692,230 @@
         </is>
       </c>
       <c r="K584" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:19:36+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr"/>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>-42.12245284415514,171.32879361345047</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>-42.121749757095564,171.32878979677673</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>-42.12107412677192,171.328903990104</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>-42.12040410683318,171.3290121646112</t>
+        </is>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>-42.119729816853166,171.3291609688883</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>-42.11904636665894,171.32928897685</t>
+        </is>
+      </c>
+      <c r="I585" t="inlineStr">
+        <is>
+          <t>-42.11835788781552,171.32936634228102</t>
+        </is>
+      </c>
+      <c r="J585" t="inlineStr">
+        <is>
+          <t>-42.117641111690766,171.32984386257874</t>
+        </is>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:13:25+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>-42.1229438065229,171.3278219734522</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>-42.122377498838375,171.32842210012095</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>-42.121729934141285,171.32867683670153</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>-42.12106712035825,171.32885530247893</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>-42.12039241725598,171.32891656681045</t>
+        </is>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>-42.11972575792468,171.32910633078535</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>-42.119045524588735,171.32924484656553</t>
+        </is>
+      </c>
+      <c r="I586" t="inlineStr">
+        <is>
+          <t>-42.11835816639983,171.32935510078113</t>
+        </is>
+      </c>
+      <c r="J586" t="inlineStr">
+        <is>
+          <t>-42.117640629669836,171.32985176329083</t>
+        </is>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:19:38+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>-42.12305502540878,171.3283260806061</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>-42.12239503813125,171.32850858241036</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>-42.12172954321132,171.3286746090144</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>-42.12105646259538,171.32878124189378</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>-42.120388744484444,171.32888653088835</t>
+        </is>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>-42.1197185191399,171.32900888884285</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>-42.119042001552266,171.32906022481882</t>
+        </is>
+      </c>
+      <c r="I587" t="inlineStr">
+        <is>
+          <t>-42.1183618927332,171.32920473060437</t>
+        </is>
+      </c>
+      <c r="J587" t="inlineStr">
+        <is>
+          <t>-42.11766701277123,171.32941930964563</t>
+        </is>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:19:42+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>-42.12302800032338,171.32820358649144</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>-42.122375421573054,171.32841185761936</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>-42.12170719338719,171.32854725055898</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>-42.121037590662795,171.3286501020767</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>-42.12037003025446,171.32873348698257</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>-42.1197026644531,171.3287954714187</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>-42.11904150548859,171.32903423027273</t>
+        </is>
+      </c>
+      <c r="I588" t="inlineStr">
+        <is>
+          <t>-42.118365430170826,171.32906197562713</t>
+        </is>
+      </c>
+      <c r="J588" t="inlineStr">
+        <is>
+          <t>-42.11767406364603,171.329303731961</t>
+        </is>
+      </c>
+      <c r="K588" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0383/nzd0383.xlsx
+++ b/data/nzd0383/nzd0383.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K588"/>
+  <dimension ref="A1:K591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21093,6 +21093,119 @@
         <v>301.4457575757576</v>
       </c>
       <c r="K588" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:13:27+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>320.7471428571428</v>
+      </c>
+      <c r="C589" t="n">
+        <v>322.1030769230769</v>
+      </c>
+      <c r="D589" t="n">
+        <v>332.6830769230769</v>
+      </c>
+      <c r="E589" t="n">
+        <v>334.65</v>
+      </c>
+      <c r="F589" t="n">
+        <v>335.71</v>
+      </c>
+      <c r="G589" t="n">
+        <v>341.64</v>
+      </c>
+      <c r="H589" t="n">
+        <v>335.02</v>
+      </c>
+      <c r="I589" t="n">
+        <v>328.85</v>
+      </c>
+      <c r="J589" t="n">
+        <v>298.6772727272727</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:13:32+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr"/>
+      <c r="C590" t="n">
+        <v>314.1415384615385</v>
+      </c>
+      <c r="D590" t="n">
+        <v>323.9715384615384</v>
+      </c>
+      <c r="E590" t="n">
+        <v>327.8766666666667</v>
+      </c>
+      <c r="F590" t="n">
+        <v>327.2866666666667</v>
+      </c>
+      <c r="G590" t="n">
+        <v>338.7566666666667</v>
+      </c>
+      <c r="H590" t="n">
+        <v>326.13</v>
+      </c>
+      <c r="I590" t="n">
+        <v>309.86</v>
+      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>299.1271428571428</v>
+      </c>
+      <c r="C591" t="n">
+        <v>310.8246153846154</v>
+      </c>
+      <c r="D591" t="n">
+        <v>327.4746153846153</v>
+      </c>
+      <c r="E591" t="n">
+        <v>330.42</v>
+      </c>
+      <c r="F591" t="n">
+        <v>336.21</v>
+      </c>
+      <c r="G591" t="n">
+        <v>330.08</v>
+      </c>
+      <c r="H591" t="n">
+        <v>319.87</v>
+      </c>
+      <c r="I591" t="n">
+        <v>306.24</v>
+      </c>
+      <c r="J591" t="n">
+        <v>307.6827272727273</v>
+      </c>
+      <c r="K591" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -21109,7 +21222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B600"/>
+  <dimension ref="A1:B603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27117,6 +27230,36 @@
       </c>
       <c r="B600" t="n">
         <v>0.92</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>0.87</v>
       </c>
     </row>
   </sheetData>
@@ -27290,28 +27433,28 @@
         <v>0.0378</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2359500995756166</v>
+        <v>-0.2600818484781305</v>
       </c>
       <c r="J2" t="n">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="K2" t="n">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004739505569025582</v>
+        <v>0.005774967053232327</v>
       </c>
       <c r="M2" t="n">
-        <v>20.83166501553444</v>
+        <v>20.84955874785462</v>
       </c>
       <c r="N2" t="n">
-        <v>652.2392313587844</v>
+        <v>653.1524189597128</v>
       </c>
       <c r="O2" t="n">
-        <v>25.53897475152016</v>
+        <v>25.55684681175893</v>
       </c>
       <c r="P2" t="n">
-        <v>343.4682498095576</v>
+        <v>343.7085624013966</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27368,28 +27511,28 @@
         <v>0.0707</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3802867569865563</v>
+        <v>-0.3921505103254279</v>
       </c>
       <c r="J3" t="n">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="K3" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04978272628021285</v>
+        <v>0.05317409611432511</v>
       </c>
       <c r="M3" t="n">
-        <v>9.52944495492312</v>
+        <v>9.541149588403963</v>
       </c>
       <c r="N3" t="n">
-        <v>160.2515553490391</v>
+        <v>160.0444488228453</v>
       </c>
       <c r="O3" t="n">
-        <v>12.65905033361662</v>
+        <v>12.65086751265878</v>
       </c>
       <c r="P3" t="n">
-        <v>335.894613706377</v>
+        <v>336.010105596787</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27446,28 +27589,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.153495828840286</v>
+        <v>-0.1642214342023199</v>
       </c>
       <c r="J4" t="n">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="K4" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0108155921923192</v>
+        <v>0.01246255380979366</v>
       </c>
       <c r="M4" t="n">
-        <v>8.670433448974872</v>
+        <v>8.676678999301494</v>
       </c>
       <c r="N4" t="n">
-        <v>126.133840847744</v>
+        <v>125.9480699911363</v>
       </c>
       <c r="O4" t="n">
-        <v>11.23093232317531</v>
+        <v>11.22265877549239</v>
       </c>
       <c r="P4" t="n">
-        <v>341.2591272430658</v>
+        <v>341.362777116477</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27524,28 +27667,28 @@
         <v>0.0655</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2270423929448803</v>
+        <v>-0.2409612860253684</v>
       </c>
       <c r="J5" t="n">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="K5" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02392551110021068</v>
+        <v>0.02701231868193332</v>
       </c>
       <c r="M5" t="n">
-        <v>8.726265381439552</v>
+        <v>8.74658831851198</v>
       </c>
       <c r="N5" t="n">
-        <v>122.9889051181127</v>
+        <v>123.1439169153266</v>
       </c>
       <c r="O5" t="n">
-        <v>11.0900362992243</v>
+        <v>11.09702288523037</v>
       </c>
       <c r="P5" t="n">
-        <v>348.852626193283</v>
+        <v>348.9875294398759</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27602,28 +27745,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3064196326928474</v>
+        <v>-0.319789502524889</v>
       </c>
       <c r="J6" t="n">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="K6" t="n">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04272632305788227</v>
+        <v>0.04664445654975047</v>
       </c>
       <c r="M6" t="n">
-        <v>8.577234867839367</v>
+        <v>8.59530954085511</v>
       </c>
       <c r="N6" t="n">
-        <v>117.4753819424687</v>
+        <v>117.5029860261132</v>
       </c>
       <c r="O6" t="n">
-        <v>10.83860608853688</v>
+        <v>10.83987942857822</v>
       </c>
       <c r="P6" t="n">
-        <v>351.3918481746633</v>
+        <v>351.5288310732798</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27680,28 +27823,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2234420096669865</v>
+        <v>-0.2353480619445518</v>
       </c>
       <c r="J7" t="n">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="K7" t="n">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0272790562790709</v>
+        <v>0.03034554668094636</v>
       </c>
       <c r="M7" t="n">
-        <v>7.741893913537508</v>
+        <v>7.759534222985773</v>
       </c>
       <c r="N7" t="n">
-        <v>99.37504229586098</v>
+        <v>99.45890302883934</v>
       </c>
       <c r="O7" t="n">
-        <v>9.968703140121136</v>
+        <v>9.972908453848323</v>
       </c>
       <c r="P7" t="n">
-        <v>352.1143632343291</v>
+        <v>352.2357253506005</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27758,28 +27901,28 @@
         <v>0.0535</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1159623811930288</v>
+        <v>-0.1317159079967388</v>
       </c>
       <c r="J8" t="n">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="K8" t="n">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006581236139463709</v>
+        <v>0.008495414099398024</v>
       </c>
       <c r="M8" t="n">
-        <v>8.576531095069006</v>
+        <v>8.608317978491051</v>
       </c>
       <c r="N8" t="n">
-        <v>118.9485453230877</v>
+        <v>119.5118027529092</v>
       </c>
       <c r="O8" t="n">
-        <v>10.90635343839029</v>
+        <v>10.9321453865611</v>
       </c>
       <c r="P8" t="n">
-        <v>343.1721423118142</v>
+        <v>343.3236053372008</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27836,28 +27979,28 @@
         <v>0.0565</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1679605441415203</v>
+        <v>-0.1835456304025967</v>
       </c>
       <c r="J9" t="n">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="K9" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0104070496447024</v>
+        <v>0.01244001801921357</v>
       </c>
       <c r="M9" t="n">
-        <v>9.961625499112882</v>
+        <v>9.983590580511017</v>
       </c>
       <c r="N9" t="n">
-        <v>154.9047369000018</v>
+        <v>155.579251749536</v>
       </c>
       <c r="O9" t="n">
-        <v>12.44607315180181</v>
+        <v>12.47314121420647</v>
       </c>
       <c r="P9" t="n">
-        <v>332.3356324333831</v>
+        <v>332.4863731081345</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27914,28 +28057,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1522084911644006</v>
+        <v>-0.1661980962796946</v>
       </c>
       <c r="J10" t="n">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="K10" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001021416913277173</v>
+        <v>0.001228211745912922</v>
       </c>
       <c r="M10" t="n">
-        <v>26.00272314560186</v>
+        <v>25.96733875194341</v>
       </c>
       <c r="N10" t="n">
-        <v>1215.387811290761</v>
+        <v>1210.835884556328</v>
       </c>
       <c r="O10" t="n">
-        <v>34.86241258563098</v>
+        <v>34.79706718326026</v>
       </c>
       <c r="P10" t="n">
-        <v>322.4233081350116</v>
+        <v>322.5692251626333</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27973,7 +28116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K588"/>
+  <dimension ref="A1:K591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56921,6 +57064,169 @@
         </is>
       </c>
     </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:13:27+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>-42.12303198793878,171.32822166074473</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>-42.12238347028848,171.32845154395068</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>-42.12170508775449,171.32853525184703</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>-42.121044363613144,171.3286971667344</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>-42.120380528150044,171.32881933795812</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>-42.11970916730666,171.32888300464103</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>-42.11904053872433,171.3289835711358</t>
+        </is>
+      </c>
+      <c r="I589" t="inlineStr">
+        <is>
+          <t>-42.11836549007511,171.32905955809989</t>
+        </is>
+      </c>
+      <c r="J589" t="inlineStr">
+        <is>
+          <t>-42.11767202785777,171.32933710272764</t>
+        </is>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:13:32+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr"/>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>-42.1224023130775,171.328544453634</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>-42.121723084914734,171.32863780690275</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>-42.121055938535285,171.3287776002195</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>-42.12039282101714,171.328919868773</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>-42.11971174518392,171.32891770503034</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>-42.119042589899244,171.32909105556027</t>
+        </is>
+      </c>
+      <c r="I590" t="inlineStr">
+        <is>
+          <t>-42.11835980193702,171.32928910229657</t>
+        </is>
+      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>-42.123087302563015,171.32847238119757</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>-42.12241016330737,171.32858316153062</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>-42.12171584792186,171.32859656753791</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>-42.12105159224971,171.32874739807556</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>-42.12037979845593,171.32881337055846</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>-42.11971950259429,171.32902212714566</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>-42.11904403419827,171.32916674201152</t>
+        </is>
+      </c>
+      <c r="I591" t="inlineStr">
+        <is>
+          <t>-42.118358717574125,171.32933285953382</t>
+        </is>
+      </c>
+      <c r="J591" t="inlineStr">
+        <is>
+          <t>-42.117678649927534,171.32922855276007</t>
+        </is>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0383/nzd0383.xlsx
+++ b/data/nzd0383/nzd0383.xlsx
@@ -27424,13 +27424,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.034</v>
+        <v>0.0423</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0378</v>
+        <v>0.0553</v>
       </c>
       <c r="I2" t="n">
         <v>-0.2600921101314859</v>
@@ -27502,13 +27502,13 @@
         <v>0.8751633933301461</v>
       </c>
       <c r="F3" t="n">
-        <v>0.065</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0566</v>
+        <v>0.0457</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0707</v>
+        <v>0.0582</v>
       </c>
       <c r="I3" t="n">
         <v>-0.3921429248009395</v>
@@ -27580,13 +27580,13 @@
         <v>0.7500925642061032</v>
       </c>
       <c r="F4" t="n">
-        <v>0.065</v>
+        <v>0.055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.059</v>
+        <v>0.0499</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07149999999999999</v>
+        <v>0.0608</v>
       </c>
       <c r="I4" t="n">
         <v>-0.1642203615712371</v>
@@ -27658,13 +27658,13 @@
         <v>0.6251090469338724</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0566</v>
+        <v>0.0517</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0655</v>
+        <v>0.0622</v>
       </c>
       <c r="I5" t="n">
         <v>-0.2409718799491703</v>
@@ -27736,13 +27736,13 @@
         <v>0.5000382177724344</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0573</v>
+        <v>0.0493</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06419999999999999</v>
+        <v>0.0529</v>
       </c>
       <c r="I6" t="n">
         <v>-0.3197965323016732</v>
@@ -27814,13 +27814,13 @@
         <v>0.3749673886119321</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0569</v>
+        <v>0.0483</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06519999999999999</v>
+        <v>0.0559</v>
       </c>
       <c r="I7" t="n">
         <v>-0.2353424793728736</v>
@@ -27892,13 +27892,13 @@
         <v>0.2499913605618014</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0471</v>
+        <v>0.0421</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0535</v>
+        <v>0.0551</v>
       </c>
       <c r="I8" t="n">
         <v>-0.1317159079967386</v>
@@ -27970,13 +27970,13 @@
         <v>0.1249634401828161</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0469</v>
+        <v>0.0427</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0565</v>
+        <v>0.0522</v>
       </c>
       <c r="I9" t="n">
         <v>-0.1835456304025967</v>
@@ -28048,13 +28048,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.165</v>
+        <v>0.065</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09039999999999999</v>
+        <v>0.0541</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2</v>
+        <v>0.08550000000000001</v>
       </c>
       <c r="I10" t="n">
         <v>-0.1661696909373245</v>

--- a/data/nzd0383/nzd0383.xlsx
+++ b/data/nzd0383/nzd0383.xlsx
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>346.01</v>
+        <v>344.17</v>
       </c>
       <c r="C2" t="n">
         <v>329.19</v>
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>378.86</v>
+        <v>381.7</v>
       </c>
       <c r="C3" t="n">
         <v>343.39</v>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>347.81</v>
+        <v>346.77</v>
       </c>
       <c r="C4" t="n">
         <v>342.44</v>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>310.11</v>
+        <v>309.67</v>
       </c>
       <c r="C5" t="n">
         <v>325.22</v>
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>338.66</v>
+        <v>341.73</v>
       </c>
       <c r="C6" t="n">
         <v>358.66</v>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>333.98</v>
+        <v>336.31</v>
       </c>
       <c r="C7" t="n">
         <v>346.7</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>350.63</v>
+        <v>353.9</v>
       </c>
       <c r="C8" t="n">
         <v>343.88</v>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>348.99</v>
+        <v>346.77</v>
       </c>
       <c r="C9" t="n">
         <v>353.94</v>
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>279.08</v>
+        <v>280.7</v>
       </c>
       <c r="C10" t="n">
         <v>319.7</v>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>290.52</v>
+        <v>290.74</v>
       </c>
       <c r="C11" t="n">
         <v>329.75</v>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>327.13</v>
+        <v>329.64</v>
       </c>
       <c r="C12" t="n">
         <v>335.38</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>356.78</v>
+        <v>359.85</v>
       </c>
       <c r="C13" t="n">
         <v>328.17</v>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>361.58</v>
+        <v>360.56</v>
       </c>
       <c r="C14" t="n">
         <v>333.06</v>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>340.25</v>
+        <v>339.38</v>
       </c>
       <c r="C15" t="n">
         <v>338.57</v>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>316.07</v>
+        <v>314.18</v>
       </c>
       <c r="C16" t="n">
         <v>314.35</v>
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>278.17</v>
+        <v>280.7</v>
       </c>
       <c r="C17" t="n">
         <v>331.3</v>
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>311.53</v>
+        <v>309.42</v>
       </c>
       <c r="C18" t="n">
         <v>310.5</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>310.47</v>
+        <v>311.23</v>
       </c>
       <c r="C19" t="n">
         <v>328.26</v>
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>333.94</v>
+        <v>332.32</v>
       </c>
       <c r="C20" t="n">
         <v>338.93</v>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>334.04</v>
+        <v>332.66</v>
       </c>
       <c r="C21" t="n">
         <v>338.25</v>
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>318.19</v>
+        <v>320.59</v>
       </c>
       <c r="C22" t="n">
         <v>329.28</v>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>319.55</v>
+        <v>322.99</v>
       </c>
       <c r="C23" t="n">
         <v>343.4</v>
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>326.37</v>
+        <v>324.48</v>
       </c>
       <c r="C24" t="n">
         <v>315.61</v>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>339.69</v>
+        <v>337.67</v>
       </c>
       <c r="C25" t="n">
         <v>338.45</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>339.21</v>
+        <v>339.28</v>
       </c>
       <c r="C26" t="n">
         <v>345.98</v>
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>393.76</v>
+        <v>396.54</v>
       </c>
       <c r="C28" t="n">
         <v>337.81</v>
@@ -1473,7 +1473,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>364.25</v>
+        <v>362.56</v>
       </c>
       <c r="C29" t="n">
         <v>322.86</v>
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>376.28</v>
+        <v>378.64</v>
       </c>
       <c r="C30" t="n">
         <v>340.92</v>
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>365.47</v>
+        <v>366.71</v>
       </c>
       <c r="C31" t="n">
         <v>334.46</v>
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>343.93</v>
+        <v>346.31</v>
       </c>
       <c r="C32" t="n">
         <v>339.47</v>
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>333.73</v>
+        <v>336.06</v>
       </c>
       <c r="C33" t="n">
         <v>345.62</v>
@@ -1660,7 +1660,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>317.85</v>
+        <v>318.65</v>
       </c>
       <c r="C34" t="n">
         <v>325.52</v>
@@ -1693,7 +1693,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>347.02</v>
+        <v>345.26</v>
       </c>
       <c r="C35" t="n">
         <v>343.77</v>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>345.37</v>
+        <v>346.26</v>
       </c>
       <c r="C36" t="n">
         <v>338.12</v>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>345.68</v>
+        <v>346.28</v>
       </c>
       <c r="C37" t="n">
         <v>349.56</v>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>332.51</v>
+        <v>334.87</v>
       </c>
       <c r="C38" t="n">
         <v>342.55</v>
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>360.99</v>
+        <v>361.83</v>
       </c>
       <c r="C39" t="n">
         <v>326.57</v>
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>378.51</v>
+        <v>379.55</v>
       </c>
       <c r="C40" t="n">
         <v>323.07</v>
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>359.6</v>
+        <v>361.93</v>
       </c>
       <c r="C41" t="n">
         <v>312.39</v>
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>348.15</v>
+        <v>349.22</v>
       </c>
       <c r="C42" t="n">
         <v>331.85</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>340.48</v>
+        <v>341.1</v>
       </c>
       <c r="C43" t="n">
         <v>342.19</v>
@@ -2038,7 +2038,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>321.47</v>
+        <v>325.09</v>
       </c>
       <c r="C44" t="n">
         <v>346.12</v>
@@ -2077,7 +2077,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>329.1</v>
+        <v>330.46</v>
       </c>
       <c r="C45" t="n">
         <v>342.44</v>
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>334.94</v>
+        <v>334.54</v>
       </c>
       <c r="C46" t="n">
         <v>327.22</v>
@@ -2152,9 +2152,7 @@
           <t>2002-12-24 22:01:45+00:00</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>295.66</v>
-      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
         <v>308.99</v>
       </c>
@@ -2182,7 +2180,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>334.27</v>
+        <v>336.71</v>
       </c>
       <c r="C48" t="n">
         <v>338.42</v>
@@ -2221,7 +2219,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>333.47</v>
+        <v>331.47</v>
       </c>
       <c r="C49" t="n">
         <v>326.89</v>
@@ -2250,7 +2248,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>330.1</v>
+        <v>332.34</v>
       </c>
       <c r="C50" t="n">
         <v>344.23</v>
@@ -2289,7 +2287,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>320.99</v>
+        <v>322.01</v>
       </c>
       <c r="C51" t="n">
         <v>334.98</v>
@@ -2328,7 +2326,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>331.26</v>
+        <v>331.79</v>
       </c>
       <c r="C52" t="n">
         <v>336.24</v>
@@ -2367,7 +2365,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>362.43</v>
+        <v>360.63</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
@@ -2394,7 +2392,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>374.49</v>
+        <v>376.89</v>
       </c>
       <c r="C54" t="n">
         <v>329.85</v>
@@ -2431,7 +2429,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>342.72</v>
+        <v>341.61</v>
       </c>
       <c r="C55" t="n">
         <v>335.72</v>
@@ -2470,7 +2468,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>359.75</v>
+        <v>362.13</v>
       </c>
       <c r="C56" t="n">
         <v>339.73</v>
@@ -2501,7 +2499,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>330.91</v>
+        <v>331.8</v>
       </c>
       <c r="C57" t="n">
         <v>329.89</v>
@@ -2540,7 +2538,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>325.93</v>
+        <v>325.22</v>
       </c>
       <c r="C58" t="n">
         <v>331.41</v>
@@ -2579,7 +2577,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>302.97</v>
+        <v>303.55</v>
       </c>
       <c r="C59" t="n">
         <v>319.73</v>
@@ -2649,7 +2647,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>341.46</v>
+        <v>340.19</v>
       </c>
       <c r="C61" t="n">
         <v>332.65</v>
@@ -2719,7 +2717,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>307.4</v>
+        <v>306.96</v>
       </c>
       <c r="C63" t="n">
         <v>320.95</v>
@@ -2752,7 +2750,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>319.33</v>
+        <v>320.04</v>
       </c>
       <c r="C64" t="n">
         <v>329.33</v>
@@ -2791,7 +2789,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>321.96</v>
+        <v>322.87</v>
       </c>
       <c r="C65" t="n">
         <v>338.2</v>
@@ -2830,7 +2828,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>314.57</v>
+        <v>315.73</v>
       </c>
       <c r="C66" t="n">
         <v>337.83</v>
@@ -2863,7 +2861,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>317.44</v>
+        <v>319.26</v>
       </c>
       <c r="C67" t="n">
         <v>338.57</v>
@@ -2902,7 +2900,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>311.48</v>
+        <v>313.9</v>
       </c>
       <c r="C68" t="n">
         <v>339.18</v>
@@ -2933,7 +2931,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>315.76</v>
+        <v>318.67</v>
       </c>
       <c r="C69" t="n">
         <v>345.58</v>
@@ -2972,7 +2970,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>307.31</v>
+        <v>309.42</v>
       </c>
       <c r="C70" t="n">
         <v>332.5</v>
@@ -3011,7 +3009,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>357.68</v>
+        <v>358.19</v>
       </c>
       <c r="C71" t="n">
         <v>341.5</v>
@@ -3079,7 +3077,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>348.92</v>
+        <v>347.59</v>
       </c>
       <c r="C73" t="n">
         <v>332.67</v>
@@ -3118,7 +3116,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>384.67</v>
+        <v>387.16</v>
       </c>
       <c r="C74" t="n">
         <v>356.29</v>
@@ -3157,7 +3155,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>404.89</v>
+        <v>406.93</v>
       </c>
       <c r="C75" t="n">
         <v>353.79</v>
@@ -3186,7 +3184,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>374.62</v>
+        <v>373.04</v>
       </c>
       <c r="C76" t="n">
         <v>338.83</v>
@@ -3254,7 +3252,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>371.46</v>
+        <v>372.26</v>
       </c>
       <c r="C78" t="n">
         <v>338.26</v>
@@ -3293,7 +3291,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>381.18</v>
+        <v>382.54</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
@@ -3392,7 +3390,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>360.49</v>
+        <v>358.65</v>
       </c>
       <c r="C82" t="n">
         <v>330.74</v>
@@ -3452,7 +3450,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>363.65</v>
+        <v>364.87</v>
       </c>
       <c r="C84" t="n">
         <v>333.26</v>
@@ -3518,7 +3516,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>329.61</v>
+        <v>328.94</v>
       </c>
       <c r="C86" t="n">
         <v>332.46</v>
@@ -3557,7 +3555,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>326.81</v>
+        <v>328.45</v>
       </c>
       <c r="C87" t="n">
         <v>339.94</v>
@@ -3588,7 +3586,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>344.39</v>
+        <v>342.81</v>
       </c>
       <c r="C88" t="n">
         <v>337.39</v>
@@ -3658,7 +3656,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>338.02</v>
+        <v>340.69</v>
       </c>
       <c r="C90" t="n">
         <v>344.69</v>
@@ -3697,7 +3695,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>320.45</v>
+        <v>322.74</v>
       </c>
       <c r="C91" t="n">
         <v>341.57</v>
@@ -3736,7 +3734,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>328.1</v>
+        <v>330.28</v>
       </c>
       <c r="C92" t="n">
         <v>335.18</v>
@@ -3775,7 +3773,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>333.78</v>
+        <v>331.96</v>
       </c>
       <c r="C93" t="n">
         <v>325.33</v>
@@ -3804,7 +3802,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>318.77</v>
+        <v>318.01</v>
       </c>
       <c r="C94" t="n">
         <v>334.48</v>
@@ -3843,7 +3841,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>326.49</v>
+        <v>328.73</v>
       </c>
       <c r="C95" t="n">
         <v>340.41</v>
@@ -3880,7 +3878,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>324.41</v>
+        <v>325.7</v>
       </c>
       <c r="C96" t="n">
         <v>325.15</v>
@@ -3919,7 +3917,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>323.12</v>
+        <v>322.45</v>
       </c>
       <c r="C97" t="n">
         <v>323.4</v>
@@ -3958,7 +3956,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>347.81</v>
+        <v>346.39</v>
       </c>
       <c r="C98" t="n">
         <v>313.75</v>
@@ -4057,7 +4055,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>382.26</v>
+        <v>383.66</v>
       </c>
       <c r="C101" t="n">
         <v>332.39</v>
@@ -4148,7 +4146,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>347.64</v>
+        <v>349.2</v>
       </c>
       <c r="C104" t="n">
         <v>345.25</v>
@@ -4187,7 +4185,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>340.55</v>
+        <v>338.77</v>
       </c>
       <c r="C105" t="n">
         <v>337.58</v>
@@ -4257,7 +4255,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>322.79</v>
+        <v>325.81</v>
       </c>
       <c r="C107" t="n">
         <v>346.17</v>
@@ -4294,7 +4292,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>322.76</v>
+        <v>324.52</v>
       </c>
       <c r="C108" t="n">
         <v>329.82</v>
@@ -4362,7 +4360,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>348.57</v>
+        <v>348.79</v>
       </c>
       <c r="C110" t="n">
         <v>339.48</v>
@@ -4397,7 +4395,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>345.04</v>
+        <v>343.6</v>
       </c>
       <c r="C111" t="n">
         <v>328.41</v>
@@ -4436,7 +4434,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>320.49</v>
+        <v>319.02</v>
       </c>
       <c r="C112" t="n">
         <v>320.13</v>
@@ -4471,7 +4469,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>331</v>
+        <v>329.42</v>
       </c>
       <c r="C113" t="n">
         <v>330.09</v>
@@ -4502,7 +4500,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>337.09</v>
+        <v>336.4</v>
       </c>
       <c r="C114" t="n">
         <v>349.27</v>
@@ -4533,7 +4531,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>311.61</v>
+        <v>312.17</v>
       </c>
       <c r="C115" t="n">
         <v>333.66</v>
@@ -4595,7 +4593,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>343.19</v>
+        <v>342.55</v>
       </c>
       <c r="C117" t="n">
         <v>345.16</v>
@@ -4700,7 +4698,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>357.09</v>
+        <v>357.4</v>
       </c>
       <c r="C120" t="n">
         <v>336.14</v>
@@ -4729,7 +4727,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>324.33</v>
+        <v>326.37</v>
       </c>
       <c r="C121" t="n">
         <v>340.64</v>
@@ -4762,7 +4760,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>409.11</v>
+        <v>411.6</v>
       </c>
       <c r="C122" t="n">
         <v>352.29</v>
@@ -4799,7 +4797,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>388.36</v>
+        <v>390.07</v>
       </c>
       <c r="C123" t="n">
         <v>347.73</v>
@@ -4828,7 +4826,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>354.26</v>
+        <v>353.62</v>
       </c>
       <c r="C124" t="n">
         <v>340.16</v>
@@ -4859,7 +4857,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>350.86</v>
+        <v>350.57</v>
       </c>
       <c r="C125" t="n">
         <v>341.29</v>
@@ -4896,7 +4894,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>334.39</v>
+        <v>336.72</v>
       </c>
       <c r="C126" t="n">
         <v>320.26</v>
@@ -5098,7 +5096,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>336.95</v>
+        <v>335.46</v>
       </c>
       <c r="C132" t="n">
         <v>336.48</v>
@@ -5131,7 +5129,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>332.81</v>
+        <v>333.43</v>
       </c>
       <c r="C133" t="n">
         <v>334.65</v>
@@ -5199,7 +5197,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>323.95</v>
+        <v>325.84</v>
       </c>
       <c r="C135" t="n">
         <v>336.54</v>
@@ -5230,7 +5228,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>354.45</v>
+        <v>356.27</v>
       </c>
       <c r="C136" t="n">
         <v>329.11</v>
@@ -5267,7 +5265,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>362.5</v>
+        <v>360.12</v>
       </c>
       <c r="C137" t="n">
         <v>341.06</v>
@@ -5335,7 +5333,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>313.03</v>
+        <v>315.65</v>
       </c>
       <c r="C139" t="n">
         <v>335.15</v>
@@ -5374,7 +5372,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>350.02</v>
+        <v>348.75</v>
       </c>
       <c r="C140" t="n">
         <v>348.23</v>
@@ -5407,7 +5405,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>330.94</v>
+        <v>333.52</v>
       </c>
       <c r="C141" t="n">
         <v>345.75</v>
@@ -5440,7 +5438,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>310.68</v>
+        <v>313.99</v>
       </c>
       <c r="C142" t="n">
         <v>335.84</v>
@@ -5479,7 +5477,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>322.67</v>
+        <v>320.63</v>
       </c>
       <c r="C143" t="n">
         <v>333.32</v>
@@ -5543,7 +5541,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>338.1</v>
+        <v>338.52</v>
       </c>
       <c r="C145" t="n">
         <v>341.64</v>
@@ -5574,7 +5572,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>326.19</v>
+        <v>325.95</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
@@ -5632,7 +5630,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>329.95</v>
+        <v>332.84</v>
       </c>
       <c r="C148" t="n">
         <v>357.91</v>
@@ -5661,7 +5659,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>302.9</v>
+        <v>304.54</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
@@ -5748,7 +5746,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>356.75</v>
+        <v>357.88</v>
       </c>
       <c r="C152" t="n">
         <v>333.91</v>
@@ -5818,7 +5816,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>377.37</v>
+        <v>380.1</v>
       </c>
       <c r="C154" t="n">
         <v>323.34</v>
@@ -5886,7 +5884,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>371.29</v>
+        <v>373.18</v>
       </c>
       <c r="C156" t="n">
         <v>334.43</v>
@@ -5917,7 +5915,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>389.71</v>
+        <v>392</v>
       </c>
       <c r="C157" t="n">
         <v>339.35</v>
@@ -5981,7 +5979,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>355.4</v>
+        <v>357.27</v>
       </c>
       <c r="C159" t="n">
         <v>340.67</v>
@@ -6014,7 +6012,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>325.92</v>
+        <v>324.74</v>
       </c>
       <c r="C160" t="n">
         <v>324.3</v>
@@ -6072,7 +6070,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>326.81</v>
+        <v>327.3</v>
       </c>
       <c r="C162" t="n">
         <v>341.66</v>
@@ -6111,7 +6109,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>325.61</v>
+        <v>324.23</v>
       </c>
       <c r="C163" t="n">
         <v>329.03</v>
@@ -6181,7 +6179,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>309.06</v>
+        <v>311.19</v>
       </c>
       <c r="C165" t="n">
         <v>332.44</v>
@@ -6257,7 +6255,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>316.76</v>
+        <v>319.69</v>
       </c>
       <c r="C167" t="n">
         <v>324.02</v>
@@ -6286,7 +6284,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>326.73</v>
+        <v>328.89</v>
       </c>
       <c r="C168" t="n">
         <v>341.23</v>
@@ -6325,7 +6323,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>314.44</v>
+        <v>316.55</v>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
@@ -6354,7 +6352,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>307.14</v>
+        <v>305.18</v>
       </c>
       <c r="C170" t="n">
         <v>326.75</v>
@@ -6387,7 +6385,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>318.96</v>
+        <v>321.98</v>
       </c>
       <c r="C171" t="n">
         <v>341.29</v>
@@ -6426,7 +6424,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>349.12</v>
+        <v>348.03</v>
       </c>
       <c r="C172" t="n">
         <v>349.22</v>
@@ -6459,7 +6457,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>331.52</v>
+        <v>332.94</v>
       </c>
       <c r="C173" t="n">
         <v>338.26</v>
@@ -6496,7 +6494,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>339.16</v>
+        <v>339.76</v>
       </c>
       <c r="C174" t="n">
         <v>343.99</v>
@@ -6570,7 +6568,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>341.44</v>
+        <v>343.55</v>
       </c>
       <c r="C176" t="n">
         <v>342.69</v>
@@ -6599,7 +6597,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>319.92</v>
+        <v>322.65</v>
       </c>
       <c r="C177" t="n">
         <v>339.45</v>
@@ -6638,7 +6636,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>327.78</v>
+        <v>329.56</v>
       </c>
       <c r="C178" t="n">
         <v>341</v>
@@ -6677,7 +6675,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>331.57</v>
+        <v>334.55</v>
       </c>
       <c r="C179" t="n">
         <v>347.05</v>
@@ -6714,7 +6712,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>334.95</v>
+        <v>332.71</v>
       </c>
       <c r="C180" t="n">
         <v>335.38</v>
@@ -6753,7 +6751,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>360.18</v>
+        <v>358.51</v>
       </c>
       <c r="C181" t="n">
         <v>354.75</v>
@@ -6784,7 +6782,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>347.99</v>
+        <v>346.19</v>
       </c>
       <c r="C182" t="n">
         <v>339.21</v>
@@ -6823,7 +6821,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>362.54</v>
+        <v>363.41</v>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
@@ -6854,7 +6852,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>382.09</v>
+        <v>382.38</v>
       </c>
       <c r="C184" t="n">
         <v>337.55</v>
@@ -6883,7 +6881,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>359.29</v>
+        <v>361.47</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
@@ -6943,7 +6941,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>328.98</v>
+        <v>326.71</v>
       </c>
       <c r="C187" t="n">
         <v>339.73</v>
@@ -7013,7 +7011,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>350.92</v>
+        <v>349.94</v>
       </c>
       <c r="C189" t="n">
         <v>365.5</v>
@@ -7046,7 +7044,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>310.84</v>
+        <v>310.11</v>
       </c>
       <c r="C190" t="n">
         <v>320.44</v>
@@ -7075,7 +7073,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>308.01</v>
+        <v>309.65</v>
       </c>
       <c r="C191" t="n">
         <v>320.14</v>
@@ -7114,7 +7112,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>326.1</v>
+        <v>325.81</v>
       </c>
       <c r="C192" t="n">
         <v>336.37</v>
@@ -7153,7 +7151,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>333.66</v>
+        <v>332.15</v>
       </c>
       <c r="C193" t="n">
         <v>346.34</v>
@@ -7264,7 +7262,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>296.15</v>
+        <v>293.93</v>
       </c>
       <c r="C196" t="n">
         <v>310.43</v>
@@ -7332,7 +7330,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>355.02</v>
+        <v>353.46</v>
       </c>
       <c r="C198" t="n">
         <v>348.75</v>
@@ -7371,7 +7369,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>377.84</v>
+        <v>380.62</v>
       </c>
       <c r="C199" t="n">
         <v>342.38</v>
@@ -7406,7 +7404,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>366.07</v>
+        <v>365.27</v>
       </c>
       <c r="C200" t="n">
         <v>352.69</v>
@@ -7439,7 +7437,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>362.94</v>
+        <v>364.01</v>
       </c>
       <c r="C201" t="n">
         <v>341.98</v>
@@ -7472,7 +7470,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>342.1</v>
+        <v>344.37</v>
       </c>
       <c r="C202" t="n">
         <v>339.41</v>
@@ -7538,7 +7536,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>373.3</v>
+        <v>372.26</v>
       </c>
       <c r="C204" t="n">
         <v>318.72</v>
@@ -7571,7 +7569,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>379.19</v>
+        <v>379.37</v>
       </c>
       <c r="C205" t="n">
         <v>344.48</v>
@@ -7606,7 +7604,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>375.73</v>
+        <v>378.22</v>
       </c>
       <c r="C206" t="n">
         <v>337.38</v>
@@ -7643,7 +7641,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>350.04</v>
+        <v>349.15</v>
       </c>
       <c r="C207" t="n">
         <v>356.35</v>
@@ -7701,7 +7699,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>372.78</v>
+        <v>371.29</v>
       </c>
       <c r="C209" t="n">
         <v>344.37</v>
@@ -7734,7 +7732,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>362.46</v>
+        <v>365.15</v>
       </c>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr"/>
@@ -7765,7 +7763,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>323.62</v>
+        <v>324.71</v>
       </c>
       <c r="C211" t="n">
         <v>339.62</v>
@@ -7833,7 +7831,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>363.9</v>
+        <v>362.99</v>
       </c>
       <c r="C213" t="n">
         <v>361.23</v>
@@ -7901,7 +7899,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>360.32</v>
+        <v>362.9</v>
       </c>
       <c r="C215" t="n">
         <v>342.38</v>
@@ -7934,7 +7932,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>385.26</v>
+        <v>383.84</v>
       </c>
       <c r="C216" t="n">
         <v>366.8</v>
@@ -7967,7 +7965,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>359.77</v>
+        <v>362.61</v>
       </c>
       <c r="C217" t="n">
         <v>327.87</v>
@@ -7996,7 +7994,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>362.23</v>
+        <v>361.21</v>
       </c>
       <c r="C218" t="n">
         <v>338.33</v>
@@ -8081,7 +8079,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>378.72</v>
+        <v>381.5</v>
       </c>
       <c r="C221" t="n">
         <v>331.2</v>
@@ -8110,7 +8108,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>313.2</v>
+        <v>311.09</v>
       </c>
       <c r="C222" t="n">
         <v>326.64</v>
@@ -8143,7 +8141,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>345.11</v>
+        <v>343.98</v>
       </c>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr"/>
@@ -8174,7 +8172,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>335.72</v>
+        <v>334.59</v>
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr"/>
@@ -8203,7 +8201,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>339.55</v>
+        <v>337.28</v>
       </c>
       <c r="C225" t="n">
         <v>346.01</v>
@@ -8234,7 +8232,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>341.92</v>
+        <v>339.7</v>
       </c>
       <c r="C226" t="n">
         <v>351.58</v>
@@ -8300,7 +8298,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>312.33</v>
+        <v>311.6</v>
       </c>
       <c r="C228" t="n">
         <v>322.23</v>
@@ -8329,7 +8327,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>339.03</v>
+        <v>341.32</v>
       </c>
       <c r="C229" t="n">
         <v>349.84</v>
@@ -8360,7 +8358,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>306.51</v>
+        <v>306.2</v>
       </c>
       <c r="C230" t="n">
         <v>318.08</v>
@@ -8389,7 +8387,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>324.58</v>
+        <v>325.34</v>
       </c>
       <c r="C231" t="n">
         <v>326.13</v>
@@ -8455,7 +8453,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>377.1</v>
+        <v>379.77</v>
       </c>
       <c r="C233" t="n">
         <v>336.86</v>
@@ -8484,7 +8482,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>384.37</v>
+        <v>386.08</v>
       </c>
       <c r="C234" t="n">
         <v>328.47</v>
@@ -8558,7 +8556,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>360.65</v>
+        <v>359.63</v>
       </c>
       <c r="C236" t="n">
         <v>332.1</v>
@@ -8595,7 +8593,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>359.45</v>
+        <v>360.12</v>
       </c>
       <c r="C237" t="n">
         <v>294.92</v>
@@ -8702,7 +8700,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>371.62</v>
+        <v>373.55</v>
       </c>
       <c r="C240" t="n">
         <v>307.38</v>
@@ -8739,7 +8737,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>384.5</v>
+        <v>384.28</v>
       </c>
       <c r="C241" t="n">
         <v>316.31</v>
@@ -8830,7 +8828,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>352.59</v>
+        <v>350.79</v>
       </c>
       <c r="C244" t="n">
         <v>322.29</v>
@@ -8939,7 +8937,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>365.23</v>
+        <v>366.59</v>
       </c>
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr"/>
@@ -8968,7 +8966,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>371.44</v>
+        <v>373.35</v>
       </c>
       <c r="C248" t="n">
         <v>327.19</v>
@@ -9007,7 +9005,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>364.37</v>
+        <v>367.37</v>
       </c>
       <c r="C249" t="n">
         <v>332.51</v>
@@ -9038,7 +9036,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>268.71</v>
+        <v>271.8</v>
       </c>
       <c r="C250" t="n">
         <v>337.02</v>
@@ -9077,7 +9075,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>306.44</v>
+        <v>305.11</v>
       </c>
       <c r="C251" t="n">
         <v>320.69</v>
@@ -9108,7 +9106,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>328.03</v>
+        <v>327.76</v>
       </c>
       <c r="C252" t="n">
         <v>339.94</v>
@@ -9147,7 +9145,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>323.94</v>
+        <v>325.41</v>
       </c>
       <c r="C253" t="n">
         <v>334.51</v>
@@ -9186,7 +9184,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>355.65</v>
+        <v>357.67</v>
       </c>
       <c r="C254" t="n">
         <v>340.18</v>
@@ -9221,7 +9219,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>376.88</v>
+        <v>376.44</v>
       </c>
       <c r="C255" t="n">
         <v>344</v>
@@ -9260,7 +9258,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>284.27</v>
+        <v>287.07</v>
       </c>
       <c r="C256" t="n">
         <v>307.19</v>
@@ -9328,7 +9326,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>321.79</v>
+        <v>325.32</v>
       </c>
       <c r="C258" t="n">
         <v>337.45</v>
@@ -9359,7 +9357,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>341.7</v>
+        <v>340.32</v>
       </c>
       <c r="C259" t="n">
         <v>357.32</v>
@@ -9398,7 +9396,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>305.62</v>
+        <v>305.13</v>
       </c>
       <c r="C260" t="n">
         <v>324.87</v>
@@ -9427,7 +9425,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>323.93</v>
+        <v>326.09</v>
       </c>
       <c r="C261" t="n">
         <v>340.72</v>
@@ -9458,7 +9456,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>321.79</v>
+        <v>321.43</v>
       </c>
       <c r="C262" t="n">
         <v>334.7</v>
@@ -9487,7 +9485,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>320.66</v>
+        <v>320.13</v>
       </c>
       <c r="C263" t="n">
         <v>334.17</v>
@@ -9526,7 +9524,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>320.1</v>
+        <v>319.59</v>
       </c>
       <c r="C264" t="n">
         <v>332.38</v>
@@ -9565,7 +9563,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>377.84</v>
+        <v>380.57</v>
       </c>
       <c r="C265" t="n">
         <v>339</v>
@@ -9600,7 +9598,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>381.04</v>
+        <v>384.2</v>
       </c>
       <c r="C266" t="n">
         <v>328.33</v>
@@ -9639,7 +9637,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>375.23</v>
+        <v>377.72</v>
       </c>
       <c r="C267" t="n">
         <v>328.65</v>
@@ -9701,7 +9699,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>377.43</v>
+        <v>379.9</v>
       </c>
       <c r="C269" t="n">
         <v>330.07</v>
@@ -9837,7 +9835,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>364.99</v>
+        <v>366.3</v>
       </c>
       <c r="C273" t="n">
         <v>327.03</v>
@@ -9876,7 +9874,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>342.01</v>
+        <v>340.57</v>
       </c>
       <c r="C274" t="n">
         <v>344.27</v>
@@ -9952,7 +9950,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>347.54</v>
+        <v>346.94</v>
       </c>
       <c r="C276" t="n">
         <v>332.92</v>
@@ -10020,7 +10018,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>336.01</v>
+        <v>334.17</v>
       </c>
       <c r="C278" t="n">
         <v>322.46</v>
@@ -10059,7 +10057,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>292.02</v>
+        <v>295.26</v>
       </c>
       <c r="C279" t="n">
         <v>327.08</v>
@@ -10096,7 +10094,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>282.86</v>
+        <v>285.66</v>
       </c>
       <c r="C280" t="n">
         <v>314.39</v>
@@ -10170,7 +10168,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>304.47</v>
+        <v>302.89</v>
       </c>
       <c r="C282" t="n">
         <v>326.46</v>
@@ -10209,7 +10207,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>295.03</v>
+        <v>294.76</v>
       </c>
       <c r="C283" t="n">
         <v>330.07</v>
@@ -10248,7 +10246,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>339.29</v>
+        <v>340.85</v>
       </c>
       <c r="C284" t="n">
         <v>339.85</v>
@@ -10302,7 +10300,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>315.74</v>
+        <v>319.38</v>
       </c>
       <c r="C286" t="inlineStr"/>
       <c r="D286" t="inlineStr"/>
@@ -10331,7 +10329,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>313.65</v>
+        <v>316.52</v>
       </c>
       <c r="C287" t="n">
         <v>333.63</v>
@@ -10370,7 +10368,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>331.37</v>
+        <v>330.08</v>
       </c>
       <c r="C288" t="n">
         <v>329.43</v>
@@ -10434,7 +10432,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>340.28</v>
+        <v>338.88</v>
       </c>
       <c r="C290" t="n">
         <v>320.89</v>
@@ -10537,7 +10535,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>353.91</v>
+        <v>355.73</v>
       </c>
       <c r="C293" t="n">
         <v>316.8</v>
@@ -10576,7 +10574,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>364.88</v>
+        <v>363.3</v>
       </c>
       <c r="C294" t="n">
         <v>335.5</v>
@@ -10609,7 +10607,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>370</v>
+        <v>368.13</v>
       </c>
       <c r="C295" t="n">
         <v>340.82</v>
@@ -10648,7 +10646,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>357.9</v>
+        <v>360.23</v>
       </c>
       <c r="C296" t="n">
         <v>309.16</v>
@@ -10687,7 +10685,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>362.71</v>
+        <v>365.4</v>
       </c>
       <c r="C297" t="n">
         <v>328.07</v>
@@ -10720,7 +10718,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>370.88</v>
+        <v>369.06</v>
       </c>
       <c r="C298" t="n">
         <v>328.96</v>
@@ -10780,7 +10778,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>388.95</v>
+        <v>391.13</v>
       </c>
       <c r="C300" t="n">
         <v>329.04</v>
@@ -10881,7 +10879,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>388.81</v>
+        <v>390.25</v>
       </c>
       <c r="C303" t="n">
         <v>339.01</v>
@@ -10916,7 +10914,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>335.05</v>
+        <v>334.23</v>
       </c>
       <c r="C304" t="n">
         <v>324</v>
@@ -10978,7 +10976,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>353.46</v>
+        <v>355.19</v>
       </c>
       <c r="C306" t="n">
         <v>321.71</v>
@@ -11011,7 +11009,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>362.69</v>
+        <v>365.49</v>
       </c>
       <c r="C307" t="n">
         <v>329.19</v>
@@ -11048,7 +11046,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>344.45</v>
+        <v>346.98</v>
       </c>
       <c r="C308" t="n">
         <v>304.2</v>
@@ -11087,7 +11085,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>315.72</v>
+        <v>314.45</v>
       </c>
       <c r="C309" t="n">
         <v>306.96</v>
@@ -11126,7 +11124,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>319.4</v>
+        <v>319.2</v>
       </c>
       <c r="C310" t="n">
         <v>329.8</v>
@@ -11155,7 +11153,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>324.41</v>
+        <v>323.74</v>
       </c>
       <c r="C311" t="n">
         <v>331.1</v>
@@ -11194,7 +11192,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>327.89</v>
+        <v>326.09</v>
       </c>
       <c r="C312" t="inlineStr"/>
       <c r="D312" t="inlineStr"/>
@@ -11225,7 +11223,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>290.44</v>
+        <v>288.82</v>
       </c>
       <c r="C313" t="n">
         <v>306.18</v>
@@ -11254,7 +11252,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>314.44</v>
+        <v>313.48</v>
       </c>
       <c r="C314" t="n">
         <v>330.74</v>
@@ -11293,7 +11291,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>334.98</v>
+        <v>335.58</v>
       </c>
       <c r="C315" t="n">
         <v>343.9</v>
@@ -11394,7 +11392,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>335.11</v>
+        <v>332.87</v>
       </c>
       <c r="C318" t="n">
         <v>327.29</v>
@@ -11433,7 +11431,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>323.73</v>
+        <v>321.29</v>
       </c>
       <c r="C319" t="inlineStr"/>
       <c r="D319" t="inlineStr"/>
@@ -11464,7 +11462,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>328.72</v>
+        <v>327.21</v>
       </c>
       <c r="C320" t="n">
         <v>328.48</v>
@@ -11497,7 +11495,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>341.31</v>
+        <v>340.02</v>
       </c>
       <c r="C321" t="n">
         <v>328.07</v>
@@ -11536,7 +11534,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>335.94</v>
+        <v>336.98</v>
       </c>
       <c r="C322" t="n">
         <v>318.59</v>
@@ -11641,7 +11639,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>355.35</v>
+        <v>357.22</v>
       </c>
       <c r="C325" t="n">
         <v>327.33</v>
@@ -11674,7 +11672,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>320.72</v>
+        <v>320.1</v>
       </c>
       <c r="C326" t="n">
         <v>330.24</v>
@@ -11740,7 +11738,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>345.68</v>
+        <v>348.3</v>
       </c>
       <c r="C328" t="n">
         <v>310.21</v>
@@ -11812,7 +11810,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>337.11</v>
+        <v>335.31</v>
       </c>
       <c r="C330" t="inlineStr"/>
       <c r="D330" t="inlineStr"/>
@@ -11843,7 +11841,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>363.44</v>
+        <v>364.57</v>
       </c>
       <c r="C331" t="n">
         <v>313.1</v>
@@ -11912,7 +11910,9 @@
           <t>2016-07-31 22:13:25+00:00</t>
         </is>
       </c>
-      <c r="B333" t="inlineStr"/>
+      <c r="B333" t="n">
+        <v>304.14</v>
+      </c>
       <c r="C333" t="n">
         <v>333.85</v>
       </c>
@@ -11950,7 +11950,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>343.45</v>
+        <v>342.38</v>
       </c>
       <c r="C334" t="n">
         <v>334.16</v>
@@ -12026,7 +12026,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>314.22</v>
+        <v>316.09</v>
       </c>
       <c r="C336" t="n">
         <v>329.43</v>
@@ -12065,7 +12065,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>324.3</v>
+        <v>322.77</v>
       </c>
       <c r="C337" t="n">
         <v>324.56</v>
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>337.56</v>
+        <v>336.14</v>
       </c>
       <c r="C338" t="n">
         <v>339.71</v>
@@ -12133,7 +12133,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>345.84</v>
+        <v>349.35</v>
       </c>
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr"/>
@@ -12197,7 +12197,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>326.63</v>
+        <v>325.61</v>
       </c>
       <c r="C341" t="n">
         <v>331.17</v>
@@ -12265,7 +12265,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>320.49</v>
+        <v>319.67</v>
       </c>
       <c r="C343" t="n">
         <v>343.31</v>
@@ -12304,7 +12304,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>335.68</v>
+        <v>335.48</v>
       </c>
       <c r="C344" t="n">
         <v>331.55</v>
@@ -12333,7 +12333,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>325.09</v>
+        <v>326.02</v>
       </c>
       <c r="C345" t="n">
         <v>348.39</v>
@@ -12372,7 +12372,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>316.08</v>
+        <v>318.68</v>
       </c>
       <c r="C346" t="n">
         <v>339.94</v>
@@ -12411,7 +12411,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>322.31</v>
+        <v>321.11</v>
       </c>
       <c r="C347" t="n">
         <v>336.22</v>
@@ -12450,7 +12450,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>337.9</v>
+        <v>336.28</v>
       </c>
       <c r="C348" t="n">
         <v>351.56</v>
@@ -12516,7 +12516,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>353.01</v>
+        <v>356.43</v>
       </c>
       <c r="C350" t="n">
         <v>329.67</v>
@@ -12549,7 +12549,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>350.3</v>
+        <v>353.14</v>
       </c>
       <c r="C351" t="n">
         <v>332.96</v>
@@ -12588,7 +12588,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>345.31</v>
+        <v>344.42</v>
       </c>
       <c r="C352" t="n">
         <v>317.38</v>
@@ -12627,7 +12627,7 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>375.11</v>
+        <v>374.98</v>
       </c>
       <c r="C353" t="n">
         <v>331.24</v>
@@ -12724,7 +12724,7 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>376.94</v>
+        <v>379.43</v>
       </c>
       <c r="C356" t="n">
         <v>336.52</v>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>333.45</v>
+        <v>331.87</v>
       </c>
       <c r="C357" t="n">
         <v>333.83</v>
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>362.47</v>
+        <v>361.78</v>
       </c>
       <c r="C358" t="n">
         <v>325.67</v>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>364.13</v>
+        <v>362.31</v>
       </c>
       <c r="C359" t="n">
         <v>334.84</v>
@@ -12874,7 +12874,7 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>371.21</v>
+        <v>371.45</v>
       </c>
       <c r="C360" t="n">
         <v>346.81</v>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>363.58</v>
+        <v>364.76</v>
       </c>
       <c r="C361" t="n">
         <v>335.24</v>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>386.07</v>
+        <v>385.69</v>
       </c>
       <c r="C362" t="n">
         <v>340.59</v>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>304.54</v>
+        <v>307.32</v>
       </c>
       <c r="C363" t="n">
         <v>318.79</v>
@@ -13049,7 +13049,7 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>320.33</v>
+        <v>317.91</v>
       </c>
       <c r="C365" t="n">
         <v>323.91</v>
@@ -13080,7 +13080,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>337.41</v>
+        <v>339.83</v>
       </c>
       <c r="C366" t="n">
         <v>350.56</v>
@@ -13111,7 +13111,7 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>331.94</v>
+        <v>329.98</v>
       </c>
       <c r="C367" t="n">
         <v>331.43</v>
@@ -13183,7 +13183,7 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>346.52</v>
+        <v>347.54</v>
       </c>
       <c r="C369" t="n">
         <v>321.93</v>
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>350.96</v>
+        <v>352.2</v>
       </c>
       <c r="C370" t="n">
         <v>327.97</v>
@@ -13261,7 +13261,7 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>355.29</v>
+        <v>353.45</v>
       </c>
       <c r="C371" t="inlineStr"/>
       <c r="D371" t="inlineStr"/>
@@ -13290,7 +13290,7 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>369.92</v>
+        <v>369.7</v>
       </c>
       <c r="C372" t="n">
         <v>329.25</v>
@@ -13327,7 +13327,7 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>370.73</v>
+        <v>372.49</v>
       </c>
       <c r="C373" t="inlineStr"/>
       <c r="D373" t="inlineStr"/>
@@ -13360,7 +13360,7 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>342.28</v>
+        <v>342.88</v>
       </c>
       <c r="C374" t="n">
         <v>318.12</v>
@@ -13399,7 +13399,7 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>357.81</v>
+        <v>360.12</v>
       </c>
       <c r="C375" t="n">
         <v>312.07</v>
@@ -13430,7 +13430,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>334.14</v>
+        <v>331.92</v>
       </c>
       <c r="C376" t="n">
         <v>321.96</v>
@@ -13463,7 +13463,7 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>376.95</v>
+        <v>379.48</v>
       </c>
       <c r="C377" t="n">
         <v>315.21</v>
@@ -13502,7 +13502,7 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>376.72</v>
+        <v>379.21</v>
       </c>
       <c r="C378" t="n">
         <v>327.79</v>
@@ -13533,7 +13533,7 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>386.93</v>
+        <v>389.86</v>
       </c>
       <c r="C379" t="n">
         <v>333.41</v>
@@ -13591,7 +13591,7 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>350.36</v>
+        <v>351.85</v>
       </c>
       <c r="C381" t="n">
         <v>326.54</v>
@@ -13630,7 +13630,7 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>327.96</v>
+        <v>328.52</v>
       </c>
       <c r="C382" t="n">
         <v>331.38</v>
@@ -13698,7 +13698,7 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>321.66</v>
+        <v>323.19</v>
       </c>
       <c r="C384" t="n">
         <v>338.93</v>
@@ -13766,7 +13766,7 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>329.7</v>
+        <v>328.21</v>
       </c>
       <c r="C386" t="n">
         <v>327.57</v>
@@ -13805,7 +13805,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>319.71</v>
+        <v>318.09</v>
       </c>
       <c r="C387" t="n">
         <v>326.64</v>
@@ -13840,7 +13840,7 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>320.02</v>
+        <v>318.49</v>
       </c>
       <c r="C388" t="n">
         <v>331.24</v>
@@ -13879,7 +13879,7 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>340.57</v>
+        <v>340.93</v>
       </c>
       <c r="C389" t="n">
         <v>320.55</v>
@@ -13949,7 +13949,7 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>341.19</v>
+        <v>340.59</v>
       </c>
       <c r="C391" t="n">
         <v>349.04</v>
@@ -13988,7 +13988,7 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>301.19</v>
+        <v>303.63</v>
       </c>
       <c r="C392" t="n">
         <v>333.98</v>
@@ -14027,7 +14027,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>325.28</v>
+        <v>323.77</v>
       </c>
       <c r="C393" t="n">
         <v>336.93</v>
@@ -14060,7 +14060,7 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>324.75</v>
+        <v>324.06</v>
       </c>
       <c r="C394" t="n">
         <v>335.88</v>
@@ -14099,7 +14099,7 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>315.04</v>
+        <v>316.17</v>
       </c>
       <c r="C395" t="n">
         <v>324.52</v>
@@ -14138,7 +14138,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>328.37</v>
+        <v>329.17</v>
       </c>
       <c r="C396" t="n">
         <v>338.13</v>
@@ -14177,7 +14177,7 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>322.93</v>
+        <v>324.46</v>
       </c>
       <c r="C397" t="n">
         <v>327.51</v>
@@ -14216,7 +14216,7 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>364.91</v>
+        <v>367.73</v>
       </c>
       <c r="C398" t="n">
         <v>333.92</v>
@@ -14253,7 +14253,7 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>359.25</v>
+        <v>361.58</v>
       </c>
       <c r="C399" t="n">
         <v>330.72</v>
@@ -14288,7 +14288,7 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>351.34</v>
+        <v>349.36</v>
       </c>
       <c r="C400" t="n">
         <v>316.63</v>
@@ -14352,7 +14352,7 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>374.93</v>
+        <v>377.26</v>
       </c>
       <c r="C402" t="n">
         <v>329.07</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>355.83</v>
+        <v>354.14</v>
       </c>
       <c r="C405" t="n">
         <v>311.18</v>
@@ -14482,7 +14482,7 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>352.9</v>
+        <v>356.32</v>
       </c>
       <c r="C406" t="n">
         <v>308.94</v>
@@ -14612,7 +14612,7 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>365.77</v>
+        <v>365.3</v>
       </c>
       <c r="C410" t="inlineStr"/>
       <c r="D410" t="inlineStr"/>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>365.51</v>
+        <v>364.67</v>
       </c>
       <c r="C411" t="inlineStr"/>
       <c r="D411" t="inlineStr"/>
@@ -14662,7 +14662,7 @@
         </is>
       </c>
       <c r="B412" t="n">
-        <v>307.6</v>
+        <v>308.62</v>
       </c>
       <c r="C412" t="n">
         <v>325.25</v>
@@ -14695,7 +14695,7 @@
         </is>
       </c>
       <c r="B413" t="n">
-        <v>307.16</v>
+        <v>308.92</v>
       </c>
       <c r="C413" t="n">
         <v>333.45</v>
@@ -14734,7 +14734,7 @@
         </is>
       </c>
       <c r="B414" t="n">
-        <v>283.03</v>
+        <v>283.43</v>
       </c>
       <c r="C414" t="n">
         <v>314.32</v>
@@ -14839,7 +14839,7 @@
         </is>
       </c>
       <c r="B417" t="n">
-        <v>304.65</v>
+        <v>307.69</v>
       </c>
       <c r="C417" t="n">
         <v>320.34</v>
@@ -14872,7 +14872,7 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>282.21</v>
+        <v>284.19</v>
       </c>
       <c r="C418" t="n">
         <v>322.26</v>
@@ -14911,7 +14911,7 @@
         </is>
       </c>
       <c r="B419" t="n">
-        <v>333.7</v>
+        <v>333.32</v>
       </c>
       <c r="C419" t="n">
         <v>319.61</v>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>306.45</v>
+        <v>309.03</v>
       </c>
       <c r="C420" t="n">
         <v>336.33</v>
@@ -14985,7 +14985,7 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>298.22</v>
+        <v>300.53</v>
       </c>
       <c r="C421" t="n">
         <v>320.91</v>
@@ -15014,7 +15014,7 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>304.71</v>
+        <v>306.53</v>
       </c>
       <c r="C422" t="n">
         <v>329.78</v>
@@ -15078,7 +15078,7 @@
         </is>
       </c>
       <c r="B424" t="n">
-        <v>292.68</v>
+        <v>293.08</v>
       </c>
       <c r="C424" t="n">
         <v>315.83</v>
@@ -15117,7 +15117,7 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>368.78</v>
+        <v>370.54</v>
       </c>
       <c r="C425" t="n">
         <v>328.51</v>
@@ -15150,7 +15150,7 @@
         </is>
       </c>
       <c r="B426" t="n">
-        <v>361.63</v>
+        <v>364.27</v>
       </c>
       <c r="C426" t="n">
         <v>331.37</v>
@@ -15187,7 +15187,7 @@
         </is>
       </c>
       <c r="B427" t="n">
-        <v>360.01</v>
+        <v>359.54</v>
       </c>
       <c r="C427" t="n">
         <v>310.15</v>
@@ -15216,7 +15216,7 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>394.32</v>
+        <v>395.54</v>
       </c>
       <c r="C428" t="n">
         <v>299.74</v>
@@ -15241,7 +15241,7 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>383.06</v>
+        <v>382.64</v>
       </c>
       <c r="C429" t="n">
         <v>340.37</v>
@@ -15280,7 +15280,7 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>373.6</v>
+        <v>374.78</v>
       </c>
       <c r="C430" t="n">
         <v>325.47</v>
@@ -15350,7 +15350,7 @@
         </is>
       </c>
       <c r="B432" t="n">
-        <v>369.1</v>
+        <v>370.66</v>
       </c>
       <c r="C432" t="n">
         <v>328.1</v>
@@ -15389,7 +15389,7 @@
         </is>
       </c>
       <c r="B433" t="n">
-        <v>377.31</v>
+        <v>379.8</v>
       </c>
       <c r="C433" t="n">
         <v>330.17</v>
@@ -15420,7 +15420,7 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>333.04</v>
+        <v>331.55</v>
       </c>
       <c r="C434" t="n">
         <v>328.92</v>
@@ -15459,7 +15459,7 @@
         </is>
       </c>
       <c r="B435" t="n">
-        <v>309.07</v>
+        <v>308.38</v>
       </c>
       <c r="C435" t="inlineStr"/>
       <c r="D435" t="inlineStr"/>
@@ -15488,7 +15488,7 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>303.79</v>
+        <v>305.17</v>
       </c>
       <c r="C436" t="n">
         <v>322.07</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>310.98</v>
+        <v>313.76</v>
       </c>
       <c r="C437" t="n">
         <v>333.85</v>
@@ -15566,7 +15566,7 @@
         </is>
       </c>
       <c r="B438" t="n">
-        <v>322.5</v>
+        <v>320.77</v>
       </c>
       <c r="C438" t="n">
         <v>326.01</v>
@@ -15632,7 +15632,7 @@
         </is>
       </c>
       <c r="B440" t="n">
-        <v>318.69</v>
+        <v>322.02</v>
       </c>
       <c r="C440" t="n">
         <v>339.41</v>
@@ -15665,7 +15665,7 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>320.36</v>
+        <v>320.2</v>
       </c>
       <c r="C441" t="n">
         <v>329.77</v>
@@ -15692,7 +15692,7 @@
         </is>
       </c>
       <c r="B442" t="n">
-        <v>301.67</v>
+        <v>303.38</v>
       </c>
       <c r="C442" t="n">
         <v>322.42</v>
@@ -15731,7 +15731,7 @@
         </is>
       </c>
       <c r="B443" t="n">
-        <v>291.64</v>
+        <v>291.57</v>
       </c>
       <c r="C443" t="n">
         <v>312.19</v>
@@ -15799,7 +15799,7 @@
         </is>
       </c>
       <c r="B445" t="n">
-        <v>282.37</v>
+        <v>283.86</v>
       </c>
       <c r="C445" t="n">
         <v>321.8</v>
@@ -15908,7 +15908,7 @@
         </is>
       </c>
       <c r="B448" t="n">
-        <v>334.45</v>
+        <v>333.07</v>
       </c>
       <c r="C448" t="n">
         <v>344.62</v>
@@ -15947,7 +15947,7 @@
         </is>
       </c>
       <c r="B449" t="n">
-        <v>353.68</v>
+        <v>353.61</v>
       </c>
       <c r="C449" t="n">
         <v>329.65</v>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="B450" t="n">
-        <v>357.65</v>
+        <v>356.36</v>
       </c>
       <c r="C450" t="n">
         <v>324.93</v>
@@ -16015,7 +16015,7 @@
         </is>
       </c>
       <c r="B451" t="n">
-        <v>353.49</v>
+        <v>355.29</v>
       </c>
       <c r="C451" t="n">
         <v>321.86</v>
@@ -16050,7 +16050,7 @@
         </is>
       </c>
       <c r="B452" t="n">
-        <v>356.98</v>
+        <v>355.65</v>
       </c>
       <c r="C452" t="n">
         <v>297.5</v>
@@ -16085,7 +16085,7 @@
         </is>
       </c>
       <c r="B453" t="n">
-        <v>343.74</v>
+        <v>345.9</v>
       </c>
       <c r="C453" t="n">
         <v>305.61</v>
@@ -16120,7 +16120,7 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>370.12</v>
+        <v>368.05</v>
       </c>
       <c r="C454" t="n">
         <v>340.65</v>
@@ -16149,7 +16149,7 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>393.94</v>
+        <v>397.27</v>
       </c>
       <c r="C455" t="inlineStr"/>
       <c r="D455" t="n">
@@ -16178,7 +16178,7 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>356.54</v>
+        <v>356.61</v>
       </c>
       <c r="C456" t="inlineStr"/>
       <c r="D456" t="inlineStr"/>
@@ -16201,7 +16201,7 @@
         </is>
       </c>
       <c r="B457" t="n">
-        <v>375.21</v>
+        <v>374.63</v>
       </c>
       <c r="C457" t="n">
         <v>347.5</v>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>350.27</v>
+        <v>348.09</v>
       </c>
       <c r="C458" t="n">
         <v>349.09</v>
@@ -16255,7 +16255,7 @@
         </is>
       </c>
       <c r="B459" t="n">
-        <v>368.69</v>
+        <v>370.45</v>
       </c>
       <c r="C459" t="n">
         <v>331.61</v>
@@ -16294,7 +16294,7 @@
         </is>
       </c>
       <c r="B460" t="n">
-        <v>343.79</v>
+        <v>341.48</v>
       </c>
       <c r="C460" t="n">
         <v>337.17</v>
@@ -16333,7 +16333,7 @@
         </is>
       </c>
       <c r="B461" t="n">
-        <v>337.69</v>
+        <v>336.45</v>
       </c>
       <c r="C461" t="n">
         <v>333.56</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="B463" t="n">
-        <v>301.32</v>
+        <v>302.81</v>
       </c>
       <c r="C463" t="n">
         <v>323.03</v>
@@ -16440,7 +16440,7 @@
         </is>
       </c>
       <c r="B464" t="n">
-        <v>332.61</v>
+        <v>335.17</v>
       </c>
       <c r="C464" t="n">
         <v>331.62</v>
@@ -16479,7 +16479,7 @@
         </is>
       </c>
       <c r="B465" t="n">
-        <v>325.97</v>
+        <v>327.64</v>
       </c>
       <c r="C465" t="n">
         <v>335.83</v>
@@ -16518,7 +16518,7 @@
         </is>
       </c>
       <c r="B466" t="n">
-        <v>310.96</v>
+        <v>312.05</v>
       </c>
       <c r="C466" t="n">
         <v>323.22</v>
@@ -16557,7 +16557,7 @@
         </is>
       </c>
       <c r="B467" t="n">
-        <v>327.94</v>
+        <v>329.14</v>
       </c>
       <c r="C467" t="n">
         <v>338.98</v>
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="B468" t="n">
-        <v>317.07</v>
+        <v>316.67</v>
       </c>
       <c r="C468" t="n">
         <v>318.02</v>
@@ -16635,7 +16635,7 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>324.74</v>
+        <v>324.85</v>
       </c>
       <c r="C469" t="n">
         <v>338.33</v>
@@ -16674,7 +16674,7 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>326.75</v>
+        <v>328.33</v>
       </c>
       <c r="C470" t="n">
         <v>331.67</v>
@@ -16701,7 +16701,7 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>327.21</v>
+        <v>328.19</v>
       </c>
       <c r="C471" t="n">
         <v>335.92</v>
@@ -16740,7 +16740,7 @@
         </is>
       </c>
       <c r="B472" t="n">
-        <v>320.7</v>
+        <v>321.26</v>
       </c>
       <c r="C472" t="n">
         <v>329.63</v>
@@ -16779,7 +16779,7 @@
         </is>
       </c>
       <c r="B473" t="n">
-        <v>321.12</v>
+        <v>320.65</v>
       </c>
       <c r="C473" t="n">
         <v>330.65</v>
@@ -16818,7 +16818,7 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>360.35</v>
+        <v>361.15</v>
       </c>
       <c r="C474" t="n">
         <v>335.05</v>
@@ -16857,7 +16857,7 @@
         </is>
       </c>
       <c r="B475" t="n">
-        <v>338.41</v>
+        <v>340.59</v>
       </c>
       <c r="C475" t="n">
         <v>338.31</v>
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="B476" t="n">
-        <v>352.89</v>
+        <v>354.62</v>
       </c>
       <c r="C476" t="n">
         <v>333.18</v>
@@ -16935,7 +16935,7 @@
         </is>
       </c>
       <c r="B477" t="n">
-        <v>346.89</v>
+        <v>344.73</v>
       </c>
       <c r="C477" t="n">
         <v>356.74</v>
@@ -17044,7 +17044,7 @@
         </is>
       </c>
       <c r="B480" t="n">
-        <v>304.93</v>
+        <v>307.75</v>
       </c>
       <c r="C480" t="n">
         <v>342.38</v>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="B481" t="n">
-        <v>325.24</v>
+        <v>323.91</v>
       </c>
       <c r="C481" t="n">
         <v>338.78</v>
@@ -17122,7 +17122,7 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>332</v>
+        <v>330.53</v>
       </c>
       <c r="C482" t="n">
         <v>332.75</v>
@@ -17161,7 +17161,7 @@
         </is>
       </c>
       <c r="B483" t="n">
-        <v>363.31</v>
+        <v>366.22</v>
       </c>
       <c r="C483" t="n">
         <v>343.8</v>
@@ -17200,7 +17200,7 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>346.57</v>
+        <v>345.88</v>
       </c>
       <c r="C484" t="n">
         <v>339.49</v>
@@ -17239,7 +17239,7 @@
         </is>
       </c>
       <c r="B485" t="n">
-        <v>326.93</v>
+        <v>325.33</v>
       </c>
       <c r="C485" t="n">
         <v>328.85</v>
@@ -17278,7 +17278,7 @@
         </is>
       </c>
       <c r="B486" t="n">
-        <v>347.66</v>
+        <v>347.1</v>
       </c>
       <c r="C486" t="n">
         <v>335.6</v>
@@ -17317,7 +17317,7 @@
         </is>
       </c>
       <c r="B487" t="n">
-        <v>309.44</v>
+        <v>311.4</v>
       </c>
       <c r="C487" t="n">
         <v>331.4</v>
@@ -17387,7 +17387,7 @@
         </is>
       </c>
       <c r="B489" t="n">
-        <v>320.12</v>
+        <v>320.94</v>
       </c>
       <c r="C489" t="n">
         <v>334.78</v>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="B490" t="n">
-        <v>352</v>
+        <v>353.67</v>
       </c>
       <c r="C490" t="n">
         <v>335.66</v>
@@ -17465,7 +17465,7 @@
         </is>
       </c>
       <c r="B491" t="n">
-        <v>334.11</v>
+        <v>335.33</v>
       </c>
       <c r="C491" t="n">
         <v>323.56</v>
@@ -17504,7 +17504,7 @@
         </is>
       </c>
       <c r="B492" t="n">
-        <v>373.06</v>
+        <v>375.3</v>
       </c>
       <c r="C492" t="n">
         <v>332.64</v>
@@ -17543,7 +17543,7 @@
         </is>
       </c>
       <c r="B493" t="n">
-        <v>361.36</v>
+        <v>360.54</v>
       </c>
       <c r="C493" t="n">
         <v>334.62</v>
@@ -17582,7 +17582,7 @@
         </is>
       </c>
       <c r="B494" t="n">
-        <v>383.73</v>
+        <v>385.35</v>
       </c>
       <c r="C494" t="n">
         <v>332.87</v>
@@ -17638,7 +17638,7 @@
         </is>
       </c>
       <c r="B496" t="n">
-        <v>391.98</v>
+        <v>394.54</v>
       </c>
       <c r="C496" t="n">
         <v>340.8</v>
@@ -17675,7 +17675,7 @@
         </is>
       </c>
       <c r="B497" t="n">
-        <v>349.72</v>
+        <v>348.34</v>
       </c>
       <c r="C497" t="n">
         <v>346.41</v>
@@ -17714,7 +17714,7 @@
         </is>
       </c>
       <c r="B498" t="n">
-        <v>358.32</v>
+        <v>358.9</v>
       </c>
       <c r="C498" t="n">
         <v>332.69</v>
@@ -17753,7 +17753,7 @@
         </is>
       </c>
       <c r="B499" t="n">
-        <v>377.95</v>
+        <v>380.31</v>
       </c>
       <c r="C499" t="n">
         <v>335.25</v>
@@ -17792,7 +17792,7 @@
         </is>
       </c>
       <c r="B500" t="n">
-        <v>360.48</v>
+        <v>362.9</v>
       </c>
       <c r="C500" t="n">
         <v>338.44</v>
@@ -17831,7 +17831,7 @@
         </is>
       </c>
       <c r="B501" t="n">
-        <v>383.03</v>
+        <v>386.39</v>
       </c>
       <c r="C501" t="n">
         <v>341.04</v>
@@ -17870,7 +17870,7 @@
         </is>
       </c>
       <c r="B502" t="n">
-        <v>381.07</v>
+        <v>384.09</v>
       </c>
       <c r="C502" t="n">
         <v>339.47</v>
@@ -17909,7 +17909,7 @@
         </is>
       </c>
       <c r="B503" t="n">
-        <v>324.5</v>
+        <v>326.43</v>
       </c>
       <c r="C503" t="n">
         <v>336.41</v>
@@ -17942,7 +17942,7 @@
         </is>
       </c>
       <c r="B504" t="n">
-        <v>309.97</v>
+        <v>312.68</v>
       </c>
       <c r="C504" t="n">
         <v>338.23</v>
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="B505" t="n">
-        <v>301.74</v>
+        <v>302.43</v>
       </c>
       <c r="C505" t="n">
         <v>322.06</v>
@@ -18010,7 +18010,7 @@
         </is>
       </c>
       <c r="B506" t="n">
-        <v>324.79</v>
+        <v>325.28</v>
       </c>
       <c r="C506" t="n">
         <v>332.62</v>
@@ -18049,7 +18049,7 @@
         </is>
       </c>
       <c r="B507" t="n">
-        <v>344.31</v>
+        <v>344.18</v>
       </c>
       <c r="C507" t="n">
         <v>355.71</v>
@@ -18074,7 +18074,7 @@
         </is>
       </c>
       <c r="B508" t="n">
-        <v>345.75</v>
+        <v>344.64</v>
       </c>
       <c r="C508" t="n">
         <v>349.38</v>
@@ -18113,7 +18113,7 @@
         </is>
       </c>
       <c r="B509" t="n">
-        <v>335.68</v>
+        <v>334.12</v>
       </c>
       <c r="C509" t="n">
         <v>338.79</v>
@@ -18148,7 +18148,7 @@
         </is>
       </c>
       <c r="B510" t="n">
-        <v>312.25</v>
+        <v>314.67</v>
       </c>
       <c r="C510" t="n">
         <v>333.2</v>
@@ -18187,7 +18187,7 @@
         </is>
       </c>
       <c r="B511" t="n">
-        <v>333.07</v>
+        <v>331.23</v>
       </c>
       <c r="C511" t="n">
         <v>326.5</v>
@@ -18222,7 +18222,7 @@
         </is>
       </c>
       <c r="B512" t="n">
-        <v>325.89</v>
+        <v>326.89</v>
       </c>
       <c r="C512" t="n">
         <v>338.13</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="B513" t="n">
-        <v>336.41</v>
+        <v>334.7</v>
       </c>
       <c r="C513" t="n">
         <v>334.53</v>
@@ -18300,7 +18300,7 @@
         </is>
       </c>
       <c r="B514" t="n">
-        <v>332.8</v>
+        <v>331.78</v>
       </c>
       <c r="C514" t="n">
         <v>333.67</v>
@@ -18335,7 +18335,7 @@
         </is>
       </c>
       <c r="B515" t="n">
-        <v>317.77</v>
+        <v>319.08</v>
       </c>
       <c r="C515" t="n">
         <v>332.84</v>
@@ -18411,7 +18411,7 @@
         </is>
       </c>
       <c r="B517" t="n">
-        <v>284.19</v>
+        <v>284.68</v>
       </c>
       <c r="C517" t="n">
         <v>314.57</v>
@@ -18450,7 +18450,7 @@
         </is>
       </c>
       <c r="B518" t="n">
-        <v>328.19</v>
+        <v>326.39</v>
       </c>
       <c r="C518" t="n">
         <v>336.83</v>
@@ -18489,7 +18489,7 @@
         </is>
       </c>
       <c r="B519" t="n">
-        <v>318.22</v>
+        <v>319</v>
       </c>
       <c r="C519" t="n">
         <v>333.37</v>
@@ -18528,7 +18528,7 @@
         </is>
       </c>
       <c r="B520" t="n">
-        <v>339.69</v>
+        <v>338.25</v>
       </c>
       <c r="C520" t="n">
         <v>343.07</v>
@@ -18604,7 +18604,7 @@
         </is>
       </c>
       <c r="B522" t="n">
-        <v>372.57</v>
+        <v>370.79</v>
       </c>
       <c r="C522" t="n">
         <v>331.33</v>
@@ -18680,7 +18680,7 @@
         </is>
       </c>
       <c r="B524" t="n">
-        <v>363.48</v>
+        <v>362.59</v>
       </c>
       <c r="C524" t="n">
         <v>335.14</v>
@@ -18719,7 +18719,7 @@
         </is>
       </c>
       <c r="B525" t="n">
-        <v>343.35</v>
+        <v>345.75</v>
       </c>
       <c r="C525" t="n">
         <v>318.28</v>
@@ -18758,7 +18758,7 @@
         </is>
       </c>
       <c r="B526" t="n">
-        <v>353.76</v>
+        <v>352.14</v>
       </c>
       <c r="C526" t="n">
         <v>345.35</v>
@@ -18797,7 +18797,7 @@
         </is>
       </c>
       <c r="B527" t="n">
-        <v>365.28</v>
+        <v>364.61</v>
       </c>
       <c r="C527" t="n">
         <v>338.06</v>
@@ -18836,7 +18836,7 @@
         </is>
       </c>
       <c r="B528" t="n">
-        <v>343.56</v>
+        <v>344.14</v>
       </c>
       <c r="C528" t="n">
         <v>316.33</v>
@@ -18875,7 +18875,7 @@
         </is>
       </c>
       <c r="B529" t="n">
-        <v>377.18</v>
+        <v>379.76</v>
       </c>
       <c r="C529" t="n">
         <v>312.76</v>
@@ -18912,7 +18912,7 @@
         </is>
       </c>
       <c r="B530" t="n">
-        <v>344.87</v>
+        <v>344</v>
       </c>
       <c r="C530" t="n">
         <v>321.61</v>
@@ -18951,7 +18951,7 @@
         </is>
       </c>
       <c r="B531" t="n">
-        <v>364.27</v>
+        <v>365.36</v>
       </c>
       <c r="C531" t="n">
         <v>306.93</v>
@@ -18988,7 +18988,7 @@
         </is>
       </c>
       <c r="B532" t="n">
-        <v>362.17</v>
+        <v>361.37</v>
       </c>
       <c r="C532" t="n">
         <v>291.5</v>
@@ -19025,7 +19025,7 @@
         </is>
       </c>
       <c r="B533" t="n">
-        <v>351.14</v>
+        <v>350.7</v>
       </c>
       <c r="C533" t="n">
         <v>311.12</v>
@@ -19064,7 +19064,7 @@
         </is>
       </c>
       <c r="B534" t="n">
-        <v>314.07</v>
+        <v>315</v>
       </c>
       <c r="C534" t="n">
         <v>290.9</v>
@@ -19165,7 +19165,7 @@
         </is>
       </c>
       <c r="B537" t="n">
-        <v>296.77</v>
+        <v>299.01</v>
       </c>
       <c r="C537" t="n">
         <v>334.99</v>
@@ -19204,7 +19204,7 @@
         </is>
       </c>
       <c r="B538" t="n">
-        <v>327.67</v>
+        <v>330.11</v>
       </c>
       <c r="C538" t="n">
         <v>311.61</v>
@@ -19274,7 +19274,7 @@
         </is>
       </c>
       <c r="B540" t="n">
-        <v>345.22</v>
+        <v>344.4</v>
       </c>
       <c r="C540" t="n">
         <v>319.47</v>
@@ -19383,7 +19383,7 @@
         </is>
       </c>
       <c r="B543" t="n">
-        <v>319.59</v>
+        <v>317.63</v>
       </c>
       <c r="C543" t="n">
         <v>325.9</v>
@@ -19418,7 +19418,7 @@
         </is>
       </c>
       <c r="B544" t="n">
-        <v>345.49</v>
+        <v>348.07</v>
       </c>
       <c r="C544" t="n">
         <v>332.28</v>
@@ -19488,7 +19488,7 @@
         </is>
       </c>
       <c r="B546" t="n">
-        <v>348.41</v>
+        <v>345.97</v>
       </c>
       <c r="C546" t="n">
         <v>346.19</v>
@@ -19523,7 +19523,7 @@
         </is>
       </c>
       <c r="B547" t="n">
-        <v>306.74</v>
+        <v>307.65</v>
       </c>
       <c r="C547" t="n">
         <v>330.13</v>
@@ -19562,7 +19562,7 @@
         </is>
       </c>
       <c r="B548" t="n">
-        <v>289.63</v>
+        <v>291.23</v>
       </c>
       <c r="C548" t="n">
         <v>325.31</v>
@@ -19601,7 +19601,7 @@
         </is>
       </c>
       <c r="B549" t="n">
-        <v>322.46</v>
+        <v>322.35</v>
       </c>
       <c r="C549" t="n">
         <v>340.82</v>
@@ -19640,7 +19640,7 @@
         </is>
       </c>
       <c r="B550" t="n">
-        <v>289.21</v>
+        <v>289.77</v>
       </c>
       <c r="C550" t="n">
         <v>313.95</v>
@@ -19679,7 +19679,7 @@
         </is>
       </c>
       <c r="B551" t="n">
-        <v>297.28</v>
+        <v>298.75</v>
       </c>
       <c r="C551" t="n">
         <v>322.87</v>
@@ -19718,7 +19718,7 @@
         </is>
       </c>
       <c r="B552" t="n">
-        <v>288.31</v>
+        <v>288.75</v>
       </c>
       <c r="C552" t="n">
         <v>319.34</v>
@@ -19757,7 +19757,7 @@
         </is>
       </c>
       <c r="B553" t="n">
-        <v>313.24</v>
+        <v>312.84</v>
       </c>
       <c r="C553" t="n">
         <v>330.14</v>
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="B554" t="n">
-        <v>276.48</v>
+        <v>278.75</v>
       </c>
       <c r="C554" t="n">
         <v>316.57</v>
@@ -19872,7 +19872,7 @@
         </is>
       </c>
       <c r="B556" t="n">
-        <v>267.53</v>
+        <v>271.2</v>
       </c>
       <c r="C556" t="n">
         <v>325.64</v>
@@ -19983,7 +19983,7 @@
         </is>
       </c>
       <c r="B559" t="n">
-        <v>289.73</v>
+        <v>288.95</v>
       </c>
       <c r="C559" t="n">
         <v>316.1</v>
@@ -20022,7 +20022,7 @@
         </is>
       </c>
       <c r="B560" t="n">
-        <v>336.27</v>
+        <v>333.87</v>
       </c>
       <c r="C560" t="n">
         <v>347.31</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="B561" t="n">
-        <v>377.95</v>
+        <v>380.55</v>
       </c>
       <c r="C561" t="n">
         <v>309.43</v>
@@ -20100,7 +20100,7 @@
         </is>
       </c>
       <c r="B562" t="n">
-        <v>379.32</v>
+        <v>382.23</v>
       </c>
       <c r="C562" t="n">
         <v>316.13</v>
@@ -20139,7 +20139,7 @@
         </is>
       </c>
       <c r="B563" t="n">
-        <v>377.8</v>
+        <v>380.53</v>
       </c>
       <c r="C563" t="n">
         <v>331.67</v>
@@ -20178,7 +20178,7 @@
         </is>
       </c>
       <c r="B564" t="n">
-        <v>346.75</v>
+        <v>347.75</v>
       </c>
       <c r="C564" t="n">
         <v>324.82</v>
@@ -20252,7 +20252,7 @@
         </is>
       </c>
       <c r="B566" t="n">
-        <v>312.56</v>
+        <v>312.07</v>
       </c>
       <c r="C566" t="n">
         <v>334.86</v>
@@ -20291,7 +20291,7 @@
         </is>
       </c>
       <c r="B567" t="n">
-        <v>324.77</v>
+        <v>323.33</v>
       </c>
       <c r="C567" t="n">
         <v>326.9</v>
@@ -20328,7 +20328,7 @@
         </is>
       </c>
       <c r="B568" t="n">
-        <v>306.32</v>
+        <v>308.14</v>
       </c>
       <c r="C568" t="n">
         <v>329.39</v>
@@ -20367,7 +20367,7 @@
         </is>
       </c>
       <c r="B569" t="n">
-        <v>330.3</v>
+        <v>332.06</v>
       </c>
       <c r="C569" t="n">
         <v>339.85</v>
@@ -20406,7 +20406,7 @@
         </is>
       </c>
       <c r="B570" t="n">
-        <v>324.67</v>
+        <v>322.89</v>
       </c>
       <c r="C570" t="n">
         <v>331.88</v>
@@ -20445,7 +20445,7 @@
         </is>
       </c>
       <c r="B571" t="n">
-        <v>321.93</v>
+        <v>323.15</v>
       </c>
       <c r="C571" t="n">
         <v>333.87</v>
@@ -20484,7 +20484,7 @@
         </is>
       </c>
       <c r="B572" t="n">
-        <v>332.87</v>
+        <v>331.27</v>
       </c>
       <c r="C572" t="n">
         <v>332.8</v>
@@ -20523,7 +20523,7 @@
         </is>
       </c>
       <c r="B573" t="n">
-        <v>339.2</v>
+        <v>336.84</v>
       </c>
       <c r="C573" t="n">
         <v>341.29</v>
@@ -20562,7 +20562,7 @@
         </is>
       </c>
       <c r="B574" t="n">
-        <v>321.27</v>
+        <v>323.87</v>
       </c>
       <c r="C574" t="n">
         <v>335.92</v>
@@ -20601,7 +20601,7 @@
         </is>
       </c>
       <c r="B575" t="n">
-        <v>336.39</v>
+        <v>334.7</v>
       </c>
       <c r="C575" t="n">
         <v>342.66</v>
@@ -20640,7 +20640,7 @@
         </is>
       </c>
       <c r="B576" t="n">
-        <v>336.29</v>
+        <v>334.76</v>
       </c>
       <c r="C576" t="n">
         <v>343.73</v>
@@ -20679,7 +20679,7 @@
         </is>
       </c>
       <c r="B577" t="n">
-        <v>330.69</v>
+        <v>332.6</v>
       </c>
       <c r="C577" t="n">
         <v>346.05</v>
@@ -20718,7 +20718,7 @@
         </is>
       </c>
       <c r="B578" t="n">
-        <v>335.17</v>
+        <v>336.1</v>
       </c>
       <c r="C578" t="n">
         <v>349.55</v>
@@ -20757,7 +20757,7 @@
         </is>
       </c>
       <c r="B579" t="n">
-        <v>330.16</v>
+        <v>330.94</v>
       </c>
       <c r="C579" t="n">
         <v>348.13</v>
@@ -20794,7 +20794,7 @@
         </is>
       </c>
       <c r="B580" t="n">
-        <v>361.26</v>
+        <v>362.22</v>
       </c>
       <c r="C580" t="n">
         <v>346.08</v>
@@ -20893,7 +20893,7 @@
         </is>
       </c>
       <c r="B583" t="n">
-        <v>332.86</v>
+        <v>331.33</v>
       </c>
       <c r="C583" t="n">
         <v>334.66</v>
@@ -21080,7 +21080,7 @@
         </is>
       </c>
       <c r="B588" t="n">
-        <v>345.27</v>
+        <v>347.85</v>
       </c>
       <c r="C588" t="n">
         <v>329.98</v>
@@ -21119,7 +21119,7 @@
         </is>
       </c>
       <c r="B589" t="n">
-        <v>319.2</v>
+        <v>317.27</v>
       </c>
       <c r="C589" t="n">
         <v>313.2</v>
@@ -21158,7 +21158,7 @@
         </is>
       </c>
       <c r="B590" t="n">
-        <v>314.42</v>
+        <v>316.46</v>
       </c>
       <c r="C590" t="n">
         <v>329.75</v>
@@ -21197,7 +21197,7 @@
         </is>
       </c>
       <c r="B591" t="n">
-        <v>316.89</v>
+        <v>317.89</v>
       </c>
       <c r="C591" t="n">
         <v>324.18</v>
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="B593" t="n">
-        <v>291.67</v>
+        <v>293.6</v>
       </c>
       <c r="C593" t="n">
         <v>314.84</v>
@@ -21345,7 +21345,7 @@
         </is>
       </c>
       <c r="B595" t="n">
-        <v>291.75</v>
+        <v>295.06</v>
       </c>
       <c r="C595" t="n">
         <v>341.9</v>
@@ -27617,7 +27617,7 @@
         <v>0.055</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.204930860860616</v>
+        <v>-0.2333768202068174</v>
       </c>
       <c r="J2" t="n">
         <v>594</v>
@@ -27626,19 +27626,19 @@
         <v>461</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003663424054245468</v>
+        <v>0.004694048458461886</v>
       </c>
       <c r="M2" t="n">
-        <v>21.0019998743231</v>
+        <v>21.08983974861708</v>
       </c>
       <c r="N2" t="n">
-        <v>663.0715484353522</v>
+        <v>667.2580342465568</v>
       </c>
       <c r="O2" t="n">
-        <v>25.75017569717442</v>
+        <v>25.83133822020371</v>
       </c>
       <c r="P2" t="n">
-        <v>341.8184190773898</v>
+        <v>342.8258796394107</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28377,7 +28377,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-42.122967352403926,171.32792869577764</t>
+          <t>-42.12297206010637,171.32795003362588</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -28434,7 +28434,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-42.12288330390514,171.32754774615773</t>
+          <t>-42.12287603755317,171.32751481174955</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -28491,7 +28491,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-42.12296274703908,171.3279078217988</t>
+          <t>-42.122965407917,171.32791988231952</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -28540,7 +28540,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-42.123059203064635,171.32834501634377</t>
+          <t>-42.12306032880166,171.3283501188877</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -28585,7 +28585,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-42.12298615760489,171.32801393122372</t>
+          <t>-42.122978302923116,171.3279783294732</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -28642,7 +28642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-42.12299813149619,171.32806820361665</t>
+          <t>-42.12299217013894,171.3280411833842</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -28691,7 +28691,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-42.12295553195992,171.32787511923829</t>
+          <t>-42.12294716552683,171.3278371981937</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -28748,7 +28748,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-42.12295972796453,171.3278941377477</t>
+          <t>-42.122965407917,171.32791988231952</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -28797,7 +28797,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-42.12313859255966,171.3287048621169</t>
+          <t>-42.1231344478569,171.32868607543085</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -28842,7 +28842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-42.123109323729494,171.32857219569698</t>
+          <t>-42.12310876086589,171.3285696444209</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -28891,7 +28891,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-42.123015657338414,171.32814764081118</t>
+          <t>-42.12300923546676,171.32811853316238</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -28948,7 +28948,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-42.122939796914956,171.32780379985107</t>
+          <t>-42.122931942168826,171.32776819815442</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -29001,7 +29001,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-42.122927515873855,171.32774813596455</t>
+          <t>-42.1229301255973,171.3277599645386</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -29054,7 +29054,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-42.122982089546305,171.32799549253093</t>
+          <t>-42.122984315465516,171.32800558162668</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -29107,7 +29107,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-42.12304395442309,171.32827590008543</t>
+          <t>-42.12304878998669,171.32829781782132</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -29152,7 +29152,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-42.12314092075555,171.32871541513302</t>
+          <t>-42.1231344478569,171.32868607543085</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -29197,7 +29197,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-42.12305557000276,171.32832854904422</t>
+          <t>-42.123060968424866,171.32835301806045</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -29242,7 +29242,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-42.12305828200693,171.32834084153524</t>
+          <t>-42.12305633755125,171.328332028051</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -29291,7 +29291,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-42.12299823383704,171.32806866748334</t>
+          <t>-42.123002378639576,171.3280874540859</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -29348,7 +29348,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-42.12299797798491,171.32806750781663</t>
+          <t>-42.123001508743,171.3280835112185</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -29405,7 +29405,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-42.12303853039974,171.32825131511592</t>
+          <t>-42.12303238998967,171.3282234830802</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -29462,7 +29462,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-42.12303505083485,171.32823554362832</t>
+          <t>-42.12302624957293,171.32819565105007</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -29519,7 +29519,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-42.12301760180807,171.32815645428374</t>
+          <t>-42.123022437394184,171.32817837200082</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -29568,7 +29568,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-42.122983522321995,171.32800198666146</t>
+          <t>-42.12298869054555,171.32802541192046</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -29625,7 +29625,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-42.12298475041514,171.32800755305928</t>
+          <t>-42.122984571318234,171.3280067412929</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -29703,7 +29703,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-42.122845181039025,171.32737495656798</t>
+          <t>-42.122838068153705,171.32734271799717</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -29756,7 +29756,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-42.1229206845332,171.32771717293733</t>
+          <t>-42.122925008491336,171.32773677125712</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -29809,7 +29809,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-42.12288990501963,171.3275776654508</t>
+          <t>-42.122883866791184,171.32755029741503</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -29862,7 +29862,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-42.1229175630939,171.32770302503954</t>
+          <t>-42.1229143904817,171.3276886452105</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -29915,7 +29915,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-42.12297267415421,171.32795281682374</t>
+          <t>-42.12296658484339,171.32792521678093</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -29968,7 +29968,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-42.122998771126426,171.32807110278353</t>
+          <t>-42.12299280976985,171.32804408255052</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -30025,7 +30025,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-42.123039400290615,171.32825525798808</t>
+          <t>-42.123037353488314,171.32824598064195</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -30070,7 +30070,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-42.12296476828299,171.3279169831558</t>
+          <t>-42.12296927130484,171.32793739326974</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -30127,7 +30127,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-42.122968989866095,171.32793611763753</t>
+          <t>-42.12296671277015,171.3279257966137</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -30184,7 +30184,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-42.122968196720414,171.32793252267408</t>
+          <t>-42.12296666159945,171.3279255646806</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -30241,7 +30241,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-42.12300189252093,171.32808525071883</t>
+          <t>-42.12299585441197,171.32805788258304</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -30298,7 +30298,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-42.12292902541992,171.32775497798272</t>
+          <t>-42.12292687623556,171.3277452368044</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -30351,7 +30351,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-42.12288419940563,171.3275518049762</t>
+          <t>-42.122881538489494,171.32753974448744</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -30404,7 +30404,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-42.12293258180652,171.32777109731504</t>
+          <t>-42.12292662038022,171.32774407714035</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -30457,7 +30457,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-42.122961877136404,171.32790387893647</t>
+          <t>-42.122959139500644,171.32789147051759</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -30514,7 +30514,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-42.12298150108476,171.32799282529885</t>
+          <t>-42.122979914796815,171.32798563536915</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -30571,7 +30571,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-42.123030138504305,171.32821327800184</t>
+          <t>-42.123020876702824,171.32817129802828</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -30628,7 +30628,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-42.123010617065255,171.3281247953652</t>
+          <t>-42.1230071374832,171.32810902389198</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -30685,7 +30685,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-42.12299567531542,171.32805707081639</t>
+          <t>-42.122996698724194,171.32806170948305</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -30736,11 +30736,7 @@
           <t>2002-12-24 22:01:45+00:00</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>-42.12309617317434,171.32851258862297</t>
-        </is>
-      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>-42.1224145053237,171.32860457116695</t>
@@ -30775,7 +30771,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-42.122997389525025,171.32806484058312</t>
+          <t>-42.12299114672934,171.3280365447182</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -30832,7 +30828,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-42.122999436341786,171.32807411791714</t>
+          <t>-42.12300455338044,171.3280973112549</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -30869,7 +30865,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-42.123008058549246,171.32811319869353</t>
+          <t>-42.1230023274692,171.32808722215253</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -30926,7 +30922,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-42.123031366587334,171.32821884440813</t>
+          <t>-42.12302875691057,171.32820701579502</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -30983,7 +30979,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-42.12300509066923,171.3280997465556</t>
+          <t>-42.12300373465457,171.32809360032064</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -31040,7 +31036,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-42.122925341103375,171.32773827882028</t>
+          <t>-42.12292994649869,171.32775915277364</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -31073,7 +31069,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-42.12289448485811,171.32759842341375</t>
+          <t>-42.12288834429172,171.32757059150885</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -31126,7 +31122,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-42.1229757699778,171.32796684878036</t>
+          <t>-42.1229786099467,171.3279797210724</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -31183,7 +31179,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-42.12293219802392,171.32776935781865</t>
+          <t>-42.122926108669525,171.32774175781233</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -31224,7 +31220,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-42.12300598615044,171.32810380539019</t>
+          <t>-42.12300370906938,171.32809348435393</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -31281,7 +31277,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-42.123018727553344,171.32816155682076</t>
+          <t>-42.12302054409642,171.3281697904604</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -31338,7 +31334,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-42.12307747067845,171.32842781673884</t>
+          <t>-42.12307598675683,171.32842109065444</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -31436,7 +31432,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-42.122978993726186,171.32798146057144</t>
+          <t>-42.12298224305799,171.32799618833064</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -31534,7 +31530,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-42.12306613657766,171.32837644337866</t>
+          <t>-42.12306726231329,171.32838154592372</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -31579,7 +31575,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-42.123035613705774,171.32823809489824</t>
+          <t>-42.123033797167565,171.32822986125456</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -31636,7 +31632,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-42.123028884835946,171.32820759562898</t>
+          <t>-42.12302655659393,171.32819704265145</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -31693,7 +31689,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-42.123047792172315,171.32829329511364</t>
+          <t>-42.12304482431314,171.3282798429583</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -31738,7 +31734,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-42.123040449276516,171.3282600126282</t>
+          <t>-42.12303579280107,171.32823890666597</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -31795,7 +31791,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-42.123055697927526,171.32832912887866</t>
+          <t>-42.12304950636613,171.32830106489362</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -31836,7 +31832,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-42.123044747558126,171.32827949505773</t>
+          <t>-42.12303730231825,171.3282457487083</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -31893,7 +31889,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-42.12306636684179,171.32837748708104</t>
+          <t>-42.123060968424866,171.32835301806045</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -31950,7 +31946,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-42.12293749422177,171.32779336287066</t>
+          <t>-42.122936189361894,171.3277874485821</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -32044,7 +32040,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-42.122959907062196,171.32789494951342</t>
+          <t>-42.12296330991719,171.3279103730627</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -32101,7 +32097,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-42.122868438576496,171.3274803697888</t>
+          <t>-42.1228620677094,171.32745149421208</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -32158,7 +32154,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-42.12281670385802,171.32724588636364</t>
+          <t>-42.122811484305274,171.32722222930417</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -32195,7 +32191,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-42.122894152244264,171.3275969158521</t>
+          <t>-42.12289819478041,171.32761523852565</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -32289,7 +32285,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-42.12290223731367,171.32763356120165</t>
+          <t>-42.12290019046175,171.32762428389705</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -32346,7 +32342,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-42.12287736801268,171.3275208419927</t>
+          <t>-42.12287388834867,171.32750507058807</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -32481,7 +32477,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-42.12293030469594,171.32776077630348</t>
+          <t>-42.12293501242919,171.32778211412597</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -32559,7 +32555,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-42.122922219666656,171.32772413092036</t>
+          <t>-42.12291909822819,171.3277099830219</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -32649,7 +32645,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-42.123009312222244,171.32811888106252</t>
+          <t>-42.123011026427704,171.32812665083276</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -32706,7 +32702,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-42.12301647606255,171.32815135174695</t>
+          <t>-42.12301228010004,171.3281323332023</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -32747,7 +32743,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-42.12297149722911,171.32794748236125</t>
+          <t>-42.12297553970999,171.32796580508105</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -32845,7 +32841,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-42.12298779506161,171.32802135308816</t>
+          <t>-42.12298096379373,171.32799039000005</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -32902,7 +32898,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-42.123032748180435,171.32822510661546</t>
+          <t>-42.123026889199984,171.3281985502196</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -32959,7 +32955,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-42.12301317558012,171.32813639203783</t>
+          <t>-42.123007598016244,171.32811111129274</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -33016,7 +33012,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-42.12299864320038,171.32807052295016</t>
+          <t>-42.12300329970639,171.32809162888682</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -33053,7 +33049,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-42.12303704646791,171.3282445890401</t>
+          <t>-42.123038990930226,171.3282534025188</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -33110,7 +33106,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-42.123017294786585,171.32815506268278</t>
+          <t>-42.12301156371589,171.32812908613397</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -33163,7 +33159,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-42.1230226164899,171.3281791837682</t>
+          <t>-42.12301931601104,171.32816422405608</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -33220,7 +33216,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-42.123025916966846,171.32819414348194</t>
+          <t>-42.12302763116729,171.32820191325638</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -33277,7 +33273,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-42.12296274703908,171.3279078217988</t>
+          <t>-42.12296638016055,171.3279242890485</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -33412,7 +33408,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-42.12287460475027,171.32750831764181</t>
+          <t>-42.122871022741435,171.3274920823738</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -33531,7 +33527,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-42.122963181990364,171.32790979323</t>
+          <t>-42.122959190671416,171.32789170245061</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -33588,7 +33584,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-42.12298132198775,171.32799201353257</t>
+          <t>-42.12298587616697,171.3280126555908</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -33686,7 +33682,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-42.12302676127459,171.3281979703857</t>
+          <t>-42.12301903457475,171.32816294842178</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -33739,7 +33735,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-42.12302683802982,171.32819831828604</t>
+          <t>-42.1230223350538,171.32817790813377</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -33833,7 +33829,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-42.12296080255056,171.32789900834203</t>
+          <t>-42.12296023967219,171.3278964570783</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -33882,7 +33878,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-42.12296983418233,171.3279399445342</t>
+          <t>-42.12297351846991,171.32795664372085</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -33939,7 +33935,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-42.12303264584021,171.32822464274824</t>
+          <t>-42.123036406842004,171.32824168986957</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -33988,7 +33984,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-42.12300575588386,171.32810276168985</t>
+          <t>-42.12300979834026,171.32812108443014</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -34029,7 +34025,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-42.122990174490056,171.32803213798564</t>
+          <t>-42.122991939871795,171.32804013968433</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -34070,7 +34066,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-42.12305536532315,171.32832762130909</t>
+          <t>-42.12305393256567,171.32832112716335</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -34152,7 +34148,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-42.122974567468006,171.32796139835077</t>
+          <t>-42.12297620492809,171.3279688202124</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -34299,7 +34295,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-42.122939003765175,171.32780020489105</t>
+          <t>-42.12293821061531,171.32779660993114</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -34336,7 +34332,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-42.12302282117069,171.32818011150235</t>
+          <t>-42.12301760180807,171.32815645428374</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -34381,7 +34377,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-42.122805906542574,171.32719694872546</t>
+          <t>-42.12279953560507,171.32716807320767</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -34434,7 +34430,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-42.12285899740945,171.32743757827367</t>
+          <t>-42.122854622229134,171.32741774806382</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -34471,7 +34467,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-42.122946244450866,171.32783302340042</t>
+          <t>-42.12294788191914,171.3278404452552</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -34512,7 +34508,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-42.12295494349561,171.3278724520085</t>
+          <t>-42.12295568547234,171.32787581503737</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -34565,7 +34561,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-42.122997082502444,171.32806344898307</t>
+          <t>-42.122991121144096,171.32803642875155</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -34843,7 +34839,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-42.12299053268348,171.32803376151867</t>
+          <t>-42.12299434488373,171.32805104054992</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -34888,7 +34884,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-42.12300112496504,171.32808177171822</t>
+          <t>-42.122999538682606,171.32807458178388</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -34982,7 +34978,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-42.12302379340438,171.32818451823957</t>
+          <t>-42.12301895781941,171.32816260052152</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -35023,7 +35019,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-42.12294575832738,171.32783082003738</t>
+          <t>-42.12294110177401,171.32780971414033</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -35076,7 +35072,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-42.1229251620046,171.3277374670555</t>
+          <t>-42.12293125136,171.327765067061</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -35170,7 +35166,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-42.123051732258816,171.32831115401157</t>
+          <t>-42.12304502899314,171.3282807706931</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -35227,7 +35223,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-42.1229570926693,171.32788219319573</t>
+          <t>-42.12296034201371,171.32789692094445</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -35272,7 +35268,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-42.12300590939491,171.32810345749007</t>
+          <t>-42.122999308415764,171.32807353808377</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -35317,7 +35313,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-42.123057744723184,171.3283384062303</t>
+          <t>-42.12304927610131,171.3283000211918</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -35374,7 +35370,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-42.12302706829554,171.32819936198712</t>
+          <t>-42.12303228764944,171.328223019213</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -35460,7 +35456,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-42.12298759037954,171.32802042535508</t>
+          <t>-42.12298651579859,171.32801555475655</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -35501,7 +35497,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-42.12301806234026,171.32815854168524</t>
+          <t>-42.12301867638312,171.32816132488725</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -35575,7 +35571,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-42.123008442326736,171.32811493819423</t>
+          <t>-42.12300104820946,171.32808142381813</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -35612,7 +35608,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-42.12307764977241,171.32842862850762</t>
+          <t>-42.123073453855255,171.32840960992502</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -35723,7 +35719,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-42.12293987367138,171.3278041477504</t>
+          <t>-42.12293698251206,171.32779104354177</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -35821,7 +35817,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-42.12288711617763,171.32756502512854</t>
+          <t>-42.12288013127373,171.32753336634477</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -35915,7 +35911,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-42.1229026722696,171.32763553262896</t>
+          <t>-42.12289783658113,171.32761361499752</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -35956,7 +35952,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-42.122855543320014,171.3274219228446</t>
+          <t>-42.12284968415605,171.3273953666023</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -36042,7 +36038,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-42.12294332770934,171.32781980322258</t>
+          <t>-42.122938543226574,171.32779811749495</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -36087,7 +36083,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-42.12301875313847,171.3281616727875</t>
+          <t>-42.12302177218153,171.32817535686493</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -36161,7 +36157,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-42.12301647606255,171.32815135174695</t>
+          <t>-42.12301522239117,171.3281456693766</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -36218,7 +36214,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-42.123019546277064,171.32816526775687</t>
+          <t>-42.12302307702167,171.32818127117</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -36316,7 +36312,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-42.12306188948214,171.32835719286936</t>
+          <t>-42.12305643989103,171.32833249191856</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -36426,7 +36422,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-42.12304218905756,171.32826789837316</t>
+          <t>-42.12303469264422,171.32823392009294</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -36463,7 +36459,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-42.12301668074357,171.3281522794809</t>
+          <t>-42.12301115435346,171.32812723066638</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -36520,7 +36516,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-42.12304812477712,171.32829480268288</t>
+          <t>-42.123042726342774,171.32827033367684</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -36557,7 +36553,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-42.12306680178511,171.3283794585189</t>
+          <t>-42.123071816423334,171.32840218803983</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -36602,7 +36598,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-42.12303656035223,171.3282423856705</t>
+          <t>-42.123028833665785,171.3282073636954</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -36659,7 +36655,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-42.12295939535451,171.32789263018284</t>
+          <t>-42.12296218416088,171.32790527053496</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -36704,7 +36700,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-42.12300442545453,171.32809673142143</t>
+          <t>-42.12300079235749,171.32808026415128</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -36757,7 +36753,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-42.1229848783415,171.3280081328924</t>
+          <t>-42.122983343225044,171.32800117489512</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -36863,7 +36859,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-42.122979044896766,171.32798169250464</t>
+          <t>-42.12297364639652,171.32795722355374</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -36900,7 +36896,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-42.12303410418814,171.32823125285626</t>
+          <t>-42.1230271194657,171.32819959392066</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -36957,7 +36953,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-42.123013994304614,171.32814010297326</t>
+          <t>-42.12300944014804,171.32811946089612</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -37014,7 +37010,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-42.12300429752862,171.32809615158794</t>
+          <t>-42.122996673138985,171.3280615935164</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -37067,7 +37063,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-42.1229956497302,171.32805695484973</t>
+          <t>-42.123001380817016,171.32808293138507</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -37124,7 +37120,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-42.12293109784692,171.32776437126248</t>
+          <t>-42.12293537062614,171.32778373765606</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -37165,7 +37161,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-42.12296228650239,171.32790573440107</t>
+          <t>-42.12296689186762,171.3279266083796</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -37222,7 +37218,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-42.12292505966243,171.32773700318992</t>
+          <t>-42.1229228337199,171.32772691411367</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -37263,7 +37259,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-42.12287503970832,171.32751028906736</t>
+          <t>-42.122874297721026,171.32750692604733</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -37300,7 +37296,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-42.1229333749572,171.3277746922743</t>
+          <t>-42.12292779731467,171.32774941159502</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -37378,7 +37374,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-42.1230109240871,171.32812618696585</t>
+          <t>-42.12301673191383,171.3281525114144</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -37476,7 +37472,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-42.12295478998316,171.32787175620942</t>
+          <t>-42.12295729735248,171.3278831209279</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -37521,7 +37517,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-42.12305733536411,171.32833655075996</t>
+          <t>-42.123059203064635,171.32834501634377</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -37558,7 +37554,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-42.12306457589836,171.32836936939603</t>
+          <t>-42.12306037997151,171.32835035082152</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -37615,7 +37611,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-42.123018292606346,171.32815958538598</t>
+          <t>-42.12301903457475,171.32816294842178</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -37672,7 +37668,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-42.12299895022288,171.32807191455026</t>
+          <t>-42.12300281358781,171.32808942551964</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -37831,7 +37827,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-42.12309491952059,171.32850690623786</t>
+          <t>-42.12310059933735,171.32853265092325</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -37925,7 +37921,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-42.122944299956686,171.3278242099484</t>
+          <t>-42.12294829128612,171.32784230071897</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -37982,7 +37978,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-42.12288591364901,171.3275595747147</t>
+          <t>-42.12287880081489,171.32752733610104</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -38031,7 +38027,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-42.122916027959185,171.32769606705756</t>
+          <t>-42.122918074805376,171.32770534436693</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -38076,7 +38072,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-42.12292403624069,171.32773236453409</t>
+          <t>-42.12292129858663,171.3277199561305</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -38121,7 +38117,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-42.12297735626691,171.3279740387091</t>
+          <t>-42.12297154839976,171.3279477142944</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -38211,7 +38207,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-42.122897529553136,171.327612223402</t>
+          <t>-42.12290019046175,171.32762428389705</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -38256,7 +38252,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-42.122882459576,171.32754391927187</t>
+          <t>-42.12288199903278,171.32754183187964</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -38305,7 +38301,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-42.12289131223296,171.32758404359552</t>
+          <t>-42.12288494139163,171.32755516799728</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -38358,7 +38354,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-42.12295704149852,171.3278819612627</t>
+          <t>-42.122959318598355,171.32789228228327</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -38432,7 +38428,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-42.12289886000761,171.32761825364938</t>
+          <t>-42.1229026722696,171.32763553262896</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -38477,7 +38473,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-42.12292526434676,171.3277379309211</t>
+          <t>-42.122918381832235,171.3277067359634</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -38518,7 +38514,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-42.12302463771244,171.32818834514308</t>
+          <t>-42.12302184893685,171.32817570476524</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -38612,7 +38608,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-42.12292158002775,171.32772123176073</t>
+          <t>-42.122923908312956,171.3277317847021</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -38706,7 +38702,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-42.12293073964972,171.3277627477326</t>
+          <t>-42.12292413858287,171.32773282839966</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -38751,7 +38747,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-42.12286692901426,171.32747352778412</t>
+          <t>-42.122870562197264,171.32748999498236</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -38796,7 +38792,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-42.12293214685289,171.3277691258858</t>
+          <t>-42.12292488056364,171.32773619142512</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -38833,7 +38829,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-42.12292585281414,171.3277405981483</t>
+          <t>-42.12292846253839,171.32775242672167</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -38940,7 +38936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-42.12288366210536,171.3275493696851</t>
+          <t>-42.122876549268405,171.32751713107382</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -38977,7 +38973,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-42.12305129731433,171.32830918257466</t>
+          <t>-42.1230566957405,171.3283336515875</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -39022,7 +39018,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-42.12296965508496,171.3279391327682</t>
+          <t>-42.12297254622759,171.32795223699082</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -39063,7 +39059,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-42.12299367966777,171.3280480254168</t>
+          <t>-42.122996570798115,171.3280611296497</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -39100,7 +39096,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-42.12298388051585,171.32800361019414</t>
+          <t>-42.12298968837033,171.32802993461942</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -39141,7 +39137,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-42.12297781680239,171.32797612610784</t>
+          <t>-42.12298349673671,171.32800187069483</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -39231,7 +39227,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-42.12305352320632,171.32831927169318</t>
+          <t>-42.1230553909081,171.32832773727597</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -39268,7 +39264,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-42.122985210950006,171.32800964045853</t>
+          <t>-42.122979351920335,171.32798308410386</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -39309,7 +39305,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-42.1230684136336,171.32838676443595</t>
+          <t>-42.123069206765216,171.32839035941112</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -39346,7 +39342,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-42.12302218154317,171.32817721233317</t>
+          <t>-42.123020237075096,171.3281683988593</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -39436,7 +39432,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-42.12288780699183,171.32756815621744</t>
+          <t>-42.122880975603245,171.32753719323034</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -39473,7 +39469,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-42.12286920615036,171.32748384877434</t>
+          <t>-42.12286483097793,171.3274640185579</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -39579,7 +39575,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-42.12292989532765,171.32775892084084</t>
+          <t>-42.12293250505002,171.32777074941578</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -39632,7 +39628,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-42.12293296558913,171.32777283681145</t>
+          <t>-42.12293125136,171.327765067061</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -39783,7 +39779,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-42.122901827943345,171.32763170574069</t>
+          <t>-42.12289688991146,171.3276093242447</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -39836,7 +39832,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-42.122868873535026,171.32748234121394</t>
+          <t>-42.1228694364225,171.32748489247</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -39955,7 +39951,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-42.12295051721863,171.32785238980358</t>
+          <t>-42.122955122593446,171.32787326377408</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -40110,7 +40106,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-42.12291817714767,171.32770580823245</t>
+          <t>-42.122914697508755,171.32769003680679</t>
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -40147,7 +40143,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>-42.12290228848495,171.32763379313425</t>
+          <t>-42.12289740162482,171.32761164357052</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -40204,7 +40200,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>-42.12292037750645,171.32771578134077</t>
+          <t>-42.12291270183255,171.3276809914311</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -40245,7 +40241,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-42.12316512370231,171.3288251201612</t>
+          <t>-42.123157218100005,171.32878928626826</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -40302,7 +40298,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>-42.12306859272785,171.3283875762045</t>
+          <t>-42.123071995517485,171.3284029998085</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -40343,7 +40339,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-42.12301335467611,171.32813720380494</t>
+          <t>-42.123014045474896,171.32814033490675</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -40400,7 +40396,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-42.12302381898947,171.32818463420634</t>
+          <t>-42.12302005797931,171.328167587092</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -40457,7 +40453,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-42.12294268807285,171.32781690406094</t>
+          <t>-42.122937519807266,171.3277934788371</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -40506,7 +40502,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>-42.12288836987742,171.3275707074751</t>
+          <t>-42.122889495648415,171.3275758099906</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -40563,7 +40559,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>-42.12312531414934,171.3286446751502</t>
+          <t>-42.12311815044684,171.32861220435046</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -40657,7 +40653,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>-42.123029319782134,171.32820956706442</t>
+          <t>-42.123020288245314,171.32816863079282</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -40698,7 +40694,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>-42.12297837967901,171.327978677373</t>
+          <t>-42.12298191044931,171.32799468076468</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -40755,7 +40751,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>-42.12307069068861,171.328397085494</t>
+          <t>-42.123071944347714,171.3284027678746</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -40792,7 +40788,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>-42.12302384457456,171.3281847501731</t>
+          <t>-42.123018318191455,171.32815970135275</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -40833,7 +40829,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>-42.123029319782134,171.32820956706442</t>
+          <t>-42.123030240844564,171.32821374186904</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -40870,7 +40866,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>-42.12303221089427,171.32822267131257</t>
+          <t>-42.12303356690211,171.32822881755328</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -40927,7 +40923,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>-42.123033643657266,171.3282291654537</t>
+          <t>-42.12303494849467,171.32823507976104</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -40984,7 +40980,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>-42.12288591364901,171.3275595747147</t>
+          <t>-42.12287892874363,171.32752791593217</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -41033,7 +41029,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>-42.12287772621327,171.32752246551976</t>
+          <t>-42.122869641108835,171.3274858201995</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -41090,7 +41086,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>-42.12289259151752,171.32758984190914</t>
+          <t>-42.12288622067762,171.3275609663097</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -41172,7 +41168,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>-42.12288696266336,171.327564329331</t>
+          <t>-42.12288064298861,171.32753568566932</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -41360,7 +41356,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>-42.12291879120137,171.3277085914254</t>
+          <t>-42.12291543949076,171.32769339983122</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -41417,7 +41413,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-42.12297758653465,171.32797508240847</t>
+          <t>-42.12298127081718,171.32799178159937</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -41527,7 +41523,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>-42.12296343784404,171.32791095289542</t>
+          <t>-42.122964972965896,171.32791791088817</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -41621,7 +41617,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>-42.12299293769602,171.32804466238377</t>
+          <t>-42.12299764537716,171.32806600024986</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -41678,7 +41674,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>-42.12310548602199,171.3285548006338</t>
+          <t>-42.12309719656492,171.32851722730484</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -41731,7 +41727,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>-42.12312892158182,171.32866102652008</t>
+          <t>-42.12312175788387,171.32862855571653</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -41837,7 +41833,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>-42.12307363294935,171.32841042169375</t>
+          <t>-42.12307767535726,171.32842874447462</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -41894,7 +41890,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>-42.123097785014444,171.32851989454701</t>
+          <t>-42.12309847580293,171.32852302565743</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -41951,7 +41947,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>-42.12298454573297,171.32800662532628</t>
+          <t>-42.122980554429105,171.3279885345343</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -42017,7 +42013,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>-42.12304479872813,171.32827972699144</t>
+          <t>-42.123035485780576,171.32823751506416</t>
         </is>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -42054,7 +42050,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>-42.12305014599056,171.32830396406538</t>
+          <t>-42.1230428030978,171.32827068157738</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -42111,7 +42107,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>-42.12300480923225,171.32809847092193</t>
+          <t>-42.12300810971958,171.32811343062696</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -42197,7 +42193,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>-42.122982012790445,171.3279951446311</t>
+          <t>-42.12298559472903,171.32801137995793</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -42340,7 +42336,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>-42.12294713994138,171.3278370822272</t>
+          <t>-42.12294248338914,171.32781597632922</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -42397,7 +42393,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>-42.122919072642624,171.3277098670555</t>
+          <t>-42.12292311516096,171.327728189744</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -42442,7 +42438,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>-42.12290597281651,171.32765049228414</t>
+          <t>-42.122910757326835,171.32767217798872</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -42499,7 +42495,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>-42.12293693134108,171.3277908116089</t>
+          <t>-42.12293096991936,171.32776379143039</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -42556,7 +42552,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>-42.12292462470822,171.32773503176116</t>
+          <t>-42.12291774219291,171.32770383680412</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -42601,7 +42597,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>-42.12290372128085,171.3276402872479</t>
+          <t>-42.12290837786498,171.32766139311917</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -42679,7 +42675,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>-42.12285748784469,171.32743073627114</t>
+          <t>-42.122851910127366,171.32740545565446</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -42818,7 +42814,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>-42.12285784604654,171.32743235979711</t>
+          <t>-42.12285416168364,171.32741566067347</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -42867,7 +42863,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>-42.12299539387798,171.32805579518308</t>
+          <t>-42.12299749186588,171.32806530444984</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -42949,7 +42945,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>-42.12294829128612,171.32784230071897</t>
+          <t>-42.12294386500394,171.32782223851842</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -42994,7 +42990,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>-42.1229246758793,171.32773526369397</t>
+          <t>-42.12291751192274,171.3277027931068</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -43047,7 +43043,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>-42.12297134371711,171.3279467865618</t>
+          <t>-42.12296487062444,171.32791744702197</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -43104,7 +43100,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>-42.12304484989814,171.32827995892515</t>
+          <t>-42.12304809919214,171.328294686716</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -43161,7 +43157,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>-42.1230354346105,171.32823728313053</t>
+          <t>-42.123035946311305,171.32823960246685</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -43198,7 +43194,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>-42.1230226164899,171.3281791837682</t>
+          <t>-42.12302433069134,171.3281869535418</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -43255,7 +43251,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>-42.12301371286808,171.3281388273392</t>
+          <t>-42.123018318191455,171.32815970135275</t>
         </is>
       </c>
       <c r="C312" t="inlineStr"/>
@@ -43296,7 +43292,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>-42.12310952840715,171.32857312343373</t>
+          <t>-42.123113673128174,171.3285919101045</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -43333,7 +43329,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>-42.12304812477712,171.32829480268288</t>
+          <t>-42.12305058093512,171.3283059355022</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -43390,7 +43386,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>-42.12299557297454,171.3280566069497</t>
+          <t>-42.122994037860984,171.32804964895</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -43529,7 +43525,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>-42.122995240366635,171.32805509938308</t>
+          <t>-42.12300097145387,171.32808107591808</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -43586,7 +43582,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>-42.12302435627643,171.32818706950857</t>
+          <t>-42.123030599035474,171.3282153654042</t>
         </is>
       </c>
       <c r="C319" t="inlineStr"/>
@@ -43627,7 +43623,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>-42.12301158930103,171.32812920210068</t>
+          <t>-42.123015452657356,171.32814671307727</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -43672,7 +43668,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>-42.12297937750563,171.32798320007046</t>
+          <t>-42.12298267800779,171.32799815976307</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -43729,7 +43725,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>-42.122993116792664,171.32804547415037</t>
+          <t>-42.12299045592775,171.32803341361873</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -43876,7 +43872,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>-42.122943455636616,171.32782038305493</t>
+          <t>-42.122938671153975,171.3277986973272</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -43921,7 +43917,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>-42.12303205738393,171.32822197551175</t>
+          <t>-42.123033643657266,171.3282291654537</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -44011,7 +44007,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>-42.122968196720414,171.32793252267408</t>
+          <t>-42.12296149335577,171.32790213943844</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -44113,7 +44109,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>-42.12299012331956,171.32803190605236</t>
+          <t>-42.12299472866213,171.32805278004983</t>
         </is>
       </c>
       <c r="C330" t="inlineStr"/>
@@ -44154,7 +44150,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>-42.122922756963256,171.32772656621452</t>
+          <t>-42.12291986579518,171.32771346201318</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -44250,7 +44246,11 @@
           <t>2016-07-31 22:13:25+00:00</t>
         </is>
       </c>
-      <c r="B333" t="inlineStr"/>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-42.12307447724997,171.32841424860348</t>
+        </is>
+      </c>
       <c r="C333" t="inlineStr">
         <is>
           <t>-42.122355668391265,171.32831445963274</t>
@@ -44305,7 +44305,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>-42.122973902249726,171.3279583832196</t>
+          <t>-42.12297663987834,171.32797079164447</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -44415,7 +44415,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>-42.123048687646765,171.32829735395387</t>
+          <t>-42.12304390325307,171.32827566815172</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -44472,7 +44472,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>-42.123022897926,171.32818045940263</t>
+          <t>-42.12302681244474,171.32819820231927</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -44529,7 +44529,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>-42.12298897198332,171.3280266875535</t>
+          <t>-42.12299260508797,171.3280431548173</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -44566,7 +44566,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>-42.12296778735487,171.3279306672091</t>
+          <t>-42.1229588068906,171.32788996295272</t>
         </is>
       </c>
       <c r="C339" t="inlineStr"/>
@@ -44652,7 +44652,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>-42.123016936594844,171.32815343914834</t>
+          <t>-42.123019546277064,171.32816526775687</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -44746,7 +44746,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>-42.12303264584021,171.32822464274824</t>
+          <t>-42.123034743814316,171.32823415202657</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -44803,7 +44803,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>-42.1229937820087,171.32804848928342</t>
+          <t>-42.12299429371327,171.3280508086166</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -44840,7 +44840,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>-42.123020876702824,171.32817129802828</t>
+          <t>-42.1230184972873,171.32816051312</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -44897,7 +44897,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>-42.12304392883808,171.32827578411855</t>
+          <t>-42.12303727673322,171.3282456327415</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -44954,7 +44954,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>-42.123027989358356,171.32820353679136</t>
+          <t>-42.12303105956661,171.32821745280654</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -45011,7 +45011,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>-42.122988102084676,171.3280227446878</t>
+          <t>-42.12299224689466,171.32804153128416</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -45101,7 +45101,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>-42.12294944263063,171.3278475192109</t>
+          <t>-42.12294069240649,171.327807858677</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -45146,7 +45146,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>-42.12295637627817,171.32787894613324</t>
+          <t>-42.12294911002003,171.32784601164656</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -45203,7 +45203,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>-42.12296914337814,171.3279368134369</t>
+          <t>-42.12297142047312,171.32794713446154</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -45260,7 +45260,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>-42.12289289854575,171.32759123350445</t>
+          <t>-42.12289323115968,171.32759274106604</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -45391,7 +45391,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>-42.12288821636317,171.32757001167755</t>
+          <t>-42.12288184551835,171.32754113608223</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -45448,7 +45448,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>-42.122999487512196,171.32807434985054</t>
+          <t>-42.12300352997309,171.32809267258705</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -45493,7 +45493,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>-42.122925238761205,171.3277378149547</t>
+          <t>-42.12292700416323,171.32774581663642</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -45550,7 +45550,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>-42.122920991559916,171.3277185645339</t>
+          <t>-42.12292564812985,171.3277396704171</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -45607,7 +45607,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>-42.12290287695474,171.32763646035946</t>
+          <t>-42.12290226289931,171.32763367716797</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -45652,7 +45652,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>-42.12292239876552,171.32772494268508</t>
+          <t>-42.12291937966944,171.32771125865202</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -45709,7 +45709,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>-42.12286485656376,171.32746413452406</t>
+          <t>-42.12286582882459,171.32746854123857</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -45754,7 +45754,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>-42.123073453855255,171.32840960992502</t>
+          <t>-42.123066341256894,171.32837737111413</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -45852,7 +45852,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>-42.12303305520107,171.32822649821713</t>
+          <t>-42.123039246780486,171.3282545621871</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -45893,7 +45893,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>-42.122989355762094,171.32802842705308</t>
+          <t>-42.12298316412811,171.3280003631288</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -45934,7 +45934,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>-42.12300335087677,171.32809186082022</t>
+          <t>-42.12300836557122,171.3281145902941</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -46036,7 +46036,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>-42.12296604755093,171.3279227814833</t>
+          <t>-42.12296343784404,171.32791095289542</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -46093,7 +46093,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>-42.122954687641545,171.3278712923434</t>
+          <t>-42.12295151505016,171.3278569124969</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -46150,7 +46150,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>-42.122943609149374,171.32782107885373</t>
+          <t>-42.122948316871565,171.32784241668546</t>
         </is>
       </c>
       <c r="C371" t="inlineStr"/>
@@ -46187,7 +46187,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>-42.122906177501534,171.32765142001477</t>
+          <t>-42.12290674038528,171.32765397127395</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -46240,7 +46240,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>-42.122904105065395,171.32764202674264</t>
+          <t>-42.12289960199169,171.32762161667208</t>
         </is>
       </c>
       <c r="C373" t="inlineStr"/>
@@ -46285,7 +46285,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>-42.12297689573141,171.3279719513104</t>
+          <t>-42.122975360612784,171.32796499331496</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -46342,7 +46342,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>-42.122937161610466,171.32779185530688</t>
+          <t>-42.12293125136,171.327765067061</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -46383,7 +46383,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>-42.122997722132794,171.32806634814986</t>
+          <t>-42.123003402047146,171.3280920927536</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -46428,7 +46428,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>-42.12288819077747,171.3275698957113</t>
+          <t>-42.122881717589664,171.32754055625108</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -46485,7 +46485,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>-42.12288877924872,171.32757256293525</t>
+          <t>-42.122882408404536,171.3275436873394</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -46526,7 +46526,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>-42.12286265618337,171.3274541614338</t>
+          <t>-42.122855159532165,171.3274201833526</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -46600,7 +46600,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>-42.122956222765765,171.32787825033418</t>
+          <t>-42.122952410539845,171.3278609713244</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -46657,7 +46657,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>-42.1230135337721,171.32813801557208</t>
+          <t>-42.123012101004015,171.32813152143518</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -46751,7 +46751,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>-42.123029652388034,171.32821107463275</t>
+          <t>-42.12302573787124,171.3281933317145</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -46845,7 +46845,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>-42.12300908195579,171.32811783736207</t>
+          <t>-42.123012894143535,171.32813511640379</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -46902,7 +46902,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>-42.123034641474135,171.32823368815932</t>
+          <t>-42.12303878625001,171.3282524747842</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -46951,7 +46951,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>-42.12303384833767,171.32823009318818</t>
+          <t>-42.123037762848845,171.32824783611113</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -47008,7 +47008,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>-42.12298127081718,171.32799178159937</t>
+          <t>-42.122980349746776,171.32798760680146</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -47106,7 +47106,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>-42.12297968452916,171.32798459166972</t>
+          <t>-42.122981219646604,171.32799154966617</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -47163,7 +47163,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>-42.12308202478027,171.3284484588618</t>
+          <t>-42.12307578207797,171.32842016291872</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -47220,7 +47220,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>-42.12302039058576,171.32816909465984</t>
+          <t>-42.12302425393607,171.3281866056415</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -47265,7 +47265,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>-42.12302174659643,171.3281752408982</t>
+          <t>-42.123023511968334,171.3281832426051</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -47322,7 +47322,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>-42.123046589677834,171.32828784467122</t>
+          <t>-42.12304369857305,171.32827474041696</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -47379,7 +47379,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>-42.12301248478121,171.3281332609361</t>
+          <t>-42.12301043796917,171.32812398359815</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -47436,7 +47436,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>-42.12302640308342,171.32819634685075</t>
+          <t>-42.123022488564395,171.32817860393436</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -47493,7 +47493,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>-42.122918995885925,171.32770951915637</t>
+          <t>-42.12291178075097,171.32767681664254</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -47546,7 +47546,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>-42.12293347729921,171.32777515614</t>
+          <t>-42.122927515873855,171.32774813596455</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -47595,7 +47595,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>-42.12295371539597,171.3278668856161</t>
+          <t>-42.122958781305215,171.3278898469862</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -47681,7 +47681,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>-42.12289335908811,171.32759332089745</t>
+          <t>-42.12288739762048,171.32756630075735</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -47804,7 +47804,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>-42.12294222753451,171.3278148166646</t>
+          <t>-42.122946551476204,171.32783441499816</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -47857,7 +47857,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>-42.122949724070374,171.3278487948423</t>
+          <t>-42.12294097384666,171.327809134308</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -48033,7 +48033,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>-42.12291679552659,171.3276995460485</t>
+          <t>-42.122917998048656,171.32770499646784</t>
         </is>
       </c>
       <c r="C410" t="inlineStr"/>
@@ -48058,7 +48058,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>-42.122917460751594,171.32770256117408</t>
+          <t>-42.12291960993954,171.3277123023494</t>
         </is>
       </c>
       <c r="C411" t="inlineStr"/>
@@ -48091,7 +48091,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>-42.12306562487958,171.32837412404004</t>
+          <t>-42.12306301521861,171.32836229541374</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -48136,7 +48136,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>-42.12306675061531,171.32837922658504</t>
+          <t>-42.12306224767105,171.32835881640617</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -48193,7 +48193,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>-42.123128486643274,171.32865905507822</t>
+          <t>-42.12312746325832,171.3286544163916</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -48340,7 +48340,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>-42.12307317242168,171.32840833428847</t>
+          <t>-42.123065394615416,171.32837308033768</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -48385,7 +48385,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>-42.12313058458184,171.32866856438628</t>
+          <t>-42.12312551882642,171.32864560288743</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -48442,7 +48442,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>-42.12299884788205,171.32807145068355</t>
+          <t>-42.12299982011984,171.32807585741736</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -48491,7 +48491,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>-42.12306856714295,171.3283874602376</t>
+          <t>-42.12306196623691,171.32835754077013</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -48548,7 +48548,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>-42.12308962347008,171.32848290106259</t>
+          <t>-42.12308371337888,171.32845611268345</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -48585,7 +48585,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>-42.12307301891246,171.32840763848674</t>
+          <t>-42.1230683624638,171.32838653250207</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -48671,7 +48671,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>-42.12310379742987,171.32854714680673</t>
+          <t>-42.12310277404046,171.32854250812383</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -48728,7 +48728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>-42.12290909426221,171.32766464017658</t>
+          <t>-42.12290459119246,171.3276442301027</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -48773,7 +48773,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>-42.122927387946206,171.3277475561325</t>
+          <t>-42.12292063336208,171.32771694100455</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -48826,7 +48826,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>-42.12293153280065,171.32776634269163</t>
+          <t>-42.12293273531958,171.32777179311358</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -48863,7 +48863,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>-42.12284374822832,171.32736846246678</t>
+          <t>-42.12284062674658,171.32735431460452</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -48892,7 +48892,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>-42.12287255788834,171.32749904034557</t>
+          <t>-42.12287363249095,171.32750391092603</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -48949,7 +48949,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>-42.12289676198312,171.32760874441323</t>
+          <t>-42.12289374287336,171.32759506039162</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -49047,7 +49047,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>-42.122908275522526,171.32766092925385</t>
+          <t>-42.12290428416485,171.32764283850688</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -49104,7 +49104,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>-42.122887269691915,171.32756572092606</t>
+          <t>-42.12288089884602,171.32753684533162</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -49145,7 +49145,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>-42.123000536505494,171.32807910448443</t>
+          <t>-42.12300434869898,171.32809638352134</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -49202,7 +49202,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>-42.12306186389721,171.32835707690245</t>
+          <t>-42.12306362925659,171.32836507861984</t>
         </is>
       </c>
       <c r="C435" t="inlineStr"/>
@@ -49239,7 +49239,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>-42.12307537272019,171.32841830744724</t>
+          <t>-42.12307184200821,171.3284023040068</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -49296,7 +49296,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>-42.12305697717489,171.32833492722338</t>
+          <t>-42.12304986455581,171.3283026884298</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -49353,7 +49353,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>-42.12302750324189,171.3282013334224</t>
+          <t>-42.12303192945864,171.32822139567773</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -49443,7 +49443,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>-42.12303725114819,171.32824551677467</t>
+          <t>-42.12302873132549,171.32820689982825</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -49488,7 +49488,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>-42.12303297844592,171.3282261503167</t>
+          <t>-42.12303338780676,171.32822800578563</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -49521,7 +49521,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>-42.12308079670823,171.3284428924463</t>
+          <t>-42.123076421699416,171.32842306209295</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -49578,7 +49578,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>-42.12310645824147,171.32855920738294</t>
+          <t>-42.123106637334516,171.32856001915252</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -49672,7 +49672,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>-42.12313017522803,171.32866670891147</t>
+          <t>-42.12312636311931,171.32864942980365</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -49827,7 +49827,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>-42.12299692899115,171.32806275318305</t>
+          <t>-42.12300045974989,171.3280787565844</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -49884,7 +49884,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>-42.1229477284065,171.3278397494563</t>
+          <t>-42.122947907504575,171.32784056122168</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -49941,7 +49941,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>-42.12293757097822,171.32779371076998</t>
+          <t>-42.12294087150478,171.3278086704422</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -49978,7 +49978,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>-42.12294821452981,171.3278419528195</t>
+          <t>-42.122943609149374,171.32782107885373</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -50027,7 +50027,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>-42.12293928520545,171.32780148052203</t>
+          <t>-42.12294268807285,171.32781690406094</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -50076,7 +50076,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>-42.12297316027539,171.3279550201887</t>
+          <t>-42.12296763384278,171.3279299714098</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -50125,7 +50125,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>-42.12290566578898,171.32764910068823</t>
+          <t>-42.12291096201167,171.32767310571947</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -50162,7 +50162,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>-42.12284472049277,171.32737286917828</t>
+          <t>-42.12283620038017,171.32733425247443</t>
         </is>
       </c>
       <c r="C455" t="inlineStr"/>
@@ -50199,7 +50199,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>-42.122940410966315,171.32780658304597</t>
+          <t>-42.122940231868,171.3278057712808</t>
         </is>
       </c>
       <c r="C456" t="inlineStr"/>
@@ -50224,7 +50224,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>-42.122892642688896,171.3275900738417</t>
+          <t>-42.122894126658586,171.3275967998858</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -50253,7 +50253,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>-42.12295645303436,171.3278792940328</t>
+          <t>-42.122962030648644,171.3279045747357</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -50290,7 +50290,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>-42.122909324532735,171.32766568387362</t>
+          <t>-42.12290482146316,171.32764527379962</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -50347,7 +50347,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>-42.122973032348774,171.32795444035585</t>
+          <t>-42.122978942555584,171.32798122863824</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -50404,7 +50404,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>-42.12298863937504,171.32802517998718</t>
+          <t>-42.1229918119456,171.32803955985108</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -50510,7 +50510,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>-42.12308169217744,171.3284469512909</t>
+          <t>-42.123077880036064,171.3284296722104</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -50555,7 +50555,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>-42.12300163666898,171.32808409105195</t>
+          <t>-42.12299508685528,171.3280544035831</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -50612,7 +50612,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>-42.123018625212886,171.32816109295376</t>
+          <t>-42.12301435249654,171.32814172650754</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -50669,7 +50669,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>-42.12305702834478,171.32833515915718</t>
+          <t>-42.12305423958515,171.32832251876596</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -50726,7 +50726,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>-42.12301358494239,171.3281382475055</t>
+          <t>-42.12301051472463,171.32812433149832</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -50783,7 +50783,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>-42.12304139592215,171.32826430340114</t>
+          <t>-42.123042419322665,171.32826894207471</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -50840,7 +50840,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>-42.12302177218153,171.32817535686493</t>
+          <t>-42.12302149074537,171.32817408123057</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -50897,7 +50897,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>-42.12301662957332,171.3281520475474</t>
+          <t>-42.12301258712179,171.32813372480302</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -50930,7 +50930,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>-42.123015452657356,171.32814671307727</t>
+          <t>-42.123012945313825,171.32813534833724</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -50987,7 +50987,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>-42.12303210855405,171.32822220744538</t>
+          <t>-42.123030675790666,171.32821571330456</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -51044,7 +51044,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>-42.12303103398154,171.3282173368397</t>
+          <t>-42.12303223647934,171.32822278727937</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -51101,7 +51101,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>-42.12293066289317,171.32776239983335</t>
+          <t>-42.12292861605154,171.32775312252014</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -51158,7 +51158,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>-42.122986797236464,171.32801683038946</t>
+          <t>-42.122981219646604,171.32799154966617</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -51215,7 +51215,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>-42.1229497496558,171.3278489108088</t>
+          <t>-42.12294532337475,171.3278288486073</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -51272,7 +51272,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>-42.122965100892706,171.32791849072092</t>
+          <t>-42.12297062732778,171.32794353949782</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -51427,7 +51427,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>-42.12307245604524,171.3284050872137</t>
+          <t>-42.12306524110599,171.32837238453612</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -51484,7 +51484,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>-42.12302049292619,171.3281695585269</t>
+          <t>-42.123023895744744,171.32818498210665</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -51541,7 +51541,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>-42.12300319736564,171.32809116502003</t>
+          <t>-42.123006958387016,171.32810821212502</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -51598,7 +51598,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>-42.12292308957541,171.32772807377756</t>
+          <t>-42.122915644175436,171.3276943275621</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -51655,7 +51655,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>-42.122965919624164,171.32792220165055</t>
+          <t>-42.12296768501347,171.32793020334287</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -51712,7 +51712,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>-42.12301616904102,171.32814996014602</t>
+          <t>-42.1230202626602,171.32816851482607</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -51769,7 +51769,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>-42.12296313081962,171.3279095612969</t>
+          <t>-42.1229645636001,171.3279160554234</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -51826,7 +51826,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>-42.123060917254996,171.32835278612663</t>
+          <t>-42.12305590260712,171.3283300566138</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -51924,7 +51924,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>-42.123033592487154,171.3282289335201</t>
+          <t>-42.123031494512645,171.32821942424212</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -51981,7 +51981,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>-42.122952026758576,171.3278592318269</t>
+          <t>-42.122947753991944,171.3278398654228</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -52038,7 +52038,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>-42.122997798888434,171.32806669604992</t>
+          <t>-42.122994677491675,171.32805254811652</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -52095,7 +52095,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>-42.12289814360909,171.32761500659308</t>
+          <t>-42.1228924124177,171.32758903014525</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -52152,7 +52152,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>-42.122928078755486,171.32775068722552</t>
+          <t>-42.122930176768364,171.3277601964714</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -52209,7 +52209,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>-42.122870843640925,171.32749127061047</t>
+          <t>-42.12286669874202,171.32747248408853</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -52279,7 +52279,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>-42.122849735327826,171.32739559853454</t>
+          <t>-42.1228431853383,171.32736591121284</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -52332,7 +52332,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>-42.122957860231146,171.32788567219137</t>
+          <t>-42.12296139101426,171.32790167557232</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -52389,7 +52389,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>-42.1229358567505,171.32778594101836</t>
+          <t>-42.122934372791754,171.32777921496512</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -52446,7 +52446,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>-42.1228856322061,171.32755829908598</t>
+          <t>-42.12287959397309,171.32753093105399</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -52503,7 +52503,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>-42.122930330281456,171.3277608922699</t>
+          <t>-42.12292413858287,171.32773282839966</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -52560,7 +52560,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>-42.122872634645695,171.32749938824418</t>
+          <t>-42.12286403781766,171.32746042360665</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -52617,7 +52617,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>-42.122877649456,171.3275221176211</t>
+          <t>-42.122869922552546,171.3274870958276</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -52674,7 +52674,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>-42.12302238622398,171.3281781400673</t>
+          <t>-42.123017448297325,171.32815575848326</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -52719,7 +52719,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>-42.123059561253726,171.32834663988046</t>
+          <t>-42.12305262773263,171.32831521285232</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -52756,7 +52756,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>-42.12308061761436,171.3284420806774</t>
+          <t>-42.12307885226029,171.32843407895558</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -52813,7 +52813,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>-42.12302164425601,171.3281747770311</t>
+          <t>-42.12302039058576,171.32816909465984</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -52870,7 +52870,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>-42.12297170191175,171.32794841009382</t>
+          <t>-42.12297203452103,171.3279499176593</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -52899,7 +52899,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>-42.122968017622995,171.32793171090816</t>
+          <t>-42.12297085759578,171.32794458319697</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -52956,7 +52956,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>-42.1229937820087,171.32804848928342</t>
+          <t>-42.12299777330322,171.32806658008323</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -53005,7 +53005,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>-42.123053727885996,171.32832019942825</t>
+          <t>-42.12304753632244,171.32829213544503</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -53062,7 +53062,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>-42.12300045974989,171.3280787565844</t>
+          <t>-42.12300516742477,171.32810009445572</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -53111,7 +53111,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>-42.12301882989384,171.32816202068776</t>
+          <t>-42.12301627138153,171.328150424013</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -53168,7 +53168,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>-42.12299191428656,171.32804002371768</t>
+          <t>-42.12299628936071,171.32805985401635</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -53225,7 +53225,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>-42.12300115055025,171.32808188768487</t>
+          <t>-42.12300376023976,171.32809371628733</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -53274,7 +53274,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>-42.12303960497081,171.32825618572272</t>
+          <t>-42.123036253331776,171.32824099406866</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -53384,7 +53384,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>-42.12312551882642,171.32864560288743</t>
+          <t>-42.12312426517919,171.32863992049693</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -53441,7 +53441,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>-42.123012945313825,171.32813534833724</t>
+          <t>-42.123017550637826,171.32815622235026</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -53498,7 +53498,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>-42.12303845364465,171.3282509672154</t>
+          <t>-42.12303645801207,171.32824192180323</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -53555,7 +53555,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>-42.122983522321995,171.32800198666146</t>
+          <t>-42.12298720660064,171.32801868585557</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -53665,7 +53665,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>-42.122899397306426,171.3276206889417</t>
+          <t>-42.12290395155158,171.32764133094474</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -53775,7 +53775,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>-42.12292265462104,171.32772610234895</t>
+          <t>-42.12292493173472,171.32773642335795</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -53832,7 +53832,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>-42.12297415810291,171.32795954288542</t>
+          <t>-42.122968017622995,171.32793171090816</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -53889,7 +53889,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>-42.122947523722985,171.32783882172444</t>
+          <t>-42.12295166856269,171.32785760829591</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -53946,7 +53946,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>-42.1229180492198,171.3277052284006</t>
+          <t>-42.12291976345293,171.32771299814766</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -54003,7 +54003,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>-42.1229736208112,171.3279571075872</t>
+          <t>-42.122972136862344,171.32795038152562</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -54060,7 +54060,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>-42.12288760230615,171.3275672284874</t>
+          <t>-42.12288100118897,171.32753730919657</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -54113,7 +54113,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>-42.122970269133084,171.32794191596582</t>
+          <t>-42.12297249505694,171.32795200505768</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -54170,7 +54170,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>-42.12292063336208,171.32771694100455</t>
+          <t>-42.122917844535216,171.3277043006696</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -54223,7 +54223,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>-42.12292600632737,171.3277412939467</t>
+          <t>-42.12292805316996,171.32775057125912</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -54276,7 +54276,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>-42.1229542271042,171.32786920494624</t>
+          <t>-42.122955352862085,171.32787430747268</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -54333,7 +54333,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>-42.123049071421484,171.32829909345688</t>
+          <t>-42.123046692017816,171.32828830853867</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -54472,7 +54472,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>-42.123093333264436,171.32849971628156</t>
+          <t>-42.12308760227075,171.32847373966825</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -54529,7 +54529,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>-42.123014275741134,171.32814137860737</t>
+          <t>-42.12300803296408,171.32811308272682</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -54627,7 +54627,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>-42.122969373646214,171.327937857136</t>
+          <t>-42.12297147164378,171.32794736639468</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -54782,7 +54782,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>-42.12303494849467,171.32823507976104</t>
+          <t>-42.12303996316112,171.3282578092584</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -54831,7 +54831,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>-42.12296868284198,171.32793472603876</t>
+          <t>-42.122962081819395,171.32790480666878</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -54929,7 +54929,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>-42.122961211916625,171.32790086380655</t>
+          <t>-42.12296745474533,171.32792915964384</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -54978,7 +54978,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>-42.12306782518103,171.32838409719636</t>
+          <t>-42.12306549695506,171.32837354420542</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -55035,7 +55035,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>-42.12311160076803,171.32858251676882</t>
+          <t>-42.123107507214925,171.32856396203346</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -55092,7 +55092,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>-42.1230276055822,171.32820179728958</t>
+          <t>-42.12302788701804,171.32820307292423</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -55149,7 +55149,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>-42.12311267532524,171.32858738738722</t>
+          <t>-42.123111242582254,171.32858089322934</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -55206,7 +55206,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>-42.1230920284405,171.3284938019629</t>
+          <t>-42.12308826747568,171.32847675481062</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -55263,7 +55263,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>-42.12311497794712,171.3285978244273</t>
+          <t>-42.123113852220975,171.32859272187426</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -55320,7 +55320,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>-42.12305119497446,171.32830871870715</t>
+          <t>-42.12305221837319,171.32831335738223</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -55377,7 +55377,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>-42.12314524454539,171.32873501359362</t>
+          <t>-42.1231394368506,171.32870868903473</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -55487,7 +55487,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>-42.123168142667275,171.328838804304</t>
+          <t>-42.123158753169285,171.328796244305</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -55646,7 +55646,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>-42.12311134492106,171.32858135709776</t>
+          <t>-42.123113340527205,171.32859040253206</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -55703,7 +55703,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>-42.1229922724799,171.32804164725079</t>
+          <t>-42.1229984129335,171.32806947925008</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -55760,7 +55760,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>-42.1228856322061,171.32755829908598</t>
+          <t>-42.12287897991513,171.3275281478646</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -55817,7 +55817,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>-42.12288212696145,171.32754241171082</t>
+          <t>-42.122874681507575,171.32750866554045</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -55874,7 +55874,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>-42.12288601599188,171.3275600385797</t>
+          <t>-42.12287903108663,171.32752837979706</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -55931,7 +55931,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>-42.12296545908772,171.32792011425263</t>
+          <t>-42.1229629005513,171.32790851759805</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -56037,7 +56037,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>-42.1230529347522,171.3283166044549</t>
+          <t>-42.123054188415246,171.3283222868322</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -56094,7 +56094,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>-42.12302169542622,171.32817500896465</t>
+          <t>-42.12302537968003,171.3281917081796</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -56147,7 +56147,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>-42.12306889974654,171.32838896780783</t>
+          <t>-42.123064243294515,171.32836786182597</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -56204,7 +56204,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>-42.123007546845905,171.32811087935931</t>
+          <t>-42.12300304385451,171.3280904692199</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -56261,7 +56261,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>-42.12302195127726,171.3281761686323</t>
+          <t>-42.12302650542377,171.32819681071788</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -56318,7 +56318,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>-42.12302896159115,171.32820794352935</t>
+          <t>-42.123025840211575,171.3281937955816</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -56375,7 +56375,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>-42.12300097145387,171.32808107591808</t>
+          <t>-42.12300506508406,171.32809963058892</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -56432,7 +56432,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>-42.122984776000415,171.3280076690259</t>
+          <t>-42.12299081412119,171.32803503715178</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -56489,7 +56489,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>-42.1230306502056,171.32821559733776</t>
+          <t>-42.12302399808513,171.32818544597373</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -56546,7 +56546,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>-42.12299196545703,171.32804025565096</t>
+          <t>-42.12299628936071,171.32805985401635</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -56603,7 +56603,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>-42.12299222130942,171.32804141531747</t>
+          <t>-42.1229961358494,171.32805915821635</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -56660,7 +56660,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>-42.12300654902427,171.3281063566577</t>
+          <t>-42.12300166225416,171.32808420701863</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -56717,7 +56717,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>-42.12299508685528,171.3280544035831</t>
+          <t>-42.12299270742891,171.3280436186839</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -56774,7 +56774,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>-42.12300790503825,171.32811250289328</t>
+          <t>-42.12300590939491,171.32810345749007</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -56827,7 +56827,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>-42.122928334610755,171.3277518468896</t>
+          <t>-42.122925878399684,171.3277407141147</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -56962,7 +56962,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>-42.123000997039064,171.32808119188476</t>
+          <t>-42.12300491157297,171.32809893478873</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -57231,7 +57231,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>-42.12296924571951,171.32793727730316</t>
+          <t>-42.12296264469758,171.32790735793265</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -57288,7 +57288,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>-42.123035946311305,171.32823960246685</t>
+          <t>-42.12304088422182,171.3282619840644</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -57345,7 +57345,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>-42.1230481759471,171.3282950346166</t>
+          <t>-42.123042956607854,171.32827137737846</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -57402,7 +57402,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>-42.12304185645242,171.32826639080423</t>
+          <t>-42.12303929795052,171.32825479412077</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -57508,7 +57508,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>-42.123106381487304,171.3285588594817</t>
+          <t>-42.123101443633956,171.32853647783634</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -57614,7 +57614,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>-42.12310617680954,171.32855793174502</t>
+          <t>-42.12309770826017,171.32851954664585</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">

--- a/data/nzd0383/nzd0383.xlsx
+++ b/data/nzd0383/nzd0383.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K595"/>
+  <dimension ref="A1:K596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23654,6 +23654,45 @@
         <v>283.59</v>
       </c>
       <c r="K595" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:13:40+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>314.69</v>
+      </c>
+      <c r="C596" t="n">
+        <v>324.48</v>
+      </c>
+      <c r="D596" t="n">
+        <v>334.56</v>
+      </c>
+      <c r="E596" t="n">
+        <v>337.3</v>
+      </c>
+      <c r="F596" t="n">
+        <v>339.22</v>
+      </c>
+      <c r="G596" t="n">
+        <v>341.92</v>
+      </c>
+      <c r="H596" t="n">
+        <v>334.28</v>
+      </c>
+      <c r="I596" t="n">
+        <v>323.74</v>
+      </c>
+      <c r="J596" t="n">
+        <v>283.59</v>
+      </c>
+      <c r="K596" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -23670,7 +23709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B605"/>
+  <dimension ref="A1:B606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29728,6 +29767,16 @@
       </c>
       <c r="B605" t="n">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>-0.41</v>
       </c>
     </row>
   </sheetData>
@@ -29901,28 +29950,28 @@
         <v>0.055</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3368924663249029</v>
+        <v>-0.3443191194143346</v>
       </c>
       <c r="J2" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K2" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03092535857388889</v>
+        <v>0.03226098086247686</v>
       </c>
       <c r="M2" t="n">
-        <v>11.3790243027085</v>
+        <v>11.39590595381591</v>
       </c>
       <c r="N2" t="n">
-        <v>194.3681949095558</v>
+        <v>194.8022403872644</v>
       </c>
       <c r="O2" t="n">
-        <v>13.94159943871419</v>
+        <v>13.95715731756522</v>
       </c>
       <c r="P2" t="n">
-        <v>344.8642989761087</v>
+        <v>344.9390784468997</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29973,34 +30022,34 @@
         <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0457</v>
+        <v>0.0456</v>
       </c>
       <c r="H3" t="n">
-        <v>0.058</v>
+        <v>0.0579</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4017202897475654</v>
+        <v>-0.4026154781742721</v>
       </c>
       <c r="J3" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K3" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2037925673659147</v>
+        <v>0.2051090927381368</v>
       </c>
       <c r="M3" t="n">
-        <v>4.895854142581215</v>
+        <v>4.89176190047956</v>
       </c>
       <c r="N3" t="n">
-        <v>34.4576407613957</v>
+        <v>34.41078136024553</v>
       </c>
       <c r="O3" t="n">
-        <v>5.870063096883687</v>
+        <v>5.866070350775341</v>
       </c>
       <c r="P3" t="n">
-        <v>337.5968196541286</v>
+        <v>337.6058333667661</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30054,31 +30103,31 @@
         <v>0.0499</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0608</v>
+        <v>0.0607</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1580275982745914</v>
+        <v>-0.1592587693532895</v>
       </c>
       <c r="J4" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K4" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04859432703856381</v>
+        <v>0.04946629114399148</v>
       </c>
       <c r="M4" t="n">
-        <v>4.017631324977211</v>
+        <v>4.016331773288291</v>
       </c>
       <c r="N4" t="n">
-        <v>26.72059726983266</v>
+        <v>26.69659477058879</v>
       </c>
       <c r="O4" t="n">
-        <v>5.169196965664266</v>
+        <v>5.166874758554613</v>
       </c>
       <c r="P4" t="n">
-        <v>342.2400437945197</v>
+        <v>342.252440539138</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30129,34 +30178,34 @@
         <v>0.055</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0516</v>
+        <v>0.0515</v>
       </c>
       <c r="H5" t="n">
-        <v>0.062</v>
+        <v>0.0618</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2171418861462834</v>
+        <v>-0.2193594914958309</v>
       </c>
       <c r="J5" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K5" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08277380487328156</v>
+        <v>0.08445245621999309</v>
       </c>
       <c r="M5" t="n">
-        <v>4.374443772219137</v>
+        <v>4.378421366185536</v>
       </c>
       <c r="N5" t="n">
-        <v>28.55425671529721</v>
+        <v>28.57409359479018</v>
       </c>
       <c r="O5" t="n">
-        <v>5.343618316767881</v>
+        <v>5.345474122544247</v>
       </c>
       <c r="P5" t="n">
-        <v>349.3713000978861</v>
+        <v>349.3936293157001</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30213,28 +30262,28 @@
         <v>0.053</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3216084862765845</v>
+        <v>-0.3234921811219915</v>
       </c>
       <c r="J6" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K6" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1703472658559193</v>
+        <v>0.1723157087443268</v>
       </c>
       <c r="M6" t="n">
-        <v>4.158888616619911</v>
+        <v>4.161726081209172</v>
       </c>
       <c r="N6" t="n">
-        <v>27.53063945300814</v>
+        <v>27.5333086451887</v>
       </c>
       <c r="O6" t="n">
-        <v>5.246964784807322</v>
+        <v>5.247219134473869</v>
       </c>
       <c r="P6" t="n">
-        <v>353.0727236442427</v>
+        <v>353.0916906946724</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30291,28 +30340,28 @@
         <v>0.0557</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2472948570918994</v>
+        <v>-0.2492184292770092</v>
       </c>
       <c r="J7" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K7" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1339979289649122</v>
+        <v>0.1359942949481641</v>
       </c>
       <c r="M7" t="n">
-        <v>3.827484458303095</v>
+        <v>3.829880964167846</v>
       </c>
       <c r="N7" t="n">
-        <v>21.5998696978474</v>
+        <v>21.61460056247268</v>
       </c>
       <c r="O7" t="n">
-        <v>4.647565997148121</v>
+        <v>4.64915052052229</v>
       </c>
       <c r="P7" t="n">
-        <v>353.9332757359319</v>
+        <v>353.9526443139844</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30369,28 +30418,28 @@
         <v>0.0546</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1326560586909837</v>
+        <v>-0.134869235273387</v>
       </c>
       <c r="J8" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K8" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03497276811463224</v>
+        <v>0.03615630345387566</v>
       </c>
       <c r="M8" t="n">
-        <v>4.194610858087797</v>
+        <v>4.197829887159461</v>
       </c>
       <c r="N8" t="n">
-        <v>26.53773529857546</v>
+        <v>26.56069064546919</v>
       </c>
       <c r="O8" t="n">
-        <v>5.151478942845001</v>
+        <v>5.153706495859964</v>
       </c>
       <c r="P8" t="n">
-        <v>344.1191671241431</v>
+        <v>344.141451748402</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30447,28 +30496,28 @@
         <v>0.0518</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.210157109547457</v>
+        <v>-0.2115621836582733</v>
       </c>
       <c r="J9" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K9" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0622821107089796</v>
+        <v>0.06325515184044672</v>
       </c>
       <c r="M9" t="n">
-        <v>4.963635462257481</v>
+        <v>4.960917862126459</v>
       </c>
       <c r="N9" t="n">
-        <v>36.34102479468392</v>
+        <v>36.30717658703872</v>
       </c>
       <c r="O9" t="n">
-        <v>6.028351747756921</v>
+        <v>6.025543675639462</v>
       </c>
       <c r="P9" t="n">
-        <v>333.286857793891</v>
+        <v>333.3010055798673</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30525,28 +30574,28 @@
         <v>0.08550000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3114358071717152</v>
+        <v>-0.3239280965099586</v>
       </c>
       <c r="J10" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K10" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01165918405250044</v>
+        <v>0.01259102844170013</v>
       </c>
       <c r="M10" t="n">
-        <v>17.22923062859733</v>
+        <v>17.27283489628413</v>
       </c>
       <c r="N10" t="n">
-        <v>449.3407213468889</v>
+        <v>450.7379101353867</v>
       </c>
       <c r="O10" t="n">
-        <v>21.19765839301334</v>
+        <v>21.23058901998215</v>
       </c>
       <c r="P10" t="n">
-        <v>327.648155240452</v>
+        <v>327.7739409442452</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -30588,7 +30637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K595"/>
+  <dimension ref="A1:K596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64511,6 +64560,63 @@
         </is>
       </c>
     </row>
+    <row r="596">
+      <c r="A596" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:13:40+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>-42.123047485152476,171.3282919035113</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>-42.12237784474576,171.3284238057085</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>-42.12170121020875,171.32851315610787</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>-42.12103983502357,171.3286656979335</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>-42.120375405690886,171.32877744681565</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>-42.11970891696889,171.32887963489242</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>-42.11904070946713,171.32899251809536</t>
+        </is>
+      </c>
+      <c r="I596" t="inlineStr">
+        <is>
+          <t>-42.118363959505,171.3291213259195</t>
+        </is>
+      </c>
+      <c r="J596" t="inlineStr">
+        <is>
+          <t>-42.11766093335346,171.32951896168515</t>
+        </is>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
